--- a/MIT_PVLab_Template.xlsx
+++ b/MIT_PVLab_Template.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="233">
   <si>
     <t>Comment</t>
   </si>
@@ -1176,6 +1176,15 @@
   <si>
     <t>Manual Well Custom ID</t>
   </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>baz</t>
+  </si>
 </sst>
 </file>
 
@@ -2161,7 +2170,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2714,9 +2723,11 @@
       <c r="C16" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="45" t="s">
+        <v>2</v>
+      </c>
       <c r="E16" s="46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="47">
         <v>12</v>
@@ -14315,10 +14326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K500"/>
+  <dimension ref="A1:T500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14366,11 +14377,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="str">
+      <c r="A2" s="91">
         <f>IF(manual_wells &gt; 0, 1, "")</f>
-        <v/>
-      </c>
-      <c r="B2" s="91"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>230</v>
+      </c>
       <c r="C2" s="90">
         <v>150</v>
       </c>
@@ -14395,17 +14408,19 @@
       <c r="J2" s="90">
         <v>0</v>
       </c>
-      <c r="K2" s="90" t="str">
+      <c r="K2" s="90">
         <f>IF(NOT(A2=""), SUM(C2:J2), "")</f>
-        <v/>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="str">
+      <c r="A3" s="91">
         <f>IF(A2 &lt; fixed_wells, A2 + 1, "")</f>
-        <v/>
-      </c>
-      <c r="B3" s="91"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>231</v>
+      </c>
       <c r="C3" s="90">
         <v>150</v>
       </c>
@@ -14430,17 +14445,19 @@
       <c r="J3" s="90">
         <v>0</v>
       </c>
-      <c r="K3" s="90" t="str">
+      <c r="K3" s="90">
         <f t="shared" ref="K3:K66" si="0">IF(NOT(A3=""), SUM(C3:J3), "")</f>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="str">
+      <c r="A4" s="91">
         <f t="shared" ref="A4:A34" si="1">IF(A3 &lt; fixed_wells, A3 + 1, "")</f>
-        <v/>
-      </c>
-      <c r="B4" s="91"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>232</v>
+      </c>
       <c r="C4" s="90">
         <v>150</v>
       </c>
@@ -14465,9 +14482,9 @@
       <c r="J4" s="90">
         <v>0</v>
       </c>
-      <c r="K4" s="90" t="str">
+      <c r="K4" s="90">
         <f t="shared" si="0"/>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -14602,7 +14619,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14613,18 +14630,18 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B18" s="91"/>
-      <c r="K18" s="90" t="str">
-        <f t="shared" si="0"/>
+      <c r="T18" s="90" t="str">
+        <f>IF(NOT(A18=""), SUM(C18:S18), "")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14635,7 +14652,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14646,7 +14663,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14657,7 +14674,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14668,7 +14685,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14679,7 +14696,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14690,7 +14707,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14701,7 +14718,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14712,7 +14729,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14723,7 +14740,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14734,7 +14751,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14745,7 +14762,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14756,7 +14773,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14767,7 +14784,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -15900,7 +15917,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>
-    <ignoredError sqref="K2:K3 K4:K97" unlockedFormula="1"/>
+    <ignoredError sqref="T18 K2:K17 K19:K97" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15910,7 +15927,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16410,7 +16427,7 @@
       <c r="C16" s="45"/>
       <c r="D16" s="34">
         <f>'User Interface'!E16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>12</v>

--- a/MIT_PVLab_Template.xlsx
+++ b/MIT_PVLab_Template.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="4" r:id="rId1"/>
-    <sheet name="ManualExps" sheetId="2" r:id="rId2"/>
-    <sheet name="WF1" sheetId="1" r:id="rId3"/>
+    <sheet name="Manual Experiment Interface" sheetId="2" r:id="rId2"/>
+    <sheet name="ManualExps" sheetId="5" r:id="rId3"/>
+    <sheet name="WF1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="fixed_wells" localSheetId="0">'User Interface'!$E$16</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="241">
   <si>
     <t>Comment</t>
   </si>
@@ -904,6 +905,27 @@
     <t>Manual Well Number</t>
   </si>
   <si>
+    <t>Reagent1 (ul)</t>
+  </si>
+  <si>
+    <t>Reagent2 (ul)</t>
+  </si>
+  <si>
+    <t>Reagent3 (ul)</t>
+  </si>
+  <si>
+    <t>Reagent4 (ul)</t>
+  </si>
+  <si>
+    <t>Reagent5 (ul)</t>
+  </si>
+  <si>
+    <t>Reagent6 (ul)</t>
+  </si>
+  <si>
+    <t>Reagent7 (ul)</t>
+  </si>
+  <si>
     <t>Workflow Name</t>
   </si>
   <si>
@@ -1184,6 +1206,9 @@
   </si>
   <si>
     <t>baz</t>
+  </si>
+  <si>
+    <t>Reagent8 (ul)</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2288,7 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="92" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D3" s="93" t="s">
         <v>2</v>
@@ -2275,7 +2300,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -2307,16 +2332,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2371,7 +2396,7 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="21" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>2</v>
@@ -2405,7 +2430,7 @@
     </row>
     <row r="7" spans="1:26" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="105" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -2439,16 +2464,16 @@
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>23</v>
@@ -2479,16 +2504,16 @@
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="115" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>27</v>
@@ -2519,7 +2544,7 @@
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>2</v>
@@ -2557,7 +2582,7 @@
     </row>
     <row r="11" spans="1:26" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="117" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="34"/>
@@ -2591,7 +2616,7 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="34" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>2</v>
@@ -2600,7 +2625,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>23</v>
@@ -2631,7 +2656,7 @@
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="34" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>2</v>
@@ -2640,7 +2665,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>27</v>
@@ -2671,7 +2696,7 @@
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="34" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>2</v>
@@ -2707,7 +2732,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="106" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
@@ -2774,7 +2799,7 @@
     <row r="18" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
       <c r="B18" s="103" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
@@ -2809,16 +2834,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="114" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G19" s="52" t="s">
         <v>48</v>
@@ -2851,7 +2876,7 @@
       </c>
       <c r="B20" s="100"/>
       <c r="C20" s="108" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>2</v>
@@ -2913,25 +2938,25 @@
         <v>2</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="96" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F22" s="96" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H22" s="56" t="s">
         <v>56</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -2957,7 +2982,7 @@
       </c>
       <c r="B23" s="101"/>
       <c r="C23" s="50" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>2</v>
@@ -2993,7 +3018,7 @@
       <c r="A24" s="63"/>
       <c r="B24" s="100"/>
       <c r="C24" s="96" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>2</v>
@@ -3033,7 +3058,7 @@
       <c r="A25" s="63"/>
       <c r="B25" s="100"/>
       <c r="C25" s="96" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D25" s="51" t="s">
         <v>2</v>
@@ -3069,7 +3094,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="104" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B26" s="100"/>
       <c r="C26" s="104"/>
@@ -3103,7 +3128,7 @@
       </c>
       <c r="B27" s="100"/>
       <c r="C27" s="50" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>2</v>
@@ -3145,7 +3170,7 @@
       </c>
       <c r="B28" s="100"/>
       <c r="C28" s="50" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>2</v>
@@ -3187,7 +3212,7 @@
       </c>
       <c r="B29" s="100"/>
       <c r="C29" s="50" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>2</v>
@@ -3257,13 +3282,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="96" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F31" s="50" t="s">
         <v>72</v>
@@ -3297,7 +3322,7 @@
       </c>
       <c r="B32" s="101"/>
       <c r="C32" s="108" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D32" s="64" t="s">
         <v>2</v>
@@ -3335,7 +3360,7 @@
       <c r="A33" s="63"/>
       <c r="B33" s="100"/>
       <c r="C33" s="50" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>2</v>
@@ -3373,7 +3398,7 @@
       <c r="A34" s="63"/>
       <c r="B34" s="100"/>
       <c r="C34" s="50" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D34" s="51" t="s">
         <v>2</v>
@@ -3407,7 +3432,7 @@
       <c r="A35" s="63"/>
       <c r="B35" s="100"/>
       <c r="C35" s="50" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>2</v>
@@ -3439,7 +3464,7 @@
     </row>
     <row r="36" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="104" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B36" s="100"/>
       <c r="C36" s="50"/>
@@ -3473,7 +3498,7 @@
       </c>
       <c r="B37" s="100"/>
       <c r="C37" s="50" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>2</v>
@@ -3515,7 +3540,7 @@
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="50" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>2</v>
@@ -3557,7 +3582,7 @@
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="50" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>2</v>
@@ -3629,7 +3654,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>2</v>
@@ -3667,7 +3692,7 @@
       </c>
       <c r="B42" s="101"/>
       <c r="C42" s="108" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D42" s="64" t="s">
         <v>2</v>
@@ -3707,7 +3732,7 @@
       </c>
       <c r="B43" s="100"/>
       <c r="C43" s="50" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D43" s="51" t="s">
         <v>2</v>
@@ -3745,7 +3770,7 @@
       </c>
       <c r="B44" s="100"/>
       <c r="C44" s="50" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D44" s="51" t="s">
         <v>2</v>
@@ -3783,7 +3808,7 @@
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="50" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D45" s="51" t="s">
         <v>2</v>
@@ -3825,7 +3850,7 @@
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="50" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>2</v>
@@ -3867,7 +3892,7 @@
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="50" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D47" s="51" t="s">
         <v>2</v>
@@ -3939,7 +3964,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>2</v>
@@ -4017,7 +4042,7 @@
       </c>
       <c r="B51" s="101"/>
       <c r="C51" s="50" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>2</v>
@@ -4051,7 +4076,7 @@
       </c>
       <c r="B52" s="101"/>
       <c r="C52" s="50" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D52" s="51" t="s">
         <v>2</v>
@@ -4085,7 +4110,7 @@
       </c>
       <c r="B53" s="101"/>
       <c r="C53" s="50" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>2</v>
@@ -4123,7 +4148,7 @@
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="50" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>2</v>
@@ -4165,7 +4190,7 @@
       </c>
       <c r="B55" s="101"/>
       <c r="C55" s="50" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>2</v>
@@ -4207,7 +4232,7 @@
       </c>
       <c r="B56" s="101"/>
       <c r="C56" s="50" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>2</v>
@@ -4279,7 +4304,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>2</v>
@@ -4318,7 +4343,7 @@
       </c>
       <c r="B59" s="100"/>
       <c r="C59" s="50" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="50"/>
@@ -4421,7 +4446,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D62" s="51" t="s">
         <v>2</v>
@@ -4460,7 +4485,7 @@
       </c>
       <c r="B63" s="100"/>
       <c r="C63" s="50" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D63" s="97" t="s">
         <v>2</v>
@@ -4524,7 +4549,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D65" s="97" t="s">
         <v>2</v>
@@ -4559,7 +4584,7 @@
       </c>
       <c r="B66" s="102"/>
       <c r="C66" s="69" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D66" s="98" t="s">
         <v>2</v>
@@ -4589,7 +4614,7 @@
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="99" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B67" s="99"/>
       <c r="C67" s="74"/>
@@ -4621,7 +4646,7 @@
       <c r="A68" s="78"/>
       <c r="B68" s="78"/>
       <c r="C68" s="74" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D68" s="75" t="s">
         <v>2</v>
@@ -4659,7 +4684,7 @@
       <c r="A69" s="78"/>
       <c r="B69" s="78"/>
       <c r="C69" s="74" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D69" s="75" t="s">
         <v>2</v>
@@ -4697,7 +4722,7 @@
       <c r="A70" s="78"/>
       <c r="B70" s="78"/>
       <c r="C70" s="74" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D70" s="75" t="s">
         <v>2</v>
@@ -4735,7 +4760,7 @@
       <c r="A71" s="78"/>
       <c r="B71" s="78"/>
       <c r="C71" s="74" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>2</v>
@@ -4773,7 +4798,7 @@
       <c r="A72" s="78"/>
       <c r="B72" s="78"/>
       <c r="C72" s="74" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>2</v>
@@ -4813,7 +4838,7 @@
       <c r="A73" s="78"/>
       <c r="B73" s="78"/>
       <c r="C73" s="74" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>2</v>
@@ -4853,7 +4878,7 @@
       <c r="A74" s="78"/>
       <c r="B74" s="78"/>
       <c r="C74" s="74" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>2</v>
@@ -4891,17 +4916,17 @@
     </row>
     <row r="75" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="79" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B75" s="79"/>
       <c r="C75" s="80" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D75" s="81" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="111" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F75" s="80"/>
       <c r="G75" s="82" t="s">
@@ -4931,7 +4956,7 @@
     </row>
     <row r="76" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="99" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B76" s="99"/>
       <c r="C76" s="74"/>
@@ -4963,7 +4988,7 @@
       <c r="A77" s="78"/>
       <c r="B77" s="78"/>
       <c r="C77" s="112" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D77" s="75" t="s">
         <v>2</v>
@@ -4975,7 +5000,7 @@
         <v>45</v>
       </c>
       <c r="G77" s="113" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H77" s="77" t="s">
         <v>131</v>
@@ -5003,7 +5028,7 @@
       <c r="A78" s="78"/>
       <c r="B78" s="78"/>
       <c r="C78" s="74" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D78" s="75" t="s">
         <v>2</v>
@@ -5043,7 +5068,7 @@
       <c r="A79" s="78"/>
       <c r="B79" s="78"/>
       <c r="C79" s="74" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D79" s="75" t="s">
         <v>2</v>
@@ -5083,7 +5108,7 @@
       <c r="A80" s="79"/>
       <c r="B80" s="79"/>
       <c r="C80" s="80" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D80" s="81" t="s">
         <v>2</v>
@@ -14328,8 +14353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14346,34 +14371,34 @@
         <v>138</v>
       </c>
       <c r="B1" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>222</v>
-      </c>
       <c r="F1" s="89" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G1" s="89" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H1" s="89" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I1" s="89" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -14382,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C2" s="90">
         <v>150</v>
@@ -14419,7 +14444,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C3" s="90">
         <v>150</v>
@@ -14456,7 +14481,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C4" s="90">
         <v>150</v>
@@ -15924,6 +15949,4523 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>IF(NOT('Manual Experiment Interface'!A2=""),'Manual Experiment Interface'!A2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B2=""),'Manual Experiment Interface'!B2,"")</f>
+        <v>foo</v>
+      </c>
+      <c r="C2">
+        <f>IF(NOT('Manual Experiment Interface'!C2=""),'Manual Experiment Interface'!C2,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <f>IF(NOT('Manual Experiment Interface'!D2=""),'Manual Experiment Interface'!D2,"")</f>
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <f>IF(NOT('Manual Experiment Interface'!E2=""),'Manual Experiment Interface'!E2,"")</f>
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <f>IF(NOT('Manual Experiment Interface'!F2=""),'Manual Experiment Interface'!F2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>IF(NOT('Manual Experiment Interface'!G2=""),'Manual Experiment Interface'!G2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(NOT('Manual Experiment Interface'!H2=""),'Manual Experiment Interface'!H2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF(NOT('Manual Experiment Interface'!I2=""),'Manual Experiment Interface'!I2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF(NOT('Manual Experiment Interface'!J2=""),'Manual Experiment Interface'!J2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>IF(NOT('Manual Experiment Interface'!K2=""),'Manual Experiment Interface'!K2,"")</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>IF(NOT('Manual Experiment Interface'!A3=""),'Manual Experiment Interface'!A3,"")</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B3=""),'Manual Experiment Interface'!B3,"")</f>
+        <v>bar</v>
+      </c>
+      <c r="C3">
+        <f>IF(NOT('Manual Experiment Interface'!C3=""),'Manual Experiment Interface'!C3,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <f>IF(NOT('Manual Experiment Interface'!D3=""),'Manual Experiment Interface'!D3,"")</f>
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <f>IF(NOT('Manual Experiment Interface'!E3=""),'Manual Experiment Interface'!E3,"")</f>
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <f>IF(NOT('Manual Experiment Interface'!F3=""),'Manual Experiment Interface'!F3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>IF(NOT('Manual Experiment Interface'!G3=""),'Manual Experiment Interface'!G3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF(NOT('Manual Experiment Interface'!H3=""),'Manual Experiment Interface'!H3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IF(NOT('Manual Experiment Interface'!I3=""),'Manual Experiment Interface'!I3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IF(NOT('Manual Experiment Interface'!J3=""),'Manual Experiment Interface'!J3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IF(NOT('Manual Experiment Interface'!K3=""),'Manual Experiment Interface'!K3,"")</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>IF(NOT('Manual Experiment Interface'!A4=""),'Manual Experiment Interface'!A4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B4=""),'Manual Experiment Interface'!B4,"")</f>
+        <v>baz</v>
+      </c>
+      <c r="C4">
+        <f>IF(NOT('Manual Experiment Interface'!C4=""),'Manual Experiment Interface'!C4,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <f>IF(NOT('Manual Experiment Interface'!D4=""),'Manual Experiment Interface'!D4,"")</f>
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <f>IF(NOT('Manual Experiment Interface'!E4=""),'Manual Experiment Interface'!E4,"")</f>
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <f>IF(NOT('Manual Experiment Interface'!F4=""),'Manual Experiment Interface'!F4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>IF(NOT('Manual Experiment Interface'!G4=""),'Manual Experiment Interface'!G4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IF(NOT('Manual Experiment Interface'!H4=""),'Manual Experiment Interface'!H4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>IF(NOT('Manual Experiment Interface'!I4=""),'Manual Experiment Interface'!I4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>IF(NOT('Manual Experiment Interface'!J4=""),'Manual Experiment Interface'!J4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>IF(NOT('Manual Experiment Interface'!K4=""),'Manual Experiment Interface'!K4,"")</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A5=""),'Manual Experiment Interface'!A5,"")</f>
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B5=""),'Manual Experiment Interface'!B5,"")</f>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C5=""),'Manual Experiment Interface'!C5,"")</f>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D5=""),'Manual Experiment Interface'!D5,"")</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E5=""),'Manual Experiment Interface'!E5,"")</f>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F5=""),'Manual Experiment Interface'!F5,"")</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G5=""),'Manual Experiment Interface'!G5,"")</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H5=""),'Manual Experiment Interface'!H5,"")</f>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I5=""),'Manual Experiment Interface'!I5,"")</f>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J5=""),'Manual Experiment Interface'!J5,"")</f>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K5=""),'Manual Experiment Interface'!K5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A6=""),'Manual Experiment Interface'!A6,"")</f>
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B6=""),'Manual Experiment Interface'!B6,"")</f>
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C6=""),'Manual Experiment Interface'!C6,"")</f>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D6=""),'Manual Experiment Interface'!D6,"")</f>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E6=""),'Manual Experiment Interface'!E6,"")</f>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F6=""),'Manual Experiment Interface'!F6,"")</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G6=""),'Manual Experiment Interface'!G6,"")</f>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H6=""),'Manual Experiment Interface'!H6,"")</f>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I6=""),'Manual Experiment Interface'!I6,"")</f>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J6=""),'Manual Experiment Interface'!J6,"")</f>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K6=""),'Manual Experiment Interface'!K6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A7=""),'Manual Experiment Interface'!A7,"")</f>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B7=""),'Manual Experiment Interface'!B7,"")</f>
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C7=""),'Manual Experiment Interface'!C7,"")</f>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D7=""),'Manual Experiment Interface'!D7,"")</f>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E7=""),'Manual Experiment Interface'!E7,"")</f>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F7=""),'Manual Experiment Interface'!F7,"")</f>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G7=""),'Manual Experiment Interface'!G7,"")</f>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H7=""),'Manual Experiment Interface'!H7,"")</f>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I7=""),'Manual Experiment Interface'!I7,"")</f>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J7=""),'Manual Experiment Interface'!J7,"")</f>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K7=""),'Manual Experiment Interface'!K7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A8=""),'Manual Experiment Interface'!A8,"")</f>
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B8=""),'Manual Experiment Interface'!B8,"")</f>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C8=""),'Manual Experiment Interface'!C8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D8=""),'Manual Experiment Interface'!D8,"")</f>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E8=""),'Manual Experiment Interface'!E8,"")</f>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F8=""),'Manual Experiment Interface'!F8,"")</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G8=""),'Manual Experiment Interface'!G8,"")</f>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H8=""),'Manual Experiment Interface'!H8,"")</f>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I8=""),'Manual Experiment Interface'!I8,"")</f>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J8=""),'Manual Experiment Interface'!J8,"")</f>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K8=""),'Manual Experiment Interface'!K8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A9=""),'Manual Experiment Interface'!A9,"")</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B9=""),'Manual Experiment Interface'!B9,"")</f>
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C9=""),'Manual Experiment Interface'!C9,"")</f>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D9=""),'Manual Experiment Interface'!D9,"")</f>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E9=""),'Manual Experiment Interface'!E9,"")</f>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F9=""),'Manual Experiment Interface'!F9,"")</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G9=""),'Manual Experiment Interface'!G9,"")</f>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H9=""),'Manual Experiment Interface'!H9,"")</f>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I9=""),'Manual Experiment Interface'!I9,"")</f>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J9=""),'Manual Experiment Interface'!J9,"")</f>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K9=""),'Manual Experiment Interface'!K9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A10=""),'Manual Experiment Interface'!A10,"")</f>
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B10=""),'Manual Experiment Interface'!B10,"")</f>
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C10=""),'Manual Experiment Interface'!C10,"")</f>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D10=""),'Manual Experiment Interface'!D10,"")</f>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E10=""),'Manual Experiment Interface'!E10,"")</f>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F10=""),'Manual Experiment Interface'!F10,"")</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G10=""),'Manual Experiment Interface'!G10,"")</f>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H10=""),'Manual Experiment Interface'!H10,"")</f>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I10=""),'Manual Experiment Interface'!I10,"")</f>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J10=""),'Manual Experiment Interface'!J10,"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K10=""),'Manual Experiment Interface'!K10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A11=""),'Manual Experiment Interface'!A11,"")</f>
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B11=""),'Manual Experiment Interface'!B11,"")</f>
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C11=""),'Manual Experiment Interface'!C11,"")</f>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D11=""),'Manual Experiment Interface'!D11,"")</f>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E11=""),'Manual Experiment Interface'!E11,"")</f>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F11=""),'Manual Experiment Interface'!F11,"")</f>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G11=""),'Manual Experiment Interface'!G11,"")</f>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H11=""),'Manual Experiment Interface'!H11,"")</f>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I11=""),'Manual Experiment Interface'!I11,"")</f>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J11=""),'Manual Experiment Interface'!J11,"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K11=""),'Manual Experiment Interface'!K11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A12=""),'Manual Experiment Interface'!A12,"")</f>
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B12=""),'Manual Experiment Interface'!B12,"")</f>
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C12=""),'Manual Experiment Interface'!C12,"")</f>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D12=""),'Manual Experiment Interface'!D12,"")</f>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E12=""),'Manual Experiment Interface'!E12,"")</f>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F12=""),'Manual Experiment Interface'!F12,"")</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G12=""),'Manual Experiment Interface'!G12,"")</f>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H12=""),'Manual Experiment Interface'!H12,"")</f>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I12=""),'Manual Experiment Interface'!I12,"")</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J12=""),'Manual Experiment Interface'!J12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K12=""),'Manual Experiment Interface'!K12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A13=""),'Manual Experiment Interface'!A13,"")</f>
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B13=""),'Manual Experiment Interface'!B13,"")</f>
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C13=""),'Manual Experiment Interface'!C13,"")</f>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D13=""),'Manual Experiment Interface'!D13,"")</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E13=""),'Manual Experiment Interface'!E13,"")</f>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F13=""),'Manual Experiment Interface'!F13,"")</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G13=""),'Manual Experiment Interface'!G13,"")</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H13=""),'Manual Experiment Interface'!H13,"")</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I13=""),'Manual Experiment Interface'!I13,"")</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J13=""),'Manual Experiment Interface'!J13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K13=""),'Manual Experiment Interface'!K13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A14=""),'Manual Experiment Interface'!A14,"")</f>
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B14=""),'Manual Experiment Interface'!B14,"")</f>
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C14=""),'Manual Experiment Interface'!C14,"")</f>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D14=""),'Manual Experiment Interface'!D14,"")</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E14=""),'Manual Experiment Interface'!E14,"")</f>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F14=""),'Manual Experiment Interface'!F14,"")</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G14=""),'Manual Experiment Interface'!G14,"")</f>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H14=""),'Manual Experiment Interface'!H14,"")</f>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I14=""),'Manual Experiment Interface'!I14,"")</f>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J14=""),'Manual Experiment Interface'!J14,"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K14=""),'Manual Experiment Interface'!K14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A15=""),'Manual Experiment Interface'!A15,"")</f>
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B15=""),'Manual Experiment Interface'!B15,"")</f>
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C15=""),'Manual Experiment Interface'!C15,"")</f>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D15=""),'Manual Experiment Interface'!D15,"")</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E15=""),'Manual Experiment Interface'!E15,"")</f>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F15=""),'Manual Experiment Interface'!F15,"")</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G15=""),'Manual Experiment Interface'!G15,"")</f>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H15=""),'Manual Experiment Interface'!H15,"")</f>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I15=""),'Manual Experiment Interface'!I15,"")</f>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J15=""),'Manual Experiment Interface'!J15,"")</f>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K15=""),'Manual Experiment Interface'!K15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A16=""),'Manual Experiment Interface'!A16,"")</f>
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B16=""),'Manual Experiment Interface'!B16,"")</f>
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C16=""),'Manual Experiment Interface'!C16,"")</f>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D16=""),'Manual Experiment Interface'!D16,"")</f>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E16=""),'Manual Experiment Interface'!E16,"")</f>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F16=""),'Manual Experiment Interface'!F16,"")</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G16=""),'Manual Experiment Interface'!G16,"")</f>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H16=""),'Manual Experiment Interface'!H16,"")</f>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I16=""),'Manual Experiment Interface'!I16,"")</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J16=""),'Manual Experiment Interface'!J16,"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K16=""),'Manual Experiment Interface'!K16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A17=""),'Manual Experiment Interface'!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B17=""),'Manual Experiment Interface'!B17,"")</f>
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C17=""),'Manual Experiment Interface'!C17,"")</f>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D17=""),'Manual Experiment Interface'!D17,"")</f>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E17=""),'Manual Experiment Interface'!E17,"")</f>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F17=""),'Manual Experiment Interface'!F17,"")</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G17=""),'Manual Experiment Interface'!G17,"")</f>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H17=""),'Manual Experiment Interface'!H17,"")</f>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I17=""),'Manual Experiment Interface'!I17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J17=""),'Manual Experiment Interface'!J17,"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K17=""),'Manual Experiment Interface'!K17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A18=""),'Manual Experiment Interface'!A18,"")</f>
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B18=""),'Manual Experiment Interface'!B18,"")</f>
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C18=""),'Manual Experiment Interface'!C18,"")</f>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D18=""),'Manual Experiment Interface'!D18,"")</f>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E18=""),'Manual Experiment Interface'!E18,"")</f>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F18=""),'Manual Experiment Interface'!F18,"")</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G18=""),'Manual Experiment Interface'!G18,"")</f>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H18=""),'Manual Experiment Interface'!H18,"")</f>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I18=""),'Manual Experiment Interface'!I18,"")</f>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J18=""),'Manual Experiment Interface'!J18,"")</f>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K18=""),'Manual Experiment Interface'!K18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A19=""),'Manual Experiment Interface'!A19,"")</f>
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B19=""),'Manual Experiment Interface'!B19,"")</f>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C19=""),'Manual Experiment Interface'!C19,"")</f>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D19=""),'Manual Experiment Interface'!D19,"")</f>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E19=""),'Manual Experiment Interface'!E19,"")</f>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F19=""),'Manual Experiment Interface'!F19,"")</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G19=""),'Manual Experiment Interface'!G19,"")</f>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H19=""),'Manual Experiment Interface'!H19,"")</f>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I19=""),'Manual Experiment Interface'!I19,"")</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J19=""),'Manual Experiment Interface'!J19,"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K19=""),'Manual Experiment Interface'!K19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A20=""),'Manual Experiment Interface'!A20,"")</f>
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B20=""),'Manual Experiment Interface'!B20,"")</f>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C20=""),'Manual Experiment Interface'!C20,"")</f>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D20=""),'Manual Experiment Interface'!D20,"")</f>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E20=""),'Manual Experiment Interface'!E20,"")</f>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F20=""),'Manual Experiment Interface'!F20,"")</f>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G20=""),'Manual Experiment Interface'!G20,"")</f>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H20=""),'Manual Experiment Interface'!H20,"")</f>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I20=""),'Manual Experiment Interface'!I20,"")</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J20=""),'Manual Experiment Interface'!J20,"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K20=""),'Manual Experiment Interface'!K20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A21=""),'Manual Experiment Interface'!A21,"")</f>
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B21=""),'Manual Experiment Interface'!B21,"")</f>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C21=""),'Manual Experiment Interface'!C21,"")</f>
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D21=""),'Manual Experiment Interface'!D21,"")</f>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E21=""),'Manual Experiment Interface'!E21,"")</f>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F21=""),'Manual Experiment Interface'!F21,"")</f>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G21=""),'Manual Experiment Interface'!G21,"")</f>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H21=""),'Manual Experiment Interface'!H21,"")</f>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I21=""),'Manual Experiment Interface'!I21,"")</f>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J21=""),'Manual Experiment Interface'!J21,"")</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K21=""),'Manual Experiment Interface'!K21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A22=""),'Manual Experiment Interface'!A22,"")</f>
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B22=""),'Manual Experiment Interface'!B22,"")</f>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C22=""),'Manual Experiment Interface'!C22,"")</f>
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D22=""),'Manual Experiment Interface'!D22,"")</f>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E22=""),'Manual Experiment Interface'!E22,"")</f>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F22=""),'Manual Experiment Interface'!F22,"")</f>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G22=""),'Manual Experiment Interface'!G22,"")</f>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H22=""),'Manual Experiment Interface'!H22,"")</f>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I22=""),'Manual Experiment Interface'!I22,"")</f>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J22=""),'Manual Experiment Interface'!J22,"")</f>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K22=""),'Manual Experiment Interface'!K22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A23=""),'Manual Experiment Interface'!A23,"")</f>
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B23=""),'Manual Experiment Interface'!B23,"")</f>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C23=""),'Manual Experiment Interface'!C23,"")</f>
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D23=""),'Manual Experiment Interface'!D23,"")</f>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E23=""),'Manual Experiment Interface'!E23,"")</f>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F23=""),'Manual Experiment Interface'!F23,"")</f>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G23=""),'Manual Experiment Interface'!G23,"")</f>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H23=""),'Manual Experiment Interface'!H23,"")</f>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I23=""),'Manual Experiment Interface'!I23,"")</f>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J23=""),'Manual Experiment Interface'!J23,"")</f>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K23=""),'Manual Experiment Interface'!K23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A24=""),'Manual Experiment Interface'!A24,"")</f>
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B24=""),'Manual Experiment Interface'!B24,"")</f>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C24=""),'Manual Experiment Interface'!C24,"")</f>
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D24=""),'Manual Experiment Interface'!D24,"")</f>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E24=""),'Manual Experiment Interface'!E24,"")</f>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F24=""),'Manual Experiment Interface'!F24,"")</f>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G24=""),'Manual Experiment Interface'!G24,"")</f>
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H24=""),'Manual Experiment Interface'!H24,"")</f>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I24=""),'Manual Experiment Interface'!I24,"")</f>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J24=""),'Manual Experiment Interface'!J24,"")</f>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K24=""),'Manual Experiment Interface'!K24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A25=""),'Manual Experiment Interface'!A25,"")</f>
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B25=""),'Manual Experiment Interface'!B25,"")</f>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C25=""),'Manual Experiment Interface'!C25,"")</f>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D25=""),'Manual Experiment Interface'!D25,"")</f>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E25=""),'Manual Experiment Interface'!E25,"")</f>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F25=""),'Manual Experiment Interface'!F25,"")</f>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G25=""),'Manual Experiment Interface'!G25,"")</f>
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H25=""),'Manual Experiment Interface'!H25,"")</f>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I25=""),'Manual Experiment Interface'!I25,"")</f>
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J25=""),'Manual Experiment Interface'!J25,"")</f>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K25=""),'Manual Experiment Interface'!K25,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A26=""),'Manual Experiment Interface'!A26,"")</f>
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B26=""),'Manual Experiment Interface'!B26,"")</f>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C26=""),'Manual Experiment Interface'!C26,"")</f>
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D26=""),'Manual Experiment Interface'!D26,"")</f>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E26=""),'Manual Experiment Interface'!E26,"")</f>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F26=""),'Manual Experiment Interface'!F26,"")</f>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G26=""),'Manual Experiment Interface'!G26,"")</f>
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H26=""),'Manual Experiment Interface'!H26,"")</f>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I26=""),'Manual Experiment Interface'!I26,"")</f>
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J26=""),'Manual Experiment Interface'!J26,"")</f>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K26=""),'Manual Experiment Interface'!K26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A27=""),'Manual Experiment Interface'!A27,"")</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B27=""),'Manual Experiment Interface'!B27,"")</f>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C27=""),'Manual Experiment Interface'!C27,"")</f>
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D27=""),'Manual Experiment Interface'!D27,"")</f>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E27=""),'Manual Experiment Interface'!E27,"")</f>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F27=""),'Manual Experiment Interface'!F27,"")</f>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G27=""),'Manual Experiment Interface'!G27,"")</f>
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H27=""),'Manual Experiment Interface'!H27,"")</f>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I27=""),'Manual Experiment Interface'!I27,"")</f>
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J27=""),'Manual Experiment Interface'!J27,"")</f>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K27=""),'Manual Experiment Interface'!K27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A28=""),'Manual Experiment Interface'!A28,"")</f>
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B28=""),'Manual Experiment Interface'!B28,"")</f>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C28=""),'Manual Experiment Interface'!C28,"")</f>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D28=""),'Manual Experiment Interface'!D28,"")</f>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E28=""),'Manual Experiment Interface'!E28,"")</f>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F28=""),'Manual Experiment Interface'!F28,"")</f>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G28=""),'Manual Experiment Interface'!G28,"")</f>
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H28=""),'Manual Experiment Interface'!H28,"")</f>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I28=""),'Manual Experiment Interface'!I28,"")</f>
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J28=""),'Manual Experiment Interface'!J28,"")</f>
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K28=""),'Manual Experiment Interface'!K28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A29=""),'Manual Experiment Interface'!A29,"")</f>
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B29=""),'Manual Experiment Interface'!B29,"")</f>
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C29=""),'Manual Experiment Interface'!C29,"")</f>
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D29=""),'Manual Experiment Interface'!D29,"")</f>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E29=""),'Manual Experiment Interface'!E29,"")</f>
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F29=""),'Manual Experiment Interface'!F29,"")</f>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G29=""),'Manual Experiment Interface'!G29,"")</f>
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H29=""),'Manual Experiment Interface'!H29,"")</f>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I29=""),'Manual Experiment Interface'!I29,"")</f>
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J29=""),'Manual Experiment Interface'!J29,"")</f>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K29=""),'Manual Experiment Interface'!K29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A30=""),'Manual Experiment Interface'!A30,"")</f>
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B30=""),'Manual Experiment Interface'!B30,"")</f>
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C30=""),'Manual Experiment Interface'!C30,"")</f>
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D30=""),'Manual Experiment Interface'!D30,"")</f>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E30=""),'Manual Experiment Interface'!E30,"")</f>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F30=""),'Manual Experiment Interface'!F30,"")</f>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G30=""),'Manual Experiment Interface'!G30,"")</f>
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H30=""),'Manual Experiment Interface'!H30,"")</f>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I30=""),'Manual Experiment Interface'!I30,"")</f>
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J30=""),'Manual Experiment Interface'!J30,"")</f>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K30=""),'Manual Experiment Interface'!K30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A31=""),'Manual Experiment Interface'!A31,"")</f>
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B31=""),'Manual Experiment Interface'!B31,"")</f>
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C31=""),'Manual Experiment Interface'!C31,"")</f>
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D31=""),'Manual Experiment Interface'!D31,"")</f>
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E31=""),'Manual Experiment Interface'!E31,"")</f>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F31=""),'Manual Experiment Interface'!F31,"")</f>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G31=""),'Manual Experiment Interface'!G31,"")</f>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H31=""),'Manual Experiment Interface'!H31,"")</f>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I31=""),'Manual Experiment Interface'!I31,"")</f>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J31=""),'Manual Experiment Interface'!J31,"")</f>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K31=""),'Manual Experiment Interface'!K31,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A32=""),'Manual Experiment Interface'!A32,"")</f>
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B32=""),'Manual Experiment Interface'!B32,"")</f>
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C32=""),'Manual Experiment Interface'!C32,"")</f>
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D32=""),'Manual Experiment Interface'!D32,"")</f>
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E32=""),'Manual Experiment Interface'!E32,"")</f>
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F32=""),'Manual Experiment Interface'!F32,"")</f>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G32=""),'Manual Experiment Interface'!G32,"")</f>
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H32=""),'Manual Experiment Interface'!H32,"")</f>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I32=""),'Manual Experiment Interface'!I32,"")</f>
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J32=""),'Manual Experiment Interface'!J32,"")</f>
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K32=""),'Manual Experiment Interface'!K32,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A33=""),'Manual Experiment Interface'!A33,"")</f>
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B33=""),'Manual Experiment Interface'!B33,"")</f>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C33=""),'Manual Experiment Interface'!C33,"")</f>
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D33=""),'Manual Experiment Interface'!D33,"")</f>
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E33=""),'Manual Experiment Interface'!E33,"")</f>
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F33=""),'Manual Experiment Interface'!F33,"")</f>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G33=""),'Manual Experiment Interface'!G33,"")</f>
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H33=""),'Manual Experiment Interface'!H33,"")</f>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I33=""),'Manual Experiment Interface'!I33,"")</f>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J33=""),'Manual Experiment Interface'!J33,"")</f>
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K33=""),'Manual Experiment Interface'!K33,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A34=""),'Manual Experiment Interface'!A34,"")</f>
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B34=""),'Manual Experiment Interface'!B34,"")</f>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C34=""),'Manual Experiment Interface'!C34,"")</f>
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D34=""),'Manual Experiment Interface'!D34,"")</f>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E34=""),'Manual Experiment Interface'!E34,"")</f>
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F34=""),'Manual Experiment Interface'!F34,"")</f>
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G34=""),'Manual Experiment Interface'!G34,"")</f>
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H34=""),'Manual Experiment Interface'!H34,"")</f>
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I34=""),'Manual Experiment Interface'!I34,"")</f>
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J34=""),'Manual Experiment Interface'!J34,"")</f>
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K34=""),'Manual Experiment Interface'!K34,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A35=""),'Manual Experiment Interface'!A35,"")</f>
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B35=""),'Manual Experiment Interface'!B35,"")</f>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C35=""),'Manual Experiment Interface'!C35,"")</f>
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D35=""),'Manual Experiment Interface'!D35,"")</f>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E35=""),'Manual Experiment Interface'!E35,"")</f>
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F35=""),'Manual Experiment Interface'!F35,"")</f>
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G35=""),'Manual Experiment Interface'!G35,"")</f>
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H35=""),'Manual Experiment Interface'!H35,"")</f>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I35=""),'Manual Experiment Interface'!I35,"")</f>
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J35=""),'Manual Experiment Interface'!J35,"")</f>
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K35=""),'Manual Experiment Interface'!K35,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A36=""),'Manual Experiment Interface'!A36,"")</f>
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B36=""),'Manual Experiment Interface'!B36,"")</f>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C36=""),'Manual Experiment Interface'!C36,"")</f>
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D36=""),'Manual Experiment Interface'!D36,"")</f>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E36=""),'Manual Experiment Interface'!E36,"")</f>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F36=""),'Manual Experiment Interface'!F36,"")</f>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G36=""),'Manual Experiment Interface'!G36,"")</f>
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H36=""),'Manual Experiment Interface'!H36,"")</f>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I36=""),'Manual Experiment Interface'!I36,"")</f>
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J36=""),'Manual Experiment Interface'!J36,"")</f>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K36=""),'Manual Experiment Interface'!K36,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A37=""),'Manual Experiment Interface'!A37,"")</f>
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B37=""),'Manual Experiment Interface'!B37,"")</f>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C37=""),'Manual Experiment Interface'!C37,"")</f>
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D37=""),'Manual Experiment Interface'!D37,"")</f>
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E37=""),'Manual Experiment Interface'!E37,"")</f>
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F37=""),'Manual Experiment Interface'!F37,"")</f>
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G37=""),'Manual Experiment Interface'!G37,"")</f>
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H37=""),'Manual Experiment Interface'!H37,"")</f>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I37=""),'Manual Experiment Interface'!I37,"")</f>
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J37=""),'Manual Experiment Interface'!J37,"")</f>
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K37=""),'Manual Experiment Interface'!K37,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A38=""),'Manual Experiment Interface'!A38,"")</f>
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B38=""),'Manual Experiment Interface'!B38,"")</f>
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C38=""),'Manual Experiment Interface'!C38,"")</f>
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D38=""),'Manual Experiment Interface'!D38,"")</f>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E38=""),'Manual Experiment Interface'!E38,"")</f>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F38=""),'Manual Experiment Interface'!F38,"")</f>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G38=""),'Manual Experiment Interface'!G38,"")</f>
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H38=""),'Manual Experiment Interface'!H38,"")</f>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I38=""),'Manual Experiment Interface'!I38,"")</f>
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J38=""),'Manual Experiment Interface'!J38,"")</f>
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K38=""),'Manual Experiment Interface'!K38,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A39=""),'Manual Experiment Interface'!A39,"")</f>
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B39=""),'Manual Experiment Interface'!B39,"")</f>
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C39=""),'Manual Experiment Interface'!C39,"")</f>
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D39=""),'Manual Experiment Interface'!D39,"")</f>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E39=""),'Manual Experiment Interface'!E39,"")</f>
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F39=""),'Manual Experiment Interface'!F39,"")</f>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G39=""),'Manual Experiment Interface'!G39,"")</f>
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H39=""),'Manual Experiment Interface'!H39,"")</f>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I39=""),'Manual Experiment Interface'!I39,"")</f>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J39=""),'Manual Experiment Interface'!J39,"")</f>
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K39=""),'Manual Experiment Interface'!K39,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A40=""),'Manual Experiment Interface'!A40,"")</f>
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B40=""),'Manual Experiment Interface'!B40,"")</f>
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C40=""),'Manual Experiment Interface'!C40,"")</f>
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D40=""),'Manual Experiment Interface'!D40,"")</f>
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E40=""),'Manual Experiment Interface'!E40,"")</f>
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F40=""),'Manual Experiment Interface'!F40,"")</f>
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G40=""),'Manual Experiment Interface'!G40,"")</f>
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H40=""),'Manual Experiment Interface'!H40,"")</f>
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I40=""),'Manual Experiment Interface'!I40,"")</f>
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J40=""),'Manual Experiment Interface'!J40,"")</f>
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K40=""),'Manual Experiment Interface'!K40,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A41=""),'Manual Experiment Interface'!A41,"")</f>
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B41=""),'Manual Experiment Interface'!B41,"")</f>
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C41=""),'Manual Experiment Interface'!C41,"")</f>
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D41=""),'Manual Experiment Interface'!D41,"")</f>
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E41=""),'Manual Experiment Interface'!E41,"")</f>
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F41=""),'Manual Experiment Interface'!F41,"")</f>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G41=""),'Manual Experiment Interface'!G41,"")</f>
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H41=""),'Manual Experiment Interface'!H41,"")</f>
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I41=""),'Manual Experiment Interface'!I41,"")</f>
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J41=""),'Manual Experiment Interface'!J41,"")</f>
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K41=""),'Manual Experiment Interface'!K41,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A42=""),'Manual Experiment Interface'!A42,"")</f>
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B42=""),'Manual Experiment Interface'!B42,"")</f>
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C42=""),'Manual Experiment Interface'!C42,"")</f>
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D42=""),'Manual Experiment Interface'!D42,"")</f>
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E42=""),'Manual Experiment Interface'!E42,"")</f>
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F42=""),'Manual Experiment Interface'!F42,"")</f>
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G42=""),'Manual Experiment Interface'!G42,"")</f>
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H42=""),'Manual Experiment Interface'!H42,"")</f>
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I42=""),'Manual Experiment Interface'!I42,"")</f>
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J42=""),'Manual Experiment Interface'!J42,"")</f>
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K42=""),'Manual Experiment Interface'!K42,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A43=""),'Manual Experiment Interface'!A43,"")</f>
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B43=""),'Manual Experiment Interface'!B43,"")</f>
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C43=""),'Manual Experiment Interface'!C43,"")</f>
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D43=""),'Manual Experiment Interface'!D43,"")</f>
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E43=""),'Manual Experiment Interface'!E43,"")</f>
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F43=""),'Manual Experiment Interface'!F43,"")</f>
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G43=""),'Manual Experiment Interface'!G43,"")</f>
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H43=""),'Manual Experiment Interface'!H43,"")</f>
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I43=""),'Manual Experiment Interface'!I43,"")</f>
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J43=""),'Manual Experiment Interface'!J43,"")</f>
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K43=""),'Manual Experiment Interface'!K43,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A44=""),'Manual Experiment Interface'!A44,"")</f>
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B44=""),'Manual Experiment Interface'!B44,"")</f>
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C44=""),'Manual Experiment Interface'!C44,"")</f>
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D44=""),'Manual Experiment Interface'!D44,"")</f>
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E44=""),'Manual Experiment Interface'!E44,"")</f>
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F44=""),'Manual Experiment Interface'!F44,"")</f>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G44=""),'Manual Experiment Interface'!G44,"")</f>
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H44=""),'Manual Experiment Interface'!H44,"")</f>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I44=""),'Manual Experiment Interface'!I44,"")</f>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J44=""),'Manual Experiment Interface'!J44,"")</f>
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K44=""),'Manual Experiment Interface'!K44,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A45=""),'Manual Experiment Interface'!A45,"")</f>
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B45=""),'Manual Experiment Interface'!B45,"")</f>
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C45=""),'Manual Experiment Interface'!C45,"")</f>
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D45=""),'Manual Experiment Interface'!D45,"")</f>
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E45=""),'Manual Experiment Interface'!E45,"")</f>
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F45=""),'Manual Experiment Interface'!F45,"")</f>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G45=""),'Manual Experiment Interface'!G45,"")</f>
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H45=""),'Manual Experiment Interface'!H45,"")</f>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I45=""),'Manual Experiment Interface'!I45,"")</f>
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J45=""),'Manual Experiment Interface'!J45,"")</f>
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K45=""),'Manual Experiment Interface'!K45,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A46=""),'Manual Experiment Interface'!A46,"")</f>
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B46=""),'Manual Experiment Interface'!B46,"")</f>
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C46=""),'Manual Experiment Interface'!C46,"")</f>
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D46=""),'Manual Experiment Interface'!D46,"")</f>
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E46=""),'Manual Experiment Interface'!E46,"")</f>
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F46=""),'Manual Experiment Interface'!F46,"")</f>
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G46=""),'Manual Experiment Interface'!G46,"")</f>
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H46=""),'Manual Experiment Interface'!H46,"")</f>
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I46=""),'Manual Experiment Interface'!I46,"")</f>
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J46=""),'Manual Experiment Interface'!J46,"")</f>
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K46=""),'Manual Experiment Interface'!K46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A47=""),'Manual Experiment Interface'!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B47=""),'Manual Experiment Interface'!B47,"")</f>
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C47=""),'Manual Experiment Interface'!C47,"")</f>
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D47=""),'Manual Experiment Interface'!D47,"")</f>
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E47=""),'Manual Experiment Interface'!E47,"")</f>
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F47=""),'Manual Experiment Interface'!F47,"")</f>
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G47=""),'Manual Experiment Interface'!G47,"")</f>
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H47=""),'Manual Experiment Interface'!H47,"")</f>
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I47=""),'Manual Experiment Interface'!I47,"")</f>
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J47=""),'Manual Experiment Interface'!J47,"")</f>
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K47=""),'Manual Experiment Interface'!K47,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A48=""),'Manual Experiment Interface'!A48,"")</f>
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B48=""),'Manual Experiment Interface'!B48,"")</f>
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C48=""),'Manual Experiment Interface'!C48,"")</f>
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D48=""),'Manual Experiment Interface'!D48,"")</f>
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E48=""),'Manual Experiment Interface'!E48,"")</f>
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F48=""),'Manual Experiment Interface'!F48,"")</f>
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G48=""),'Manual Experiment Interface'!G48,"")</f>
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H48=""),'Manual Experiment Interface'!H48,"")</f>
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I48=""),'Manual Experiment Interface'!I48,"")</f>
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J48=""),'Manual Experiment Interface'!J48,"")</f>
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K48=""),'Manual Experiment Interface'!K48,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A49=""),'Manual Experiment Interface'!A49,"")</f>
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B49=""),'Manual Experiment Interface'!B49,"")</f>
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C49=""),'Manual Experiment Interface'!C49,"")</f>
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D49=""),'Manual Experiment Interface'!D49,"")</f>
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E49=""),'Manual Experiment Interface'!E49,"")</f>
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F49=""),'Manual Experiment Interface'!F49,"")</f>
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G49=""),'Manual Experiment Interface'!G49,"")</f>
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H49=""),'Manual Experiment Interface'!H49,"")</f>
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I49=""),'Manual Experiment Interface'!I49,"")</f>
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J49=""),'Manual Experiment Interface'!J49,"")</f>
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K49=""),'Manual Experiment Interface'!K49,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A50=""),'Manual Experiment Interface'!A50,"")</f>
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B50=""),'Manual Experiment Interface'!B50,"")</f>
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C50=""),'Manual Experiment Interface'!C50,"")</f>
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D50=""),'Manual Experiment Interface'!D50,"")</f>
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E50=""),'Manual Experiment Interface'!E50,"")</f>
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F50=""),'Manual Experiment Interface'!F50,"")</f>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G50=""),'Manual Experiment Interface'!G50,"")</f>
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H50=""),'Manual Experiment Interface'!H50,"")</f>
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I50=""),'Manual Experiment Interface'!I50,"")</f>
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J50=""),'Manual Experiment Interface'!J50,"")</f>
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K50=""),'Manual Experiment Interface'!K50,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A51=""),'Manual Experiment Interface'!A51,"")</f>
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B51=""),'Manual Experiment Interface'!B51,"")</f>
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C51=""),'Manual Experiment Interface'!C51,"")</f>
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D51=""),'Manual Experiment Interface'!D51,"")</f>
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E51=""),'Manual Experiment Interface'!E51,"")</f>
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F51=""),'Manual Experiment Interface'!F51,"")</f>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G51=""),'Manual Experiment Interface'!G51,"")</f>
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H51=""),'Manual Experiment Interface'!H51,"")</f>
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I51=""),'Manual Experiment Interface'!I51,"")</f>
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J51=""),'Manual Experiment Interface'!J51,"")</f>
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K51=""),'Manual Experiment Interface'!K51,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A52=""),'Manual Experiment Interface'!A52,"")</f>
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B52=""),'Manual Experiment Interface'!B52,"")</f>
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C52=""),'Manual Experiment Interface'!C52,"")</f>
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D52=""),'Manual Experiment Interface'!D52,"")</f>
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E52=""),'Manual Experiment Interface'!E52,"")</f>
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F52=""),'Manual Experiment Interface'!F52,"")</f>
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G52=""),'Manual Experiment Interface'!G52,"")</f>
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H52=""),'Manual Experiment Interface'!H52,"")</f>
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I52=""),'Manual Experiment Interface'!I52,"")</f>
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J52=""),'Manual Experiment Interface'!J52,"")</f>
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K52=""),'Manual Experiment Interface'!K52,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A53=""),'Manual Experiment Interface'!A53,"")</f>
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B53=""),'Manual Experiment Interface'!B53,"")</f>
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C53=""),'Manual Experiment Interface'!C53,"")</f>
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D53=""),'Manual Experiment Interface'!D53,"")</f>
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E53=""),'Manual Experiment Interface'!E53,"")</f>
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F53=""),'Manual Experiment Interface'!F53,"")</f>
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G53=""),'Manual Experiment Interface'!G53,"")</f>
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H53=""),'Manual Experiment Interface'!H53,"")</f>
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I53=""),'Manual Experiment Interface'!I53,"")</f>
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J53=""),'Manual Experiment Interface'!J53,"")</f>
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K53=""),'Manual Experiment Interface'!K53,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A54=""),'Manual Experiment Interface'!A54,"")</f>
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B54=""),'Manual Experiment Interface'!B54,"")</f>
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C54=""),'Manual Experiment Interface'!C54,"")</f>
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D54=""),'Manual Experiment Interface'!D54,"")</f>
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E54=""),'Manual Experiment Interface'!E54,"")</f>
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F54=""),'Manual Experiment Interface'!F54,"")</f>
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G54=""),'Manual Experiment Interface'!G54,"")</f>
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H54=""),'Manual Experiment Interface'!H54,"")</f>
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I54=""),'Manual Experiment Interface'!I54,"")</f>
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J54=""),'Manual Experiment Interface'!J54,"")</f>
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K54=""),'Manual Experiment Interface'!K54,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A55=""),'Manual Experiment Interface'!A55,"")</f>
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B55=""),'Manual Experiment Interface'!B55,"")</f>
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C55=""),'Manual Experiment Interface'!C55,"")</f>
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D55=""),'Manual Experiment Interface'!D55,"")</f>
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E55=""),'Manual Experiment Interface'!E55,"")</f>
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F55=""),'Manual Experiment Interface'!F55,"")</f>
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G55=""),'Manual Experiment Interface'!G55,"")</f>
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H55=""),'Manual Experiment Interface'!H55,"")</f>
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I55=""),'Manual Experiment Interface'!I55,"")</f>
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J55=""),'Manual Experiment Interface'!J55,"")</f>
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K55=""),'Manual Experiment Interface'!K55,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A56=""),'Manual Experiment Interface'!A56,"")</f>
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B56=""),'Manual Experiment Interface'!B56,"")</f>
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C56=""),'Manual Experiment Interface'!C56,"")</f>
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D56=""),'Manual Experiment Interface'!D56,"")</f>
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E56=""),'Manual Experiment Interface'!E56,"")</f>
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F56=""),'Manual Experiment Interface'!F56,"")</f>
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G56=""),'Manual Experiment Interface'!G56,"")</f>
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H56=""),'Manual Experiment Interface'!H56,"")</f>
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I56=""),'Manual Experiment Interface'!I56,"")</f>
+        <v/>
+      </c>
+      <c r="J56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J56=""),'Manual Experiment Interface'!J56,"")</f>
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K56=""),'Manual Experiment Interface'!K56,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A57=""),'Manual Experiment Interface'!A57,"")</f>
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B57=""),'Manual Experiment Interface'!B57,"")</f>
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C57=""),'Manual Experiment Interface'!C57,"")</f>
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D57=""),'Manual Experiment Interface'!D57,"")</f>
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E57=""),'Manual Experiment Interface'!E57,"")</f>
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F57=""),'Manual Experiment Interface'!F57,"")</f>
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G57=""),'Manual Experiment Interface'!G57,"")</f>
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H57=""),'Manual Experiment Interface'!H57,"")</f>
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I57=""),'Manual Experiment Interface'!I57,"")</f>
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J57=""),'Manual Experiment Interface'!J57,"")</f>
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K57=""),'Manual Experiment Interface'!K57,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A58=""),'Manual Experiment Interface'!A58,"")</f>
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B58=""),'Manual Experiment Interface'!B58,"")</f>
+        <v/>
+      </c>
+      <c r="C58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C58=""),'Manual Experiment Interface'!C58,"")</f>
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D58=""),'Manual Experiment Interface'!D58,"")</f>
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E58=""),'Manual Experiment Interface'!E58,"")</f>
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F58=""),'Manual Experiment Interface'!F58,"")</f>
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G58=""),'Manual Experiment Interface'!G58,"")</f>
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H58=""),'Manual Experiment Interface'!H58,"")</f>
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I58=""),'Manual Experiment Interface'!I58,"")</f>
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J58=""),'Manual Experiment Interface'!J58,"")</f>
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K58=""),'Manual Experiment Interface'!K58,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A59=""),'Manual Experiment Interface'!A59,"")</f>
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B59=""),'Manual Experiment Interface'!B59,"")</f>
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C59=""),'Manual Experiment Interface'!C59,"")</f>
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D59=""),'Manual Experiment Interface'!D59,"")</f>
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E59=""),'Manual Experiment Interface'!E59,"")</f>
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F59=""),'Manual Experiment Interface'!F59,"")</f>
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G59=""),'Manual Experiment Interface'!G59,"")</f>
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H59=""),'Manual Experiment Interface'!H59,"")</f>
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I59=""),'Manual Experiment Interface'!I59,"")</f>
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J59=""),'Manual Experiment Interface'!J59,"")</f>
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K59=""),'Manual Experiment Interface'!K59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A60=""),'Manual Experiment Interface'!A60,"")</f>
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B60=""),'Manual Experiment Interface'!B60,"")</f>
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C60=""),'Manual Experiment Interface'!C60,"")</f>
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D60=""),'Manual Experiment Interface'!D60,"")</f>
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E60=""),'Manual Experiment Interface'!E60,"")</f>
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F60=""),'Manual Experiment Interface'!F60,"")</f>
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G60=""),'Manual Experiment Interface'!G60,"")</f>
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H60=""),'Manual Experiment Interface'!H60,"")</f>
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I60=""),'Manual Experiment Interface'!I60,"")</f>
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J60=""),'Manual Experiment Interface'!J60,"")</f>
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K60=""),'Manual Experiment Interface'!K60,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A61=""),'Manual Experiment Interface'!A61,"")</f>
+        <v/>
+      </c>
+      <c r="B61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B61=""),'Manual Experiment Interface'!B61,"")</f>
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C61=""),'Manual Experiment Interface'!C61,"")</f>
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D61=""),'Manual Experiment Interface'!D61,"")</f>
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E61=""),'Manual Experiment Interface'!E61,"")</f>
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F61=""),'Manual Experiment Interface'!F61,"")</f>
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G61=""),'Manual Experiment Interface'!G61,"")</f>
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H61=""),'Manual Experiment Interface'!H61,"")</f>
+        <v/>
+      </c>
+      <c r="I61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I61=""),'Manual Experiment Interface'!I61,"")</f>
+        <v/>
+      </c>
+      <c r="J61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J61=""),'Manual Experiment Interface'!J61,"")</f>
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K61=""),'Manual Experiment Interface'!K61,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A62=""),'Manual Experiment Interface'!A62,"")</f>
+        <v/>
+      </c>
+      <c r="B62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B62=""),'Manual Experiment Interface'!B62,"")</f>
+        <v/>
+      </c>
+      <c r="C62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C62=""),'Manual Experiment Interface'!C62,"")</f>
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D62=""),'Manual Experiment Interface'!D62,"")</f>
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E62=""),'Manual Experiment Interface'!E62,"")</f>
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F62=""),'Manual Experiment Interface'!F62,"")</f>
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G62=""),'Manual Experiment Interface'!G62,"")</f>
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H62=""),'Manual Experiment Interface'!H62,"")</f>
+        <v/>
+      </c>
+      <c r="I62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I62=""),'Manual Experiment Interface'!I62,"")</f>
+        <v/>
+      </c>
+      <c r="J62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J62=""),'Manual Experiment Interface'!J62,"")</f>
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K62=""),'Manual Experiment Interface'!K62,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A63=""),'Manual Experiment Interface'!A63,"")</f>
+        <v/>
+      </c>
+      <c r="B63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B63=""),'Manual Experiment Interface'!B63,"")</f>
+        <v/>
+      </c>
+      <c r="C63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C63=""),'Manual Experiment Interface'!C63,"")</f>
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D63=""),'Manual Experiment Interface'!D63,"")</f>
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E63=""),'Manual Experiment Interface'!E63,"")</f>
+        <v/>
+      </c>
+      <c r="F63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F63=""),'Manual Experiment Interface'!F63,"")</f>
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G63=""),'Manual Experiment Interface'!G63,"")</f>
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H63=""),'Manual Experiment Interface'!H63,"")</f>
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I63=""),'Manual Experiment Interface'!I63,"")</f>
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J63=""),'Manual Experiment Interface'!J63,"")</f>
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K63=""),'Manual Experiment Interface'!K63,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A64=""),'Manual Experiment Interface'!A64,"")</f>
+        <v/>
+      </c>
+      <c r="B64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B64=""),'Manual Experiment Interface'!B64,"")</f>
+        <v/>
+      </c>
+      <c r="C64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C64=""),'Manual Experiment Interface'!C64,"")</f>
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D64=""),'Manual Experiment Interface'!D64,"")</f>
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E64=""),'Manual Experiment Interface'!E64,"")</f>
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F64=""),'Manual Experiment Interface'!F64,"")</f>
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G64=""),'Manual Experiment Interface'!G64,"")</f>
+        <v/>
+      </c>
+      <c r="H64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H64=""),'Manual Experiment Interface'!H64,"")</f>
+        <v/>
+      </c>
+      <c r="I64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I64=""),'Manual Experiment Interface'!I64,"")</f>
+        <v/>
+      </c>
+      <c r="J64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J64=""),'Manual Experiment Interface'!J64,"")</f>
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K64=""),'Manual Experiment Interface'!K64,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A65=""),'Manual Experiment Interface'!A65,"")</f>
+        <v/>
+      </c>
+      <c r="B65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B65=""),'Manual Experiment Interface'!B65,"")</f>
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C65=""),'Manual Experiment Interface'!C65,"")</f>
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D65=""),'Manual Experiment Interface'!D65,"")</f>
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E65=""),'Manual Experiment Interface'!E65,"")</f>
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F65=""),'Manual Experiment Interface'!F65,"")</f>
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G65=""),'Manual Experiment Interface'!G65,"")</f>
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H65=""),'Manual Experiment Interface'!H65,"")</f>
+        <v/>
+      </c>
+      <c r="I65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I65=""),'Manual Experiment Interface'!I65,"")</f>
+        <v/>
+      </c>
+      <c r="J65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J65=""),'Manual Experiment Interface'!J65,"")</f>
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K65=""),'Manual Experiment Interface'!K65,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A66=""),'Manual Experiment Interface'!A66,"")</f>
+        <v/>
+      </c>
+      <c r="B66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B66=""),'Manual Experiment Interface'!B66,"")</f>
+        <v/>
+      </c>
+      <c r="C66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C66=""),'Manual Experiment Interface'!C66,"")</f>
+        <v/>
+      </c>
+      <c r="D66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D66=""),'Manual Experiment Interface'!D66,"")</f>
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E66=""),'Manual Experiment Interface'!E66,"")</f>
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F66=""),'Manual Experiment Interface'!F66,"")</f>
+        <v/>
+      </c>
+      <c r="G66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G66=""),'Manual Experiment Interface'!G66,"")</f>
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H66=""),'Manual Experiment Interface'!H66,"")</f>
+        <v/>
+      </c>
+      <c r="I66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I66=""),'Manual Experiment Interface'!I66,"")</f>
+        <v/>
+      </c>
+      <c r="J66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J66=""),'Manual Experiment Interface'!J66,"")</f>
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K66=""),'Manual Experiment Interface'!K66,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A67=""),'Manual Experiment Interface'!A67,"")</f>
+        <v/>
+      </c>
+      <c r="B67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B67=""),'Manual Experiment Interface'!B67,"")</f>
+        <v/>
+      </c>
+      <c r="C67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C67=""),'Manual Experiment Interface'!C67,"")</f>
+        <v/>
+      </c>
+      <c r="D67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D67=""),'Manual Experiment Interface'!D67,"")</f>
+        <v/>
+      </c>
+      <c r="E67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E67=""),'Manual Experiment Interface'!E67,"")</f>
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F67=""),'Manual Experiment Interface'!F67,"")</f>
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G67=""),'Manual Experiment Interface'!G67,"")</f>
+        <v/>
+      </c>
+      <c r="H67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H67=""),'Manual Experiment Interface'!H67,"")</f>
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I67=""),'Manual Experiment Interface'!I67,"")</f>
+        <v/>
+      </c>
+      <c r="J67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J67=""),'Manual Experiment Interface'!J67,"")</f>
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K67=""),'Manual Experiment Interface'!K67,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A68=""),'Manual Experiment Interface'!A68,"")</f>
+        <v/>
+      </c>
+      <c r="B68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B68=""),'Manual Experiment Interface'!B68,"")</f>
+        <v/>
+      </c>
+      <c r="C68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C68=""),'Manual Experiment Interface'!C68,"")</f>
+        <v/>
+      </c>
+      <c r="D68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D68=""),'Manual Experiment Interface'!D68,"")</f>
+        <v/>
+      </c>
+      <c r="E68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E68=""),'Manual Experiment Interface'!E68,"")</f>
+        <v/>
+      </c>
+      <c r="F68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F68=""),'Manual Experiment Interface'!F68,"")</f>
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G68=""),'Manual Experiment Interface'!G68,"")</f>
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H68=""),'Manual Experiment Interface'!H68,"")</f>
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I68=""),'Manual Experiment Interface'!I68,"")</f>
+        <v/>
+      </c>
+      <c r="J68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J68=""),'Manual Experiment Interface'!J68,"")</f>
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K68=""),'Manual Experiment Interface'!K68,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A69=""),'Manual Experiment Interface'!A69,"")</f>
+        <v/>
+      </c>
+      <c r="B69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B69=""),'Manual Experiment Interface'!B69,"")</f>
+        <v/>
+      </c>
+      <c r="C69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C69=""),'Manual Experiment Interface'!C69,"")</f>
+        <v/>
+      </c>
+      <c r="D69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D69=""),'Manual Experiment Interface'!D69,"")</f>
+        <v/>
+      </c>
+      <c r="E69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E69=""),'Manual Experiment Interface'!E69,"")</f>
+        <v/>
+      </c>
+      <c r="F69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F69=""),'Manual Experiment Interface'!F69,"")</f>
+        <v/>
+      </c>
+      <c r="G69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G69=""),'Manual Experiment Interface'!G69,"")</f>
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H69=""),'Manual Experiment Interface'!H69,"")</f>
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I69=""),'Manual Experiment Interface'!I69,"")</f>
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J69=""),'Manual Experiment Interface'!J69,"")</f>
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K69=""),'Manual Experiment Interface'!K69,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A70=""),'Manual Experiment Interface'!A70,"")</f>
+        <v/>
+      </c>
+      <c r="B70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B70=""),'Manual Experiment Interface'!B70,"")</f>
+        <v/>
+      </c>
+      <c r="C70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C70=""),'Manual Experiment Interface'!C70,"")</f>
+        <v/>
+      </c>
+      <c r="D70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D70=""),'Manual Experiment Interface'!D70,"")</f>
+        <v/>
+      </c>
+      <c r="E70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E70=""),'Manual Experiment Interface'!E70,"")</f>
+        <v/>
+      </c>
+      <c r="F70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F70=""),'Manual Experiment Interface'!F70,"")</f>
+        <v/>
+      </c>
+      <c r="G70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G70=""),'Manual Experiment Interface'!G70,"")</f>
+        <v/>
+      </c>
+      <c r="H70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H70=""),'Manual Experiment Interface'!H70,"")</f>
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I70=""),'Manual Experiment Interface'!I70,"")</f>
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J70=""),'Manual Experiment Interface'!J70,"")</f>
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K70=""),'Manual Experiment Interface'!K70,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A71=""),'Manual Experiment Interface'!A71,"")</f>
+        <v/>
+      </c>
+      <c r="B71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B71=""),'Manual Experiment Interface'!B71,"")</f>
+        <v/>
+      </c>
+      <c r="C71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C71=""),'Manual Experiment Interface'!C71,"")</f>
+        <v/>
+      </c>
+      <c r="D71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D71=""),'Manual Experiment Interface'!D71,"")</f>
+        <v/>
+      </c>
+      <c r="E71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E71=""),'Manual Experiment Interface'!E71,"")</f>
+        <v/>
+      </c>
+      <c r="F71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F71=""),'Manual Experiment Interface'!F71,"")</f>
+        <v/>
+      </c>
+      <c r="G71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G71=""),'Manual Experiment Interface'!G71,"")</f>
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H71=""),'Manual Experiment Interface'!H71,"")</f>
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I71=""),'Manual Experiment Interface'!I71,"")</f>
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J71=""),'Manual Experiment Interface'!J71,"")</f>
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K71=""),'Manual Experiment Interface'!K71,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A72=""),'Manual Experiment Interface'!A72,"")</f>
+        <v/>
+      </c>
+      <c r="B72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B72=""),'Manual Experiment Interface'!B72,"")</f>
+        <v/>
+      </c>
+      <c r="C72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C72=""),'Manual Experiment Interface'!C72,"")</f>
+        <v/>
+      </c>
+      <c r="D72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D72=""),'Manual Experiment Interface'!D72,"")</f>
+        <v/>
+      </c>
+      <c r="E72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E72=""),'Manual Experiment Interface'!E72,"")</f>
+        <v/>
+      </c>
+      <c r="F72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F72=""),'Manual Experiment Interface'!F72,"")</f>
+        <v/>
+      </c>
+      <c r="G72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G72=""),'Manual Experiment Interface'!G72,"")</f>
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H72=""),'Manual Experiment Interface'!H72,"")</f>
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I72=""),'Manual Experiment Interface'!I72,"")</f>
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J72=""),'Manual Experiment Interface'!J72,"")</f>
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K72=""),'Manual Experiment Interface'!K72,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A73=""),'Manual Experiment Interface'!A73,"")</f>
+        <v/>
+      </c>
+      <c r="B73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B73=""),'Manual Experiment Interface'!B73,"")</f>
+        <v/>
+      </c>
+      <c r="C73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C73=""),'Manual Experiment Interface'!C73,"")</f>
+        <v/>
+      </c>
+      <c r="D73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D73=""),'Manual Experiment Interface'!D73,"")</f>
+        <v/>
+      </c>
+      <c r="E73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E73=""),'Manual Experiment Interface'!E73,"")</f>
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F73=""),'Manual Experiment Interface'!F73,"")</f>
+        <v/>
+      </c>
+      <c r="G73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G73=""),'Manual Experiment Interface'!G73,"")</f>
+        <v/>
+      </c>
+      <c r="H73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H73=""),'Manual Experiment Interface'!H73,"")</f>
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I73=""),'Manual Experiment Interface'!I73,"")</f>
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J73=""),'Manual Experiment Interface'!J73,"")</f>
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K73=""),'Manual Experiment Interface'!K73,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A74=""),'Manual Experiment Interface'!A74,"")</f>
+        <v/>
+      </c>
+      <c r="B74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B74=""),'Manual Experiment Interface'!B74,"")</f>
+        <v/>
+      </c>
+      <c r="C74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C74=""),'Manual Experiment Interface'!C74,"")</f>
+        <v/>
+      </c>
+      <c r="D74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D74=""),'Manual Experiment Interface'!D74,"")</f>
+        <v/>
+      </c>
+      <c r="E74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E74=""),'Manual Experiment Interface'!E74,"")</f>
+        <v/>
+      </c>
+      <c r="F74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F74=""),'Manual Experiment Interface'!F74,"")</f>
+        <v/>
+      </c>
+      <c r="G74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G74=""),'Manual Experiment Interface'!G74,"")</f>
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H74=""),'Manual Experiment Interface'!H74,"")</f>
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I74=""),'Manual Experiment Interface'!I74,"")</f>
+        <v/>
+      </c>
+      <c r="J74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J74=""),'Manual Experiment Interface'!J74,"")</f>
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K74=""),'Manual Experiment Interface'!K74,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A75=""),'Manual Experiment Interface'!A75,"")</f>
+        <v/>
+      </c>
+      <c r="B75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B75=""),'Manual Experiment Interface'!B75,"")</f>
+        <v/>
+      </c>
+      <c r="C75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C75=""),'Manual Experiment Interface'!C75,"")</f>
+        <v/>
+      </c>
+      <c r="D75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D75=""),'Manual Experiment Interface'!D75,"")</f>
+        <v/>
+      </c>
+      <c r="E75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E75=""),'Manual Experiment Interface'!E75,"")</f>
+        <v/>
+      </c>
+      <c r="F75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F75=""),'Manual Experiment Interface'!F75,"")</f>
+        <v/>
+      </c>
+      <c r="G75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G75=""),'Manual Experiment Interface'!G75,"")</f>
+        <v/>
+      </c>
+      <c r="H75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H75=""),'Manual Experiment Interface'!H75,"")</f>
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I75=""),'Manual Experiment Interface'!I75,"")</f>
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J75=""),'Manual Experiment Interface'!J75,"")</f>
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K75=""),'Manual Experiment Interface'!K75,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A76=""),'Manual Experiment Interface'!A76,"")</f>
+        <v/>
+      </c>
+      <c r="B76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B76=""),'Manual Experiment Interface'!B76,"")</f>
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C76=""),'Manual Experiment Interface'!C76,"")</f>
+        <v/>
+      </c>
+      <c r="D76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D76=""),'Manual Experiment Interface'!D76,"")</f>
+        <v/>
+      </c>
+      <c r="E76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E76=""),'Manual Experiment Interface'!E76,"")</f>
+        <v/>
+      </c>
+      <c r="F76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F76=""),'Manual Experiment Interface'!F76,"")</f>
+        <v/>
+      </c>
+      <c r="G76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G76=""),'Manual Experiment Interface'!G76,"")</f>
+        <v/>
+      </c>
+      <c r="H76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H76=""),'Manual Experiment Interface'!H76,"")</f>
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I76=""),'Manual Experiment Interface'!I76,"")</f>
+        <v/>
+      </c>
+      <c r="J76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J76=""),'Manual Experiment Interface'!J76,"")</f>
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K76=""),'Manual Experiment Interface'!K76,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A77=""),'Manual Experiment Interface'!A77,"")</f>
+        <v/>
+      </c>
+      <c r="B77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B77=""),'Manual Experiment Interface'!B77,"")</f>
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C77=""),'Manual Experiment Interface'!C77,"")</f>
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D77=""),'Manual Experiment Interface'!D77,"")</f>
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E77=""),'Manual Experiment Interface'!E77,"")</f>
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F77=""),'Manual Experiment Interface'!F77,"")</f>
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G77=""),'Manual Experiment Interface'!G77,"")</f>
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H77=""),'Manual Experiment Interface'!H77,"")</f>
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I77=""),'Manual Experiment Interface'!I77,"")</f>
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J77=""),'Manual Experiment Interface'!J77,"")</f>
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K77=""),'Manual Experiment Interface'!K77,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A78=""),'Manual Experiment Interface'!A78,"")</f>
+        <v/>
+      </c>
+      <c r="B78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B78=""),'Manual Experiment Interface'!B78,"")</f>
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C78=""),'Manual Experiment Interface'!C78,"")</f>
+        <v/>
+      </c>
+      <c r="D78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D78=""),'Manual Experiment Interface'!D78,"")</f>
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E78=""),'Manual Experiment Interface'!E78,"")</f>
+        <v/>
+      </c>
+      <c r="F78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F78=""),'Manual Experiment Interface'!F78,"")</f>
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G78=""),'Manual Experiment Interface'!G78,"")</f>
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H78=""),'Manual Experiment Interface'!H78,"")</f>
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I78=""),'Manual Experiment Interface'!I78,"")</f>
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J78=""),'Manual Experiment Interface'!J78,"")</f>
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K78=""),'Manual Experiment Interface'!K78,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A79=""),'Manual Experiment Interface'!A79,"")</f>
+        <v/>
+      </c>
+      <c r="B79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B79=""),'Manual Experiment Interface'!B79,"")</f>
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C79=""),'Manual Experiment Interface'!C79,"")</f>
+        <v/>
+      </c>
+      <c r="D79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D79=""),'Manual Experiment Interface'!D79,"")</f>
+        <v/>
+      </c>
+      <c r="E79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E79=""),'Manual Experiment Interface'!E79,"")</f>
+        <v/>
+      </c>
+      <c r="F79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F79=""),'Manual Experiment Interface'!F79,"")</f>
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G79=""),'Manual Experiment Interface'!G79,"")</f>
+        <v/>
+      </c>
+      <c r="H79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H79=""),'Manual Experiment Interface'!H79,"")</f>
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I79=""),'Manual Experiment Interface'!I79,"")</f>
+        <v/>
+      </c>
+      <c r="J79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J79=""),'Manual Experiment Interface'!J79,"")</f>
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K79=""),'Manual Experiment Interface'!K79,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A80=""),'Manual Experiment Interface'!A80,"")</f>
+        <v/>
+      </c>
+      <c r="B80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B80=""),'Manual Experiment Interface'!B80,"")</f>
+        <v/>
+      </c>
+      <c r="C80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C80=""),'Manual Experiment Interface'!C80,"")</f>
+        <v/>
+      </c>
+      <c r="D80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D80=""),'Manual Experiment Interface'!D80,"")</f>
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E80=""),'Manual Experiment Interface'!E80,"")</f>
+        <v/>
+      </c>
+      <c r="F80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F80=""),'Manual Experiment Interface'!F80,"")</f>
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G80=""),'Manual Experiment Interface'!G80,"")</f>
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H80=""),'Manual Experiment Interface'!H80,"")</f>
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I80=""),'Manual Experiment Interface'!I80,"")</f>
+        <v/>
+      </c>
+      <c r="J80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J80=""),'Manual Experiment Interface'!J80,"")</f>
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K80=""),'Manual Experiment Interface'!K80,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A81=""),'Manual Experiment Interface'!A81,"")</f>
+        <v/>
+      </c>
+      <c r="B81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B81=""),'Manual Experiment Interface'!B81,"")</f>
+        <v/>
+      </c>
+      <c r="C81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C81=""),'Manual Experiment Interface'!C81,"")</f>
+        <v/>
+      </c>
+      <c r="D81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D81=""),'Manual Experiment Interface'!D81,"")</f>
+        <v/>
+      </c>
+      <c r="E81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E81=""),'Manual Experiment Interface'!E81,"")</f>
+        <v/>
+      </c>
+      <c r="F81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F81=""),'Manual Experiment Interface'!F81,"")</f>
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G81=""),'Manual Experiment Interface'!G81,"")</f>
+        <v/>
+      </c>
+      <c r="H81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H81=""),'Manual Experiment Interface'!H81,"")</f>
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I81=""),'Manual Experiment Interface'!I81,"")</f>
+        <v/>
+      </c>
+      <c r="J81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J81=""),'Manual Experiment Interface'!J81,"")</f>
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K81=""),'Manual Experiment Interface'!K81,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A82=""),'Manual Experiment Interface'!A82,"")</f>
+        <v/>
+      </c>
+      <c r="B82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B82=""),'Manual Experiment Interface'!B82,"")</f>
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C82=""),'Manual Experiment Interface'!C82,"")</f>
+        <v/>
+      </c>
+      <c r="D82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D82=""),'Manual Experiment Interface'!D82,"")</f>
+        <v/>
+      </c>
+      <c r="E82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E82=""),'Manual Experiment Interface'!E82,"")</f>
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F82=""),'Manual Experiment Interface'!F82,"")</f>
+        <v/>
+      </c>
+      <c r="G82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G82=""),'Manual Experiment Interface'!G82,"")</f>
+        <v/>
+      </c>
+      <c r="H82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H82=""),'Manual Experiment Interface'!H82,"")</f>
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I82=""),'Manual Experiment Interface'!I82,"")</f>
+        <v/>
+      </c>
+      <c r="J82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J82=""),'Manual Experiment Interface'!J82,"")</f>
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K82=""),'Manual Experiment Interface'!K82,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A83=""),'Manual Experiment Interface'!A83,"")</f>
+        <v/>
+      </c>
+      <c r="B83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B83=""),'Manual Experiment Interface'!B83,"")</f>
+        <v/>
+      </c>
+      <c r="C83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C83=""),'Manual Experiment Interface'!C83,"")</f>
+        <v/>
+      </c>
+      <c r="D83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D83=""),'Manual Experiment Interface'!D83,"")</f>
+        <v/>
+      </c>
+      <c r="E83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E83=""),'Manual Experiment Interface'!E83,"")</f>
+        <v/>
+      </c>
+      <c r="F83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F83=""),'Manual Experiment Interface'!F83,"")</f>
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G83=""),'Manual Experiment Interface'!G83,"")</f>
+        <v/>
+      </c>
+      <c r="H83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H83=""),'Manual Experiment Interface'!H83,"")</f>
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I83=""),'Manual Experiment Interface'!I83,"")</f>
+        <v/>
+      </c>
+      <c r="J83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J83=""),'Manual Experiment Interface'!J83,"")</f>
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K83=""),'Manual Experiment Interface'!K83,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A84=""),'Manual Experiment Interface'!A84,"")</f>
+        <v/>
+      </c>
+      <c r="B84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B84=""),'Manual Experiment Interface'!B84,"")</f>
+        <v/>
+      </c>
+      <c r="C84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C84=""),'Manual Experiment Interface'!C84,"")</f>
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D84=""),'Manual Experiment Interface'!D84,"")</f>
+        <v/>
+      </c>
+      <c r="E84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E84=""),'Manual Experiment Interface'!E84,"")</f>
+        <v/>
+      </c>
+      <c r="F84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F84=""),'Manual Experiment Interface'!F84,"")</f>
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G84=""),'Manual Experiment Interface'!G84,"")</f>
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H84=""),'Manual Experiment Interface'!H84,"")</f>
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I84=""),'Manual Experiment Interface'!I84,"")</f>
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J84=""),'Manual Experiment Interface'!J84,"")</f>
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K84=""),'Manual Experiment Interface'!K84,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A85=""),'Manual Experiment Interface'!A85,"")</f>
+        <v/>
+      </c>
+      <c r="B85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B85=""),'Manual Experiment Interface'!B85,"")</f>
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C85=""),'Manual Experiment Interface'!C85,"")</f>
+        <v/>
+      </c>
+      <c r="D85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D85=""),'Manual Experiment Interface'!D85,"")</f>
+        <v/>
+      </c>
+      <c r="E85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E85=""),'Manual Experiment Interface'!E85,"")</f>
+        <v/>
+      </c>
+      <c r="F85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F85=""),'Manual Experiment Interface'!F85,"")</f>
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G85=""),'Manual Experiment Interface'!G85,"")</f>
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H85=""),'Manual Experiment Interface'!H85,"")</f>
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I85=""),'Manual Experiment Interface'!I85,"")</f>
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J85=""),'Manual Experiment Interface'!J85,"")</f>
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K85=""),'Manual Experiment Interface'!K85,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A86=""),'Manual Experiment Interface'!A86,"")</f>
+        <v/>
+      </c>
+      <c r="B86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B86=""),'Manual Experiment Interface'!B86,"")</f>
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C86=""),'Manual Experiment Interface'!C86,"")</f>
+        <v/>
+      </c>
+      <c r="D86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D86=""),'Manual Experiment Interface'!D86,"")</f>
+        <v/>
+      </c>
+      <c r="E86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E86=""),'Manual Experiment Interface'!E86,"")</f>
+        <v/>
+      </c>
+      <c r="F86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F86=""),'Manual Experiment Interface'!F86,"")</f>
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G86=""),'Manual Experiment Interface'!G86,"")</f>
+        <v/>
+      </c>
+      <c r="H86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H86=""),'Manual Experiment Interface'!H86,"")</f>
+        <v/>
+      </c>
+      <c r="I86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I86=""),'Manual Experiment Interface'!I86,"")</f>
+        <v/>
+      </c>
+      <c r="J86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J86=""),'Manual Experiment Interface'!J86,"")</f>
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K86=""),'Manual Experiment Interface'!K86,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A87=""),'Manual Experiment Interface'!A87,"")</f>
+        <v/>
+      </c>
+      <c r="B87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B87=""),'Manual Experiment Interface'!B87,"")</f>
+        <v/>
+      </c>
+      <c r="C87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C87=""),'Manual Experiment Interface'!C87,"")</f>
+        <v/>
+      </c>
+      <c r="D87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D87=""),'Manual Experiment Interface'!D87,"")</f>
+        <v/>
+      </c>
+      <c r="E87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E87=""),'Manual Experiment Interface'!E87,"")</f>
+        <v/>
+      </c>
+      <c r="F87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F87=""),'Manual Experiment Interface'!F87,"")</f>
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G87=""),'Manual Experiment Interface'!G87,"")</f>
+        <v/>
+      </c>
+      <c r="H87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H87=""),'Manual Experiment Interface'!H87,"")</f>
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I87=""),'Manual Experiment Interface'!I87,"")</f>
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J87=""),'Manual Experiment Interface'!J87,"")</f>
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K87=""),'Manual Experiment Interface'!K87,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A88=""),'Manual Experiment Interface'!A88,"")</f>
+        <v/>
+      </c>
+      <c r="B88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B88=""),'Manual Experiment Interface'!B88,"")</f>
+        <v/>
+      </c>
+      <c r="C88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C88=""),'Manual Experiment Interface'!C88,"")</f>
+        <v/>
+      </c>
+      <c r="D88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D88=""),'Manual Experiment Interface'!D88,"")</f>
+        <v/>
+      </c>
+      <c r="E88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E88=""),'Manual Experiment Interface'!E88,"")</f>
+        <v/>
+      </c>
+      <c r="F88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F88=""),'Manual Experiment Interface'!F88,"")</f>
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G88=""),'Manual Experiment Interface'!G88,"")</f>
+        <v/>
+      </c>
+      <c r="H88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H88=""),'Manual Experiment Interface'!H88,"")</f>
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I88=""),'Manual Experiment Interface'!I88,"")</f>
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J88=""),'Manual Experiment Interface'!J88,"")</f>
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K88=""),'Manual Experiment Interface'!K88,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A89=""),'Manual Experiment Interface'!A89,"")</f>
+        <v/>
+      </c>
+      <c r="B89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B89=""),'Manual Experiment Interface'!B89,"")</f>
+        <v/>
+      </c>
+      <c r="C89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C89=""),'Manual Experiment Interface'!C89,"")</f>
+        <v/>
+      </c>
+      <c r="D89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D89=""),'Manual Experiment Interface'!D89,"")</f>
+        <v/>
+      </c>
+      <c r="E89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E89=""),'Manual Experiment Interface'!E89,"")</f>
+        <v/>
+      </c>
+      <c r="F89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F89=""),'Manual Experiment Interface'!F89,"")</f>
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G89=""),'Manual Experiment Interface'!G89,"")</f>
+        <v/>
+      </c>
+      <c r="H89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H89=""),'Manual Experiment Interface'!H89,"")</f>
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I89=""),'Manual Experiment Interface'!I89,"")</f>
+        <v/>
+      </c>
+      <c r="J89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J89=""),'Manual Experiment Interface'!J89,"")</f>
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K89=""),'Manual Experiment Interface'!K89,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A90=""),'Manual Experiment Interface'!A90,"")</f>
+        <v/>
+      </c>
+      <c r="B90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B90=""),'Manual Experiment Interface'!B90,"")</f>
+        <v/>
+      </c>
+      <c r="C90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C90=""),'Manual Experiment Interface'!C90,"")</f>
+        <v/>
+      </c>
+      <c r="D90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D90=""),'Manual Experiment Interface'!D90,"")</f>
+        <v/>
+      </c>
+      <c r="E90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E90=""),'Manual Experiment Interface'!E90,"")</f>
+        <v/>
+      </c>
+      <c r="F90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F90=""),'Manual Experiment Interface'!F90,"")</f>
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G90=""),'Manual Experiment Interface'!G90,"")</f>
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H90=""),'Manual Experiment Interface'!H90,"")</f>
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I90=""),'Manual Experiment Interface'!I90,"")</f>
+        <v/>
+      </c>
+      <c r="J90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J90=""),'Manual Experiment Interface'!J90,"")</f>
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K90=""),'Manual Experiment Interface'!K90,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A91=""),'Manual Experiment Interface'!A91,"")</f>
+        <v/>
+      </c>
+      <c r="B91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B91=""),'Manual Experiment Interface'!B91,"")</f>
+        <v/>
+      </c>
+      <c r="C91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C91=""),'Manual Experiment Interface'!C91,"")</f>
+        <v/>
+      </c>
+      <c r="D91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D91=""),'Manual Experiment Interface'!D91,"")</f>
+        <v/>
+      </c>
+      <c r="E91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E91=""),'Manual Experiment Interface'!E91,"")</f>
+        <v/>
+      </c>
+      <c r="F91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F91=""),'Manual Experiment Interface'!F91,"")</f>
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G91=""),'Manual Experiment Interface'!G91,"")</f>
+        <v/>
+      </c>
+      <c r="H91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H91=""),'Manual Experiment Interface'!H91,"")</f>
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I91=""),'Manual Experiment Interface'!I91,"")</f>
+        <v/>
+      </c>
+      <c r="J91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J91=""),'Manual Experiment Interface'!J91,"")</f>
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K91=""),'Manual Experiment Interface'!K91,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A92=""),'Manual Experiment Interface'!A92,"")</f>
+        <v/>
+      </c>
+      <c r="B92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B92=""),'Manual Experiment Interface'!B92,"")</f>
+        <v/>
+      </c>
+      <c r="C92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C92=""),'Manual Experiment Interface'!C92,"")</f>
+        <v/>
+      </c>
+      <c r="D92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D92=""),'Manual Experiment Interface'!D92,"")</f>
+        <v/>
+      </c>
+      <c r="E92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E92=""),'Manual Experiment Interface'!E92,"")</f>
+        <v/>
+      </c>
+      <c r="F92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F92=""),'Manual Experiment Interface'!F92,"")</f>
+        <v/>
+      </c>
+      <c r="G92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G92=""),'Manual Experiment Interface'!G92,"")</f>
+        <v/>
+      </c>
+      <c r="H92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H92=""),'Manual Experiment Interface'!H92,"")</f>
+        <v/>
+      </c>
+      <c r="I92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I92=""),'Manual Experiment Interface'!I92,"")</f>
+        <v/>
+      </c>
+      <c r="J92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J92=""),'Manual Experiment Interface'!J92,"")</f>
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K92=""),'Manual Experiment Interface'!K92,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A93=""),'Manual Experiment Interface'!A93,"")</f>
+        <v/>
+      </c>
+      <c r="B93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B93=""),'Manual Experiment Interface'!B93,"")</f>
+        <v/>
+      </c>
+      <c r="C93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C93=""),'Manual Experiment Interface'!C93,"")</f>
+        <v/>
+      </c>
+      <c r="D93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D93=""),'Manual Experiment Interface'!D93,"")</f>
+        <v/>
+      </c>
+      <c r="E93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E93=""),'Manual Experiment Interface'!E93,"")</f>
+        <v/>
+      </c>
+      <c r="F93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F93=""),'Manual Experiment Interface'!F93,"")</f>
+        <v/>
+      </c>
+      <c r="G93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G93=""),'Manual Experiment Interface'!G93,"")</f>
+        <v/>
+      </c>
+      <c r="H93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H93=""),'Manual Experiment Interface'!H93,"")</f>
+        <v/>
+      </c>
+      <c r="I93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I93=""),'Manual Experiment Interface'!I93,"")</f>
+        <v/>
+      </c>
+      <c r="J93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J93=""),'Manual Experiment Interface'!J93,"")</f>
+        <v/>
+      </c>
+      <c r="K93" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K93=""),'Manual Experiment Interface'!K93,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A94=""),'Manual Experiment Interface'!A94,"")</f>
+        <v/>
+      </c>
+      <c r="B94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B94=""),'Manual Experiment Interface'!B94,"")</f>
+        <v/>
+      </c>
+      <c r="C94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C94=""),'Manual Experiment Interface'!C94,"")</f>
+        <v/>
+      </c>
+      <c r="D94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D94=""),'Manual Experiment Interface'!D94,"")</f>
+        <v/>
+      </c>
+      <c r="E94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E94=""),'Manual Experiment Interface'!E94,"")</f>
+        <v/>
+      </c>
+      <c r="F94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F94=""),'Manual Experiment Interface'!F94,"")</f>
+        <v/>
+      </c>
+      <c r="G94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G94=""),'Manual Experiment Interface'!G94,"")</f>
+        <v/>
+      </c>
+      <c r="H94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H94=""),'Manual Experiment Interface'!H94,"")</f>
+        <v/>
+      </c>
+      <c r="I94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I94=""),'Manual Experiment Interface'!I94,"")</f>
+        <v/>
+      </c>
+      <c r="J94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J94=""),'Manual Experiment Interface'!J94,"")</f>
+        <v/>
+      </c>
+      <c r="K94" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K94=""),'Manual Experiment Interface'!K94,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A95=""),'Manual Experiment Interface'!A95,"")</f>
+        <v/>
+      </c>
+      <c r="B95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B95=""),'Manual Experiment Interface'!B95,"")</f>
+        <v/>
+      </c>
+      <c r="C95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C95=""),'Manual Experiment Interface'!C95,"")</f>
+        <v/>
+      </c>
+      <c r="D95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D95=""),'Manual Experiment Interface'!D95,"")</f>
+        <v/>
+      </c>
+      <c r="E95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E95=""),'Manual Experiment Interface'!E95,"")</f>
+        <v/>
+      </c>
+      <c r="F95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F95=""),'Manual Experiment Interface'!F95,"")</f>
+        <v/>
+      </c>
+      <c r="G95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G95=""),'Manual Experiment Interface'!G95,"")</f>
+        <v/>
+      </c>
+      <c r="H95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H95=""),'Manual Experiment Interface'!H95,"")</f>
+        <v/>
+      </c>
+      <c r="I95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I95=""),'Manual Experiment Interface'!I95,"")</f>
+        <v/>
+      </c>
+      <c r="J95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J95=""),'Manual Experiment Interface'!J95,"")</f>
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K95=""),'Manual Experiment Interface'!K95,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A96=""),'Manual Experiment Interface'!A96,"")</f>
+        <v/>
+      </c>
+      <c r="B96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B96=""),'Manual Experiment Interface'!B96,"")</f>
+        <v/>
+      </c>
+      <c r="C96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C96=""),'Manual Experiment Interface'!C96,"")</f>
+        <v/>
+      </c>
+      <c r="D96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D96=""),'Manual Experiment Interface'!D96,"")</f>
+        <v/>
+      </c>
+      <c r="E96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E96=""),'Manual Experiment Interface'!E96,"")</f>
+        <v/>
+      </c>
+      <c r="F96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F96=""),'Manual Experiment Interface'!F96,"")</f>
+        <v/>
+      </c>
+      <c r="G96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G96=""),'Manual Experiment Interface'!G96,"")</f>
+        <v/>
+      </c>
+      <c r="H96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H96=""),'Manual Experiment Interface'!H96,"")</f>
+        <v/>
+      </c>
+      <c r="I96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I96=""),'Manual Experiment Interface'!I96,"")</f>
+        <v/>
+      </c>
+      <c r="J96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J96=""),'Manual Experiment Interface'!J96,"")</f>
+        <v/>
+      </c>
+      <c r="K96" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K96=""),'Manual Experiment Interface'!K96,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A97=""),'Manual Experiment Interface'!A97,"")</f>
+        <v/>
+      </c>
+      <c r="B97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B97=""),'Manual Experiment Interface'!B97,"")</f>
+        <v/>
+      </c>
+      <c r="C97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C97=""),'Manual Experiment Interface'!C97,"")</f>
+        <v/>
+      </c>
+      <c r="D97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D97=""),'Manual Experiment Interface'!D97,"")</f>
+        <v/>
+      </c>
+      <c r="E97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E97=""),'Manual Experiment Interface'!E97,"")</f>
+        <v/>
+      </c>
+      <c r="F97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F97=""),'Manual Experiment Interface'!F97,"")</f>
+        <v/>
+      </c>
+      <c r="G97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G97=""),'Manual Experiment Interface'!G97,"")</f>
+        <v/>
+      </c>
+      <c r="H97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H97=""),'Manual Experiment Interface'!H97,"")</f>
+        <v/>
+      </c>
+      <c r="I97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I97=""),'Manual Experiment Interface'!I97,"")</f>
+        <v/>
+      </c>
+      <c r="J97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J97=""),'Manual Experiment Interface'!J97,"")</f>
+        <v/>
+      </c>
+      <c r="K97" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K97=""),'Manual Experiment Interface'!K97,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!A98=""),'Manual Experiment Interface'!A98,"")</f>
+        <v/>
+      </c>
+      <c r="B98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!B98=""),'Manual Experiment Interface'!B98,"")</f>
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!C98=""),'Manual Experiment Interface'!C98,"")</f>
+        <v/>
+      </c>
+      <c r="D98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!D98=""),'Manual Experiment Interface'!D98,"")</f>
+        <v/>
+      </c>
+      <c r="E98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!E98=""),'Manual Experiment Interface'!E98,"")</f>
+        <v/>
+      </c>
+      <c r="F98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!F98=""),'Manual Experiment Interface'!F98,"")</f>
+        <v/>
+      </c>
+      <c r="G98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!G98=""),'Manual Experiment Interface'!G98,"")</f>
+        <v/>
+      </c>
+      <c r="H98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!H98=""),'Manual Experiment Interface'!H98,"")</f>
+        <v/>
+      </c>
+      <c r="I98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!I98=""),'Manual Experiment Interface'!I98,"")</f>
+        <v/>
+      </c>
+      <c r="J98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!J98=""),'Manual Experiment Interface'!J98,"")</f>
+        <v/>
+      </c>
+      <c r="K98" t="str">
+        <f>IF(NOT('Manual Experiment Interface'!K98=""),'Manual Experiment Interface'!K98,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17131,7 +21673,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="108" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>2</v>
@@ -17166,7 +21708,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="108" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>2</v>

--- a/MIT_PVLab_Template.xlsx
+++ b/MIT_PVLab_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="User Interface" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="WF1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="fixed_wells" localSheetId="0">'User Interface'!$E$16</definedName>
-    <definedName name="fixed_wells">'WF1'!$D$16</definedName>
-    <definedName name="manual_wells">'User Interface'!$E$16</definedName>
+    <definedName name="fixed_wells" localSheetId="0">'User Interface'!$E$18</definedName>
+    <definedName name="fixed_wells">'WF1'!$D$18</definedName>
+    <definedName name="manual_wells">'User Interface'!$E$18</definedName>
     <definedName name="wellcount" localSheetId="0">'User Interface'!$E$6</definedName>
     <definedName name="wellcount">'WF1'!$D$7</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="247">
   <si>
     <t>Comment</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>exp2</t>
-  </si>
-  <si>
-    <t>[[4,5,1,7]]</t>
   </si>
   <si>
     <t>exp2_vols</t>
@@ -1210,6 +1207,27 @@
   <si>
     <t>Reagent8 (ul)</t>
   </si>
+  <si>
+    <t>Experiment 1 Group Name</t>
+  </si>
+  <si>
+    <t>Experiment 1</t>
+  </si>
+  <si>
+    <t>Experiment 2 Group Name</t>
+  </si>
+  <si>
+    <t>Experiment 2</t>
+  </si>
+  <si>
+    <t>exp1_name</t>
+  </si>
+  <si>
+    <t>exp2_name</t>
+  </si>
+  <si>
+    <t>[[3,1]]</t>
+  </si>
 </sst>
 </file>
 
@@ -1803,11 +1821,11 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2192,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2288,7 +2306,7 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="93" t="s">
         <v>2</v>
@@ -2300,7 +2318,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -2332,16 +2350,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2396,7 +2414,7 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>2</v>
@@ -2430,7 +2448,7 @@
     </row>
     <row r="7" spans="1:26" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -2464,16 +2482,16 @@
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>23</v>
@@ -2504,16 +2522,16 @@
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>27</v>
@@ -2544,7 +2562,7 @@
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>2</v>
@@ -2580,14 +2598,18 @@
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
     </row>
-    <row r="11" spans="1:26" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
-        <v>226</v>
-      </c>
+    <row r="11" spans="1:26" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>241</v>
+      </c>
       <c r="F11" s="34"/>
       <c r="G11" s="36"/>
       <c r="H11" s="37"/>
@@ -2610,65 +2632,55 @@
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
     </row>
-    <row r="12" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="116" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-    </row>
-    <row r="13" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116" t="s">
-        <v>40</v>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="117" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>159</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="13"/>
@@ -2690,27 +2702,27 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
-        <v>40</v>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="117" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="34">
-        <v>0</v>
-      </c>
-      <c r="F14" s="39">
-        <v>12</v>
+      <c r="E14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="40"/>
+        <v>27</v>
+      </c>
+      <c r="H14" s="37"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -2730,126 +2742,128 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="106" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="45" t="s">
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E15" s="34">
+        <v>0</v>
+      </c>
+      <c r="F15" s="39">
+        <v>12</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="46">
         <v>3</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F18" s="47">
         <v>12</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="G18" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="52" t="s">
+      <c r="H19" s="53" t="s">
         <v>44</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-    </row>
-    <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="100">
-        <v>1</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="62" t="s">
-        <v>49</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -2870,21 +2884,19 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+    <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="52"/>
-      <c r="H20" s="62"/>
+      <c r="H20" s="60" t="s">
+        <v>45</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -2905,14 +2917,28 @@
       <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="100">
+        <v>1</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>48</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -2933,31 +2959,21 @@
       <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="100">
-        <v>2</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>161</v>
+      <c r="A22" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="108" t="s">
+        <v>219</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>163</v>
-      </c>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -2977,24 +2993,14 @@
       <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="66" t="s">
-        <v>53</v>
-      </c>
+      <c r="A23" s="54"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -3016,26 +3022,30 @@
     </row>
     <row r="24" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="63"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="96" t="s">
-        <v>168</v>
+      <c r="B24" s="100">
+        <v>2</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="96">
-        <v>1.5</v>
-      </c>
-      <c r="F24" s="50">
-        <v>3</v>
+      <c r="E24" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="96" t="s">
+        <v>147</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -3054,25 +3064,25 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="51" t="s">
+    <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="101"/>
+      <c r="C25" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="96">
-        <v>7.63</v>
-      </c>
-      <c r="F25" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="53"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>52</v>
+      </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -3092,17 +3102,27 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="104" t="s">
-        <v>213</v>
-      </c>
+    <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
       <c r="B26" s="100"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
+      <c r="C26" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="50">
+        <v>3</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>60</v>
+      </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -3122,29 +3142,25 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
-        <v>40</v>
-      </c>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="63"/>
       <c r="B27" s="100"/>
-      <c r="C27" s="50" t="s">
-        <v>172</v>
+      <c r="C27" s="96" t="s">
+        <v>168</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="50">
-        <v>75</v>
+      <c r="E27" s="96">
+        <v>7.63</v>
       </c>
       <c r="F27" s="50">
-        <v>75</v>
+        <v>1.5</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="53" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H27" s="53"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -3164,29 +3180,17 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
-        <v>40</v>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="104" t="s">
+        <v>212</v>
       </c>
       <c r="B28" s="100"/>
-      <c r="C28" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="50">
-        <v>450</v>
-      </c>
-      <c r="F28" s="50">
-        <v>450</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="53" t="s">
-        <v>66</v>
-      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -3208,26 +3212,26 @@
     </row>
     <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="100"/>
       <c r="C29" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="F29" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -3248,15 +3252,29 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
+        <v>39</v>
+      </c>
       <c r="B30" s="100"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="56"/>
+      <c r="C30" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="50">
+        <v>450</v>
+      </c>
+      <c r="F30" s="50">
+        <v>450</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -3276,27 +3294,29 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
     </row>
-    <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="100">
-        <v>3</v>
-      </c>
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="100"/>
       <c r="C31" s="50" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>72</v>
+      <c r="E31" s="50">
+        <v>3600</v>
+      </c>
+      <c r="F31" s="50">
+        <v>3600</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="53"/>
+        <v>69</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -3317,26 +3337,14 @@
       <c r="Z31" s="13"/>
     </row>
     <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="108" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="66" t="s">
-        <v>53</v>
-      </c>
+      <c r="A32" s="54"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -3358,21 +3366,23 @@
     </row>
     <row r="33" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="63"/>
-      <c r="B33" s="100"/>
+      <c r="B33" s="100">
+        <v>3</v>
+      </c>
       <c r="C33" s="50" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="50">
-        <v>1.22</v>
-      </c>
-      <c r="F33" s="50">
-        <v>6</v>
+      <c r="E33" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="13"/>
@@ -3395,20 +3405,26 @@
       <c r="Z33" s="13"/>
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="51" t="s">
+      <c r="A34" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="101"/>
+      <c r="C34" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="50">
-        <v>1.33</v>
-      </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="66" t="s">
+        <v>52</v>
+      </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -3432,16 +3448,20 @@
       <c r="A35" s="63"/>
       <c r="B35" s="100"/>
       <c r="C35" s="50" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="50">
-        <v>7</v>
-      </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="52"/>
+        <v>1.22</v>
+      </c>
+      <c r="F35" s="50">
+        <v>6</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>75</v>
+      </c>
       <c r="H35" s="53"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -3463,13 +3483,17 @@
       <c r="Z35" s="13"/>
     </row>
     <row r="36" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="104" t="s">
-        <v>213</v>
-      </c>
+      <c r="A36" s="63"/>
       <c r="B36" s="100"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="50"/>
+      <c r="C36" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="50">
+        <v>1.33</v>
+      </c>
       <c r="F36" s="50"/>
       <c r="G36" s="52"/>
       <c r="H36" s="53"/>
@@ -3492,29 +3516,21 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
-        <v>40</v>
-      </c>
+    <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="63"/>
       <c r="B37" s="100"/>
       <c r="C37" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="50">
-        <v>75</v>
-      </c>
-      <c r="F37" s="50">
-        <v>75</v>
-      </c>
-      <c r="G37" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="53" t="s">
-        <v>66</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -3534,29 +3550,17 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
-        <v>40</v>
+    <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="104" t="s">
+        <v>212</v>
       </c>
       <c r="B38" s="100"/>
-      <c r="C38" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="50">
-        <v>450</v>
-      </c>
-      <c r="F38" s="50">
-        <v>450</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="53" t="s">
-        <v>66</v>
-      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -3578,26 +3582,26 @@
     </row>
     <row r="39" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="F39" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H39" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -3618,15 +3622,29 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="63" t="s">
+        <v>39</v>
+      </c>
       <c r="B40" s="100"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="53"/>
+      <c r="C40" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="50">
+        <v>450</v>
+      </c>
+      <c r="F40" s="50">
+        <v>450</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -3646,27 +3664,29 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="100">
-        <v>4</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B41" s="100"/>
       <c r="C41" s="50" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50" t="s">
-        <v>55</v>
+      <c r="E41" s="50">
+        <v>3600</v>
+      </c>
+      <c r="F41" s="50">
+        <v>3600</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="56"/>
+        <v>69</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -3687,26 +3707,14 @@
       <c r="Z41" s="13"/>
     </row>
     <row r="42" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="101"/>
-      <c r="C42" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="66" t="s">
-        <v>53</v>
-      </c>
+      <c r="A42" s="54"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -3728,23 +3736,25 @@
     </row>
     <row r="43" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="100"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="100">
+        <v>4</v>
+      </c>
       <c r="C43" s="50" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D43" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="50"/>
-      <c r="F43" s="50">
-        <v>2</v>
+      <c r="F43" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" s="53"/>
+        <v>81</v>
+      </c>
+      <c r="H43" s="56"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
@@ -3766,23 +3776,25 @@
     </row>
     <row r="44" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="101"/>
+      <c r="C44" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50">
-        <v>1</v>
-      </c>
-      <c r="G44" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="H44" s="53"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>52</v>
+      </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
@@ -3804,27 +3816,23 @@
     </row>
     <row r="45" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="50" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D45" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="50">
-        <v>75</v>
-      </c>
+      <c r="E45" s="50"/>
       <c r="F45" s="50">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>66</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H45" s="53"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
@@ -3846,27 +3854,23 @@
     </row>
     <row r="46" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="50">
-        <v>450</v>
-      </c>
+      <c r="E46" s="50"/>
       <c r="F46" s="50">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="53" t="s">
-        <v>66</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H46" s="53"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
@@ -3888,26 +3892,26 @@
     </row>
     <row r="47" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="50" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D47" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="F47" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -3929,14 +3933,28 @@
       <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="63" t="s">
+        <v>39</v>
+      </c>
       <c r="B48" s="100"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="56"/>
+      <c r="C48" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="50">
+        <v>450</v>
+      </c>
+      <c r="F48" s="50">
+        <v>450</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -3957,26 +3975,28 @@
       <c r="Z48" s="13"/>
     </row>
     <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="100">
-        <v>5</v>
-      </c>
+      <c r="A49" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="100"/>
       <c r="C49" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50" t="s">
-        <v>72</v>
+      <c r="E49" s="50">
+        <v>3600</v>
+      </c>
+      <c r="F49" s="50">
+        <v>3600</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" s="53"/>
+        <v>69</v>
+      </c>
+      <c r="H49" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -3997,26 +4017,14 @@
       <c r="Z49" s="13"/>
     </row>
     <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="66" t="s">
-        <v>53</v>
-      </c>
+      <c r="A50" s="54"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="56"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -4037,20 +4045,26 @@
       <c r="Z50" s="13"/>
     </row>
     <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="101"/>
+      <c r="A51" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="100">
+        <v>5</v>
+      </c>
       <c r="C51" s="50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="66"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="53"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -4072,19 +4086,25 @@
     </row>
     <row r="52" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="101"/>
-      <c r="C52" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="51" t="s">
+      <c r="C52" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="66"/>
+      <c r="F52" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="66" t="s">
+        <v>52</v>
+      </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -4106,23 +4126,19 @@
     </row>
     <row r="53" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="101"/>
       <c r="C53" s="50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="H53" s="56"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="66"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
@@ -4144,27 +4160,19 @@
     </row>
     <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="50" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="50">
-        <v>75</v>
-      </c>
-      <c r="F54" s="50">
-        <v>75</v>
-      </c>
-      <c r="G54" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H54" s="53" t="s">
-        <v>66</v>
-      </c>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="66"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -4186,27 +4194,23 @@
     </row>
     <row r="55" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="101"/>
       <c r="C55" s="50" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="50">
-        <v>450</v>
-      </c>
+      <c r="E55" s="50"/>
       <c r="F55" s="50">
-        <v>450</v>
+        <v>4.5</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="53" t="s">
-        <v>66</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H55" s="56"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
@@ -4228,26 +4232,26 @@
     </row>
     <row r="56" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="101"/>
       <c r="C56" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="F56" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H56" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -4269,14 +4273,28 @@
       <c r="Z56" s="13"/>
     </row>
     <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="53"/>
+      <c r="A57" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="101"/>
+      <c r="C57" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="50">
+        <v>450</v>
+      </c>
+      <c r="F57" s="50">
+        <v>450</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -4297,26 +4315,28 @@
       <c r="Z57" s="13"/>
     </row>
     <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="100">
-        <v>6</v>
-      </c>
+      <c r="A58" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="101"/>
       <c r="C58" s="50" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50" t="s">
-        <v>102</v>
+      <c r="E58" s="50">
+        <v>3600</v>
+      </c>
+      <c r="F58" s="50">
+        <v>3600</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H58" s="53"/>
+        <v>69</v>
+      </c>
+      <c r="H58" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -4337,14 +4357,9 @@
       <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54" t="str">
-        <f>A58</f>
-        <v>#</v>
-      </c>
+      <c r="A59" s="54"/>
       <c r="B59" s="100"/>
-      <c r="C59" s="50" t="s">
-        <v>192</v>
-      </c>
+      <c r="C59" s="50"/>
       <c r="D59" s="51"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
@@ -4370,27 +4385,26 @@
       <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="63" t="str">
-        <f>A58</f>
-        <v>#</v>
-      </c>
-      <c r="B60" s="101"/>
-      <c r="C60" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="64" t="s">
+      <c r="A60" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="100">
+        <v>6</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H60" s="66" t="s">
-        <v>53</v>
-      </c>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" s="53"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -4411,9 +4425,14 @@
       <c r="Z60" s="13"/>
     </row>
     <row r="61" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
+      <c r="A61" s="54" t="str">
+        <f>A60</f>
+        <v>#</v>
+      </c>
       <c r="B61" s="100"/>
-      <c r="C61" s="50"/>
+      <c r="C61" s="50" t="s">
+        <v>191</v>
+      </c>
       <c r="D61" s="51"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -4439,26 +4458,27 @@
       <c r="Z61" s="13"/>
     </row>
     <row r="62" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" s="100">
-        <v>7</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" s="51" t="s">
+      <c r="A62" s="63" t="str">
+        <f>A60</f>
+        <v>#</v>
+      </c>
+      <c r="B62" s="101"/>
+      <c r="C62" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H62" s="53"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" s="66" t="s">
+        <v>52</v>
+      </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -4479,17 +4499,10 @@
       <c r="Z62" s="13"/>
     </row>
     <row r="63" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54" t="str">
-        <f>A62</f>
-        <v>#</v>
-      </c>
+      <c r="A63" s="54"/>
       <c r="B63" s="100"/>
-      <c r="C63" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="97" t="s">
-        <v>2</v>
-      </c>
+      <c r="C63" s="50"/>
+      <c r="D63" s="51"/>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
       <c r="G63" s="52"/>
@@ -4514,13 +4527,25 @@
       <c r="Z63" s="13"/>
     </row>
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="51"/>
+      <c r="A64" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="100">
+        <v>7</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="52"/>
+      <c r="F64" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="52" t="s">
+        <v>102</v>
+      </c>
       <c r="H64" s="53"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
@@ -4542,14 +4567,13 @@
       <c r="Z64" s="13"/>
     </row>
     <row r="65" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="100">
-        <v>8</v>
-      </c>
+      <c r="A65" s="54" t="str">
+        <f>A64</f>
+        <v>#</v>
+      </c>
+      <c r="B65" s="100"/>
       <c r="C65" s="50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="97" t="s">
         <v>2</v>
@@ -4578,21 +4602,14 @@
       <c r="Z65" s="13"/>
     </row>
     <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="68" t="str">
-        <f>A65</f>
-        <v>#</v>
-      </c>
-      <c r="B66" s="102"/>
-      <c r="C66" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="D66" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="72"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="53"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -4613,16 +4630,22 @@
       <c r="Z66" s="13"/>
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="99"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="77"/>
+      <c r="A67" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="100">
+        <v>8</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="53"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
@@ -4643,24 +4666,21 @@
       <c r="Z67" s="13"/>
     </row>
     <row r="68" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="75" t="s">
+      <c r="A68" s="68" t="str">
+        <f>A67</f>
+        <v>#</v>
+      </c>
+      <c r="B68" s="102"/>
+      <c r="C68" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="74">
-        <v>750</v>
-      </c>
-      <c r="F68" s="74">
-        <v>750</v>
-      </c>
-      <c r="G68" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="H68" s="77"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="72"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
@@ -4681,23 +4701,15 @@
       <c r="Z68" s="13"/>
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="74">
-        <v>80</v>
-      </c>
-      <c r="F69" s="74">
-        <v>80</v>
-      </c>
-      <c r="G69" s="76" t="s">
-        <v>112</v>
-      </c>
+      <c r="A69" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="99"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="76"/>
       <c r="H69" s="77"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
@@ -4722,19 +4734,19 @@
       <c r="A70" s="78"/>
       <c r="B70" s="78"/>
       <c r="C70" s="74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="74">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F70" s="74">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="G70" s="76" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H70" s="77"/>
       <c r="I70" s="13"/>
@@ -4760,19 +4772,19 @@
       <c r="A71" s="78"/>
       <c r="B71" s="78"/>
       <c r="C71" s="74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="74">
-        <v>1200</v>
+        <v>80</v>
       </c>
       <c r="F71" s="74">
-        <v>1200</v>
+        <v>80</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H71" s="77"/>
       <c r="I71" s="13"/>
@@ -4798,23 +4810,21 @@
       <c r="A72" s="78"/>
       <c r="B72" s="78"/>
       <c r="C72" s="74" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="74">
-        <v>105</v>
+        <v>900</v>
       </c>
       <c r="F72" s="74">
-        <v>105</v>
+        <v>900</v>
       </c>
       <c r="G72" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="H72" s="77" t="s">
-        <v>119</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H72" s="77"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
@@ -4838,23 +4848,21 @@
       <c r="A73" s="78"/>
       <c r="B73" s="78"/>
       <c r="C73" s="74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="74">
-        <v>12600</v>
+        <v>1200</v>
       </c>
       <c r="F73" s="74">
-        <v>12600</v>
+        <v>1200</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="H73" s="77" t="s">
-        <v>122</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H73" s="77"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
@@ -4878,22 +4886,22 @@
       <c r="A74" s="78"/>
       <c r="B74" s="78"/>
       <c r="C74" s="74" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="74">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="F74" s="74">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="G74" s="76" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H74" s="77" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -4915,56 +4923,66 @@
       <c r="Z74" s="13"/>
     </row>
     <row r="75" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" s="79"/>
-      <c r="C75" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="81" t="s">
+      <c r="A75" s="78"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="F75" s="80"/>
-      <c r="G75" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="H75" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="7"/>
+      <c r="E75" s="74">
+        <v>12600</v>
+      </c>
+      <c r="F75" s="74">
+        <v>12600</v>
+      </c>
+      <c r="G75" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="H75" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
     </row>
     <row r="76" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="99" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="99"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="77"/>
+      <c r="A76" s="78"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="74">
+        <v>5</v>
+      </c>
+      <c r="F76" s="74">
+        <v>3</v>
+      </c>
+      <c r="G76" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="H76" s="77" t="s">
+        <v>124</v>
+      </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
@@ -4985,66 +5003,56 @@
       <c r="Z76" s="13"/>
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="78"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="D77" s="75" t="s">
+      <c r="A77" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="79"/>
+      <c r="C77" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="74">
-        <v>45</v>
-      </c>
-      <c r="F77" s="74">
-        <v>45</v>
-      </c>
-      <c r="G77" s="113" t="s">
-        <v>223</v>
-      </c>
-      <c r="H77" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
+      <c r="E77" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="80"/>
+      <c r="G77" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
     </row>
     <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="78"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="74" t="s">
+      <c r="A78" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="D78" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" s="74">
-        <v>25</v>
-      </c>
-      <c r="F78" s="74">
-        <v>75</v>
-      </c>
-      <c r="G78" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78" s="77" t="s">
-        <v>131</v>
-      </c>
+      <c r="B78" s="99"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="77"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
@@ -5067,23 +5075,23 @@
     <row r="79" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="78"/>
       <c r="B79" s="78"/>
-      <c r="C79" s="74" t="s">
-        <v>206</v>
+      <c r="C79" s="112" t="s">
+        <v>221</v>
       </c>
       <c r="D79" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="74">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="F79" s="74">
-        <v>450</v>
-      </c>
-      <c r="G79" s="76" t="s">
-        <v>135</v>
+        <v>45</v>
+      </c>
+      <c r="G79" s="113" t="s">
+        <v>222</v>
       </c>
       <c r="H79" s="77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -5105,66 +5113,126 @@
       <c r="Z79" s="13"/>
     </row>
     <row r="80" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="79"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="80" t="s">
+      <c r="A80" s="78"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="81" t="s">
+      <c r="D80" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="80">
+      <c r="E80" s="74">
+        <v>25</v>
+      </c>
+      <c r="F80" s="74">
+        <v>75</v>
+      </c>
+      <c r="G80" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="13"/>
+      <c r="Z80" s="13"/>
+    </row>
+    <row r="81" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="78"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="74">
+        <v>450</v>
+      </c>
+      <c r="F81" s="74">
+        <v>450</v>
+      </c>
+      <c r="G81" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H81" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
+      <c r="Z81" s="13"/>
+    </row>
+    <row r="82" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="79"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="80">
         <v>3600</v>
       </c>
-      <c r="F80" s="80">
+      <c r="F82" s="80">
         <v>3600</v>
       </c>
-      <c r="G80" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="H80" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
-      <c r="Z80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="84"/>
-      <c r="B81" s="84"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="88"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="84"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="87"/>
-      <c r="H82" s="88"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="H82" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+    </row>
+    <row r="83" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="84"/>
       <c r="B83" s="84"/>
       <c r="C83" s="85"/>
@@ -5174,7 +5242,7 @@
       <c r="G83" s="87"/>
       <c r="H83" s="88"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="84"/>
       <c r="B84" s="84"/>
       <c r="C84" s="85"/>
@@ -5184,7 +5252,7 @@
       <c r="G84" s="87"/>
       <c r="H84" s="88"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="84"/>
       <c r="B85" s="84"/>
       <c r="C85" s="85"/>
@@ -5194,7 +5262,7 @@
       <c r="G85" s="87"/>
       <c r="H85" s="88"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="84"/>
       <c r="B86" s="84"/>
       <c r="C86" s="85"/>
@@ -5204,7 +5272,7 @@
       <c r="G86" s="87"/>
       <c r="H86" s="88"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="84"/>
       <c r="B87" s="84"/>
       <c r="C87" s="85"/>
@@ -5214,7 +5282,7 @@
       <c r="G87" s="87"/>
       <c r="H87" s="88"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="84"/>
       <c r="B88" s="84"/>
       <c r="C88" s="85"/>
@@ -5224,7 +5292,7 @@
       <c r="G88" s="87"/>
       <c r="H88" s="88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="84"/>
       <c r="B89" s="84"/>
       <c r="C89" s="85"/>
@@ -5234,7 +5302,7 @@
       <c r="G89" s="87"/>
       <c r="H89" s="88"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="84"/>
       <c r="B90" s="84"/>
       <c r="C90" s="85"/>
@@ -5244,7 +5312,7 @@
       <c r="G90" s="87"/>
       <c r="H90" s="88"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="84"/>
       <c r="B91" s="84"/>
       <c r="C91" s="85"/>
@@ -5254,7 +5322,7 @@
       <c r="G91" s="87"/>
       <c r="H91" s="88"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="84"/>
       <c r="B92" s="84"/>
       <c r="C92" s="85"/>
@@ -5264,7 +5332,7 @@
       <c r="G92" s="87"/>
       <c r="H92" s="88"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="84"/>
       <c r="B93" s="84"/>
       <c r="C93" s="85"/>
@@ -5274,7 +5342,7 @@
       <c r="G93" s="87"/>
       <c r="H93" s="88"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="84"/>
       <c r="B94" s="84"/>
       <c r="C94" s="85"/>
@@ -5284,7 +5352,7 @@
       <c r="G94" s="87"/>
       <c r="H94" s="88"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="84"/>
       <c r="B95" s="84"/>
       <c r="C95" s="85"/>
@@ -5294,7 +5362,7 @@
       <c r="G95" s="87"/>
       <c r="H95" s="88"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="84"/>
       <c r="B96" s="84"/>
       <c r="C96" s="85"/>
@@ -14334,15 +14402,35 @@
       <c r="G999" s="87"/>
       <c r="H999" s="88"/>
     </row>
+    <row r="1000" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="84"/>
+      <c r="B1000" s="84"/>
+      <c r="C1000" s="85"/>
+      <c r="D1000" s="86"/>
+      <c r="E1000" s="85"/>
+      <c r="F1000" s="85"/>
+      <c r="G1000" s="87"/>
+      <c r="H1000" s="88"/>
+    </row>
+    <row r="1001" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="84"/>
+      <c r="B1001" s="84"/>
+      <c r="C1001" s="85"/>
+      <c r="D1001" s="86"/>
+      <c r="E1001" s="85"/>
+      <c r="F1001" s="85"/>
+      <c r="G1001" s="87"/>
+      <c r="H1001" s="88"/>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" errorTitle="WellCountError" error="Global wellcount should be sum of random_wellcount and fixed_wells" promptTitle="Experiment Count" prompt="MUST be the sum of &quot;Random Experiments&quot; and &quot;Manual Experiments&quot;" sqref="E6">
-      <formula1>SUM(#REF!,E16)</formula1>
+      <formula1>SUM(#REF!,E18)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H22" r:id="rId1"/>
-    <hyperlink ref="C16" location="ManualExps!A1" display="Manual Experiments"/>
+    <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="C18" location="ManualExps!A1" display="Manual Experiments"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14368,37 +14456,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="E1" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="G1" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="J1" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="K1" s="90" t="s">
         <v>234</v>
-      </c>
-      <c r="K1" s="90" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -14407,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="90">
         <v>150</v>
@@ -14444,7 +14532,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="90">
         <v>150</v>
@@ -14481,7 +14569,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="90">
         <v>150</v>
@@ -15951,7 +16039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -15964,37 +16052,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="89" t="s">
+      <c r="D1" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="E1" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="G1" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="89" t="s">
-        <v>145</v>
-      </c>
       <c r="J1" s="89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -20466,10 +20554,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W996"/>
+  <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20844,39 +20932,40 @@
       <c r="V11" s="38"/>
       <c r="W11" s="38"/>
     </row>
-    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="str">
-        <f>'User Interface'!A12</f>
-        <v>#</v>
+    <row r="12" spans="1:23" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33">
+        <f>'User Interface'!A11</f>
+        <v>0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
+      <c r="D12" s="34" t="str">
+        <f>'User Interface'!E11</f>
+        <v>Experiment 1</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
     </row>
     <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="str">
@@ -20884,14 +20973,14 @@
         <v>#</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="34" t="str">
         <f>'User Interface'!E13</f>
-        <v>[[500,500]]</v>
+        <v>[[3,1]]</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>22</v>
@@ -20921,17 +21010,17 @@
         <v>#</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="34" t="str">
         <f>'User Interface'!E14</f>
-        <v>0</v>
+        <v>[[500,500]]</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -20952,97 +21041,109 @@
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="str">
+        <f>'User Interface'!A15</f>
+        <v>#</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="34">
+        <f>'User Interface'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="str">
+        <f>'User Interface'!A16</f>
+        <v>#</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34" t="str">
+        <f>'User Interface'!E16</f>
+        <v>Experiment 2</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="34">
-        <f>'User Interface'!E16</f>
+      <c r="C18" s="45"/>
+      <c r="D18" s="34">
+        <f>'User Interface'!E18</f>
         <v>3</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E18" s="45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-    </row>
-    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-    </row>
     <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="50">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>10</v>
-      </c>
+      <c r="A19" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -21063,21 +21164,11 @@
       <c r="W19" s="13"/>
     </row>
     <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>10</v>
-      </c>
+      <c r="A20" s="54"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -21098,38 +21189,56 @@
       <c r="W20" s="13"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
+      <c r="A21" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
     </row>
     <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
+      <c r="A22" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>10</v>
+      </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -21150,48 +21259,38 @@
       <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
     </row>
     <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54">
-        <f>'User Interface'!A19</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="61" t="str">
-        <f>'User Interface'!E19</f>
-        <v>['CBz']</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -21212,22 +21311,11 @@
       <c r="W24" s="13"/>
     </row>
     <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="str">
-        <f>'User Interface'!A20</f>
-        <v>#</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>15</v>
-      </c>
+      <c r="A25" s="54"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -21248,11 +21336,23 @@
       <c r="W25" s="13"/>
     </row>
     <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="54">
+        <f>'User Interface'!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="61" t="str">
+        <f>'User Interface'!E21</f>
+        <v>['CBz']</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -21273,22 +21373,21 @@
       <c r="W26" s="13"/>
     </row>
     <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54">
+      <c r="A27" s="54" t="str">
         <f>'User Interface'!A22</f>
-        <v>0</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="51" t="s">
+        <v>#</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="50" t="str">
-        <f>'User Interface'!E22</f>
-        <v>['PbI2','DMSO','DMF']</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>22</v>
+      <c r="D27" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -21310,23 +21409,11 @@
       <c r="W27" s="13"/>
     </row>
     <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="str">
-        <f>'User Interface'!A23</f>
-        <v>#</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="61">
-        <f>'User Interface'!E23</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>15</v>
-      </c>
+      <c r="A28" s="54"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -21352,17 +21439,17 @@
         <v>0</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="50" t="str">
         <f>'User Interface'!E24</f>
-        <v>1.5</v>
+        <v>['PbI2','DMSO','DMF']</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -21384,22 +21471,22 @@
       <c r="W29" s="13"/>
     </row>
     <row r="30" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54">
+      <c r="A30" s="54" t="str">
         <f>'User Interface'!A25</f>
-        <v>0</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="51" t="s">
+        <v>#</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="61">
         <f>'User Interface'!E25</f>
-        <v>7.63</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -21421,22 +21508,22 @@
       <c r="W30" s="13"/>
     </row>
     <row r="31" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="str">
-        <f>'User Interface'!A27</f>
-        <v>#</v>
+      <c r="A31" s="54">
+        <f>'User Interface'!A26</f>
+        <v>0</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C31" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="61">
-        <f>'User Interface'!E27</f>
-        <v>75</v>
+        <f>'User Interface'!E26</f>
+        <v>1.5</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -21458,22 +21545,22 @@
       <c r="W31" s="13"/>
     </row>
     <row r="32" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="str">
-        <f>'User Interface'!A28</f>
-        <v>#</v>
+      <c r="A32" s="54">
+        <f>'User Interface'!A27</f>
+        <v>0</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="61">
-        <f>'User Interface'!E28</f>
-        <v>450</v>
+        <f>'User Interface'!E27</f>
+        <v>7.63</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -21500,14 +21587,14 @@
         <v>#</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="61">
         <f>'User Interface'!E29</f>
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>12</v>
@@ -21532,11 +21619,23 @@
       <c r="W33" s="13"/>
     </row>
     <row r="34" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
+      <c r="A34" s="54" t="str">
+        <f>'User Interface'!A30</f>
+        <v>#</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="61">
+        <f>'User Interface'!E30</f>
+        <v>450</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>12</v>
+      </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -21557,22 +21656,22 @@
       <c r="W34" s="13"/>
     </row>
     <row r="35" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54">
+      <c r="A35" s="54" t="str">
         <f>'User Interface'!A31</f>
-        <v>0</v>
+        <v>#</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="50" t="str">
+      <c r="D35" s="61">
         <f>'User Interface'!E31</f>
-        <v>['MeNH3I','PbI2','DMSO', 'DMF']</v>
+        <v>3600</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -21594,23 +21693,11 @@
       <c r="W35" s="13"/>
     </row>
     <row r="36" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="str">
-        <f>'User Interface'!A32</f>
-        <v>#</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="50">
-        <f>'User Interface'!E32</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>15</v>
-      </c>
+      <c r="A36" s="54"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -21635,18 +21722,18 @@
         <f>'User Interface'!A33</f>
         <v>0</v>
       </c>
-      <c r="B37" s="67" t="s">
-        <v>75</v>
+      <c r="B37" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="50" t="str">
         <f>'User Interface'!E33</f>
-        <v>1.22</v>
+        <v>['MeNH3I','PbI2','DMSO', 'DMF']</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -21668,21 +21755,23 @@
       <c r="W37" s="13"/>
     </row>
     <row r="38" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54">
+      <c r="A38" s="54" t="str">
         <f>'User Interface'!A34</f>
-        <v>0</v>
-      </c>
-      <c r="B38" s="108" t="s">
-        <v>218</v>
-      </c>
-      <c r="C38" s="51" t="s">
+        <v>#</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="50">
         <f>'User Interface'!E34</f>
-        <v>1.33</v>
-      </c>
-      <c r="E38" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>15</v>
+      </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -21707,17 +21796,19 @@
         <f>'User Interface'!A35</f>
         <v>0</v>
       </c>
-      <c r="B39" s="108" t="s">
-        <v>219</v>
+      <c r="B39" s="67" t="s">
+        <v>74</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="50">
         <f>'User Interface'!E35</f>
-        <v>7</v>
-      </c>
-      <c r="E39" s="50"/>
+        <v>1.22</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>10</v>
+      </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -21738,23 +21829,21 @@
       <c r="W39" s="13"/>
     </row>
     <row r="40" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="str">
-        <f>'User Interface'!A37</f>
-        <v>#</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>77</v>
+      <c r="A40" s="54">
+        <f>'User Interface'!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="108" t="s">
+        <v>217</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="50">
-        <f>'User Interface'!E37</f>
-        <v>75</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>12</v>
-      </c>
+        <f>'User Interface'!E36</f>
+        <v>1.33</v>
+      </c>
+      <c r="E40" s="50"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -21775,23 +21864,21 @@
       <c r="W40" s="13"/>
     </row>
     <row r="41" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="str">
-        <f>'User Interface'!A38</f>
-        <v>#</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>78</v>
+      <c r="A41" s="54">
+        <f>'User Interface'!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="108" t="s">
+        <v>218</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="50">
-        <f>'User Interface'!E38</f>
-        <v>450</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>12</v>
-      </c>
+        <f>'User Interface'!E37</f>
+        <v>7</v>
+      </c>
+      <c r="E41" s="50"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -21817,14 +21904,14 @@
         <v>#</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C42" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="50">
         <f>'User Interface'!E39</f>
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="E42" s="50" t="s">
         <v>12</v>
@@ -21849,11 +21936,23 @@
       <c r="W42" s="13"/>
     </row>
     <row r="43" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
+      <c r="A43" s="54" t="str">
+        <f>'User Interface'!A40</f>
+        <v>#</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="50">
+        <f>'User Interface'!E40</f>
+        <v>450</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>12</v>
+      </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -21874,20 +21973,22 @@
       <c r="W43" s="13"/>
     </row>
     <row r="44" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="110" t="s">
-        <v>40</v>
+      <c r="A44" s="54" t="str">
+        <f>'User Interface'!A41</f>
+        <v>#</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="50" t="s">
-        <v>81</v>
+      <c r="D44" s="50">
+        <f>'User Interface'!E41</f>
+        <v>3600</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -21909,21 +22010,11 @@
       <c r="W44" s="13"/>
     </row>
     <row r="45" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>15</v>
-      </c>
+      <c r="A45" s="54"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -21945,19 +22036,19 @@
     </row>
     <row r="46" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="67" t="s">
-        <v>84</v>
+        <v>39</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>79</v>
       </c>
       <c r="C46" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="50">
-        <v>0.75</v>
+      <c r="D46" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -21979,20 +22070,20 @@
       <c r="W46" s="13"/>
     </row>
     <row r="47" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="51" t="s">
+      <c r="A47" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="50">
-        <v>0.38</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>10</v>
+      <c r="D47" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -22014,20 +22105,20 @@
       <c r="W47" s="13"/>
     </row>
     <row r="48" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>88</v>
+      <c r="A48" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="67" t="s">
+        <v>83</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="50">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -22049,20 +22140,20 @@
       <c r="W48" s="13"/>
     </row>
     <row r="49" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>89</v>
+      <c r="A49" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="67" t="s">
+        <v>85</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="50">
-        <v>450</v>
+        <v>0.38</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -22085,16 +22176,16 @@
     </row>
     <row r="50" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>12</v>
@@ -22119,11 +22210,21 @@
       <c r="W50" s="13"/>
     </row>
     <row r="51" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
+      <c r="A51" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="50">
+        <v>450</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>12</v>
+      </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -22144,20 +22245,20 @@
       <c r="W51" s="13"/>
     </row>
     <row r="52" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="110" t="s">
-        <v>40</v>
+      <c r="A52" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="50" t="s">
-        <v>92</v>
+      <c r="D52" s="50">
+        <v>3600</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -22179,21 +22280,11 @@
       <c r="W52" s="13"/>
     </row>
     <row r="53" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>15</v>
-      </c>
+      <c r="A53" s="54"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -22215,19 +22306,19 @@
     </row>
     <row r="54" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>96</v>
+        <v>39</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="50">
-        <v>5.84</v>
+      <c r="D54" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -22249,20 +22340,20 @@
       <c r="W54" s="13"/>
     </row>
     <row r="55" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="51" t="s">
+      <c r="A55" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="50">
-        <v>75</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>12</v>
+      <c r="D55" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -22284,20 +22375,20 @@
       <c r="W55" s="13"/>
     </row>
     <row r="56" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>99</v>
+      <c r="A56" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>95</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="50">
-        <v>450</v>
+        <v>5.84</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -22320,16 +22411,16 @@
     </row>
     <row r="57" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C57" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="50">
-        <v>3600</v>
+        <v>75</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>12</v>
@@ -22354,11 +22445,21 @@
       <c r="W57" s="13"/>
     </row>
     <row r="58" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
+      <c r="A58" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="50">
+        <v>450</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>12</v>
+      </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -22380,19 +22481,19 @@
     </row>
     <row r="59" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C59" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="50" t="s">
-        <v>102</v>
+      <c r="D59" s="50">
+        <v>3600</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -22414,21 +22515,11 @@
       <c r="W59" s="13"/>
     </row>
     <row r="60" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>15</v>
-      </c>
+      <c r="A60" s="54"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -22449,11 +22540,21 @@
       <c r="W60" s="13"/>
     </row>
     <row r="61" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
+      <c r="A61" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -22474,20 +22575,20 @@
       <c r="W61" s="13"/>
     </row>
     <row r="62" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="51" t="s">
+      <c r="A62" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>22</v>
+      <c r="D62" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
@@ -22509,21 +22610,11 @@
       <c r="W62" s="13"/>
     </row>
     <row r="63" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="A63" s="54"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -22544,13 +22635,21 @@
       <c r="W63" s="13"/>
     </row>
     <row r="64" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="74"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
+      <c r="A64" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
@@ -22571,19 +22670,20 @@
       <c r="W64" s="13"/>
     </row>
     <row r="65" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="78"/>
-      <c r="B65" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="75" t="s">
+      <c r="A65" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="74">
-        <f>'User Interface'!E68</f>
-        <v>750</v>
-      </c>
-      <c r="E65" s="74" t="s">
-        <v>12</v>
+      <c r="D65" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="69" t="s">
+        <v>15</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
@@ -22605,20 +22705,13 @@
       <c r="W65" s="13"/>
     </row>
     <row r="66" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="78"/>
-      <c r="B66" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="74">
-        <f>'User Interface'!E69</f>
-        <v>80</v>
-      </c>
-      <c r="E66" s="74" t="s">
-        <v>12</v>
-      </c>
+      <c r="A66" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="74"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -22641,14 +22734,14 @@
     <row r="67" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="74" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C67" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="74">
         <f>'User Interface'!E70</f>
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="E67" s="74" t="s">
         <v>12</v>
@@ -22675,14 +22768,14 @@
     <row r="68" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="74" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C68" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="74">
         <f>'User Interface'!E71</f>
-        <v>1200</v>
+        <v>80</v>
       </c>
       <c r="E68" s="74" t="s">
         <v>12</v>
@@ -22709,14 +22802,14 @@
     <row r="69" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="74" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C69" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="74">
         <f>'User Interface'!E72</f>
-        <v>105</v>
+        <v>900</v>
       </c>
       <c r="E69" s="74" t="s">
         <v>12</v>
@@ -22743,14 +22836,14 @@
     <row r="70" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="74" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C70" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="74">
         <f>'User Interface'!E73</f>
-        <v>12600</v>
+        <v>1200</v>
       </c>
       <c r="E70" s="74" t="s">
         <v>12</v>
@@ -22777,17 +22870,17 @@
     <row r="71" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="74" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C71" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="74">
         <f>'User Interface'!E74</f>
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E71" s="74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
@@ -22809,47 +22902,54 @@
       <c r="W71" s="13"/>
     </row>
     <row r="72" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="79"/>
-      <c r="B72" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="81" t="s">
+      <c r="A72" s="78"/>
+      <c r="B72" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="74" t="str">
+      <c r="D72" s="74">
         <f>'User Interface'!E75</f>
-        <v>Thin Film Plate</v>
-      </c>
-      <c r="E72" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
+        <v>12600</v>
+      </c>
+      <c r="E72" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
     </row>
     <row r="73" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
+      <c r="A73" s="78"/>
+      <c r="B73" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="74">
+        <f>'User Interface'!E76</f>
+        <v>5</v>
+      </c>
+      <c r="E73" s="74" t="s">
+        <v>10</v>
+      </c>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -22870,54 +22970,47 @@
       <c r="W73" s="13"/>
     </row>
     <row r="74" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="78"/>
-      <c r="B74" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="75" t="s">
+      <c r="A74" s="79"/>
+      <c r="B74" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="74">
+      <c r="D74" s="74" t="str">
         <f>'User Interface'!E77</f>
-        <v>45</v>
-      </c>
-      <c r="E74" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
+        <v>Thin Film Plate</v>
+      </c>
+      <c r="E74" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
     </row>
     <row r="75" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="78"/>
-      <c r="B75" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="74">
-        <f>'User Interface'!E78</f>
-        <v>25</v>
-      </c>
-      <c r="E75" s="74" t="s">
-        <v>12</v>
-      </c>
+      <c r="A75" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="74"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -22940,14 +23033,14 @@
     <row r="76" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="78"/>
       <c r="B76" s="74" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C76" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D76" s="74">
         <f>'User Interface'!E79</f>
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="E76" s="74" t="s">
         <v>12</v>
@@ -22972,54 +23065,108 @@
       <c r="W76" s="13"/>
     </row>
     <row r="77" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="79"/>
-      <c r="B77" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="81" t="s">
+      <c r="A77" s="78"/>
+      <c r="B77" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="74">
         <f>'User Interface'!E80</f>
+        <v>25</v>
+      </c>
+      <c r="E77" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+    </row>
+    <row r="78" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="78"/>
+      <c r="B78" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="74">
+        <f>'User Interface'!E81</f>
+        <v>450</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+    </row>
+    <row r="79" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="79"/>
+      <c r="B79" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="74">
+        <f>'User Interface'!E82</f>
         <v>3600</v>
       </c>
-      <c r="E77" s="80" t="s">
+      <c r="E79" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
-    </row>
-    <row r="78" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="84"/>
-      <c r="B78" s="85"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
-    </row>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="84"/>
-      <c r="B79" s="85"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-    </row>
-    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+    </row>
+    <row r="80" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="84"/>
       <c r="B80" s="85"/>
       <c r="C80" s="86"/>
@@ -29438,10 +29585,24 @@
       <c r="D996" s="85"/>
       <c r="E996" s="85"/>
     </row>
+    <row r="997" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A997" s="84"/>
+      <c r="B997" s="85"/>
+      <c r="C997" s="86"/>
+      <c r="D997" s="85"/>
+      <c r="E997" s="85"/>
+    </row>
+    <row r="998" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A998" s="84"/>
+      <c r="B998" s="85"/>
+      <c r="C998" s="86"/>
+      <c r="D998" s="85"/>
+      <c r="E998" s="85"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" errorTitle="WellCountError" error="Global wellcount should be sum of random_wellcount and fixed_wells" promptTitle="wellcount" prompt="MUST be sum of random_wellcount and fixed_wells" sqref="D7">
-      <formula1>SUM(#REF!,D16)</formula1>
+      <formula1>SUM(#REF!,D18)</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/MIT_PVLab_Template.xlsx
+++ b/MIT_PVLab_Template.xlsx
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>exp1_vols</t>
-  </si>
-  <si>
-    <t>[[500,500]]</t>
   </si>
   <si>
     <t xml:space="preserve">Min and Max volumes for each portion of the experiment. </t>
@@ -1175,9 +1172,6 @@
     <t>Precursor3 (ul)</t>
   </si>
   <si>
-    <t>Precurso4 (ul)</t>
-  </si>
-  <si>
     <t>Precursor5 (ul)</t>
   </si>
   <si>
@@ -1226,7 +1220,13 @@
     <t>exp2_name</t>
   </si>
   <si>
-    <t>[[3,1]]</t>
+    <t>Precursor4 (ul)</t>
+  </si>
+  <si>
+    <t>[[2,3,1,]]</t>
+  </si>
+  <si>
+    <t>[[215, 215]]</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1820,6 +1820,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2212,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2309,7 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="93" t="s">
         <v>2</v>
@@ -2318,7 +2321,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -2350,16 +2353,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2414,7 +2417,7 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>2</v>
@@ -2448,7 +2451,7 @@
     </row>
     <row r="7" spans="1:26" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -2482,16 +2485,16 @@
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>23</v>
@@ -2522,22 +2525,22 @@
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>28</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -2562,7 +2565,7 @@
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>2</v>
@@ -2574,10 +2577,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>30</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>31</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -2602,13 +2605,13 @@
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="36"/>
@@ -2633,8 +2636,8 @@
       <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116" t="s">
-        <v>225</v>
+      <c r="A12" s="117" t="s">
+        <v>224</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
@@ -2663,21 +2666,21 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
-        <v>39</v>
+      <c r="A13" s="116" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>23</v>
@@ -2703,24 +2706,24 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
-        <v>39</v>
+      <c r="A14" s="116" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>27</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="13"/>
@@ -2743,12 +2746,12 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
-        <v>39</v>
+      <c r="A15" s="116" t="s">
+        <v>38</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>2</v>
@@ -2760,7 +2763,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="13"/>
@@ -2783,18 +2786,18 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
-        <v>39</v>
+      <c r="A16" s="118" t="s">
+        <v>38</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="36"/>
@@ -2820,7 +2823,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -2834,7 +2837,7 @@
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>2</v>
@@ -2846,13 +2849,13 @@
         <v>12</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -2860,10 +2863,10 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="53" t="s">
         <v>43</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>44</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -2887,7 +2890,7 @@
     <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
@@ -2895,7 +2898,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="52"/>
       <c r="H20" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2922,22 +2925,22 @@
         <v>1</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="114" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="62" t="s">
         <v>47</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>48</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2960,11 +2963,11 @@
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="100"/>
       <c r="C22" s="108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>2</v>
@@ -3026,25 +3029,25 @@
         <v>2</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -3066,11 +3069,11 @@
     </row>
     <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="101"/>
       <c r="C25" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" s="64" t="s">
         <v>2</v>
@@ -3078,10 +3081,10 @@
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
       <c r="G25" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -3106,7 +3109,7 @@
       <c r="A26" s="63"/>
       <c r="B26" s="100"/>
       <c r="C26" s="96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>2</v>
@@ -3118,10 +3121,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="53" t="s">
         <v>59</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>60</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -3146,7 +3149,7 @@
       <c r="A27" s="63"/>
       <c r="B27" s="100"/>
       <c r="C27" s="96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>2</v>
@@ -3158,7 +3161,7 @@
         <v>1.5</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="13"/>
@@ -3182,7 +3185,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="100"/>
       <c r="C28" s="104"/>
@@ -3212,11 +3215,11 @@
     </row>
     <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="100"/>
       <c r="C29" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>2</v>
@@ -3228,10 +3231,10 @@
         <v>75</v>
       </c>
       <c r="G29" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="H29" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -3254,11 +3257,11 @@
     </row>
     <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="100"/>
       <c r="C30" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>2</v>
@@ -3270,10 +3273,10 @@
         <v>450</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -3296,11 +3299,11 @@
     </row>
     <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>2</v>
@@ -3312,10 +3315,10 @@
         <v>3600</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -3370,19 +3373,19 @@
         <v>3</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F33" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="52" t="s">
         <v>71</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>72</v>
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="13"/>
@@ -3406,24 +3409,24 @@
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="101"/>
       <c r="C34" s="108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="61"/>
       <c r="F34" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H34" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -3448,7 +3451,7 @@
       <c r="A35" s="63"/>
       <c r="B35" s="100"/>
       <c r="C35" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>2</v>
@@ -3460,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="53"/>
       <c r="I35" s="13"/>
@@ -3486,7 +3489,7 @@
       <c r="A36" s="63"/>
       <c r="B36" s="100"/>
       <c r="C36" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>2</v>
@@ -3520,7 +3523,7 @@
       <c r="A37" s="63"/>
       <c r="B37" s="100"/>
       <c r="C37" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>2</v>
@@ -3552,7 +3555,7 @@
     </row>
     <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="50"/>
@@ -3582,11 +3585,11 @@
     </row>
     <row r="39" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>2</v>
@@ -3598,10 +3601,10 @@
         <v>75</v>
       </c>
       <c r="G39" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -3624,11 +3627,11 @@
     </row>
     <row r="40" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="51" t="s">
         <v>2</v>
@@ -3640,10 +3643,10 @@
         <v>450</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -3666,11 +3669,11 @@
     </row>
     <row r="41" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="100"/>
       <c r="C41" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>2</v>
@@ -3682,10 +3685,10 @@
         <v>3600</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -3736,23 +3739,23 @@
     </row>
     <row r="43" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="100">
         <v>4</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="50"/>
       <c r="F43" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="56"/>
       <c r="I43" s="13"/>
@@ -3776,24 +3779,24 @@
     </row>
     <row r="44" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -3816,11 +3819,11 @@
     </row>
     <row r="45" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D45" s="51" t="s">
         <v>2</v>
@@ -3830,7 +3833,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" s="53"/>
       <c r="I45" s="13"/>
@@ -3854,11 +3857,11 @@
     </row>
     <row r="46" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>2</v>
@@ -3868,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H46" s="53"/>
       <c r="I46" s="13"/>
@@ -3892,11 +3895,11 @@
     </row>
     <row r="47" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="51" t="s">
         <v>2</v>
@@ -3908,10 +3911,10 @@
         <v>75</v>
       </c>
       <c r="G47" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="H47" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -3934,11 +3937,11 @@
     </row>
     <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="100"/>
       <c r="C48" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>2</v>
@@ -3950,10 +3953,10 @@
         <v>450</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -3976,11 +3979,11 @@
     </row>
     <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="100"/>
       <c r="C49" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>2</v>
@@ -3992,10 +3995,10 @@
         <v>3600</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -4046,23 +4049,23 @@
     </row>
     <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="100">
         <v>5</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="53"/>
       <c r="I51" s="13"/>
@@ -4086,24 +4089,24 @@
     </row>
     <row r="52" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="101"/>
       <c r="C52" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="61"/>
       <c r="F52" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H52" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -4126,11 +4129,11 @@
     </row>
     <row r="53" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="101"/>
       <c r="C53" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>2</v>
@@ -4160,11 +4163,11 @@
     </row>
     <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>2</v>
@@ -4194,11 +4197,11 @@
     </row>
     <row r="55" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="101"/>
       <c r="C55" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>2</v>
@@ -4208,7 +4211,7 @@
         <v>4.5</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H55" s="56"/>
       <c r="I55" s="13"/>
@@ -4232,11 +4235,11 @@
     </row>
     <row r="56" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="101"/>
       <c r="C56" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>2</v>
@@ -4248,10 +4251,10 @@
         <v>75</v>
       </c>
       <c r="G56" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="H56" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -4274,11 +4277,11 @@
     </row>
     <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="101"/>
       <c r="C57" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>2</v>
@@ -4290,10 +4293,10 @@
         <v>450</v>
       </c>
       <c r="G57" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -4316,11 +4319,11 @@
     </row>
     <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="101"/>
       <c r="C58" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>2</v>
@@ -4332,10 +4335,10 @@
         <v>3600</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H58" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -4386,23 +4389,23 @@
     </row>
     <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="100">
         <v>6</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D60" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="50"/>
       <c r="F60" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="52" t="s">
         <v>101</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>102</v>
       </c>
       <c r="H60" s="53"/>
       <c r="I60" s="13"/>
@@ -4431,7 +4434,7 @@
       </c>
       <c r="B61" s="100"/>
       <c r="C61" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="50"/>
@@ -4464,20 +4467,20 @@
       </c>
       <c r="B62" s="101"/>
       <c r="C62" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="61"/>
       <c r="F62" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H62" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -4528,23 +4531,23 @@
     </row>
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="100">
         <v>7</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="50"/>
       <c r="F64" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="52" t="s">
         <v>101</v>
-      </c>
-      <c r="G64" s="52" t="s">
-        <v>102</v>
       </c>
       <c r="H64" s="53"/>
       <c r="I64" s="13"/>
@@ -4573,7 +4576,7 @@
       </c>
       <c r="B65" s="100"/>
       <c r="C65" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="97" t="s">
         <v>2</v>
@@ -4631,13 +4634,13 @@
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="100">
         <v>8</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="97" t="s">
         <v>2</v>
@@ -4672,7 +4675,7 @@
       </c>
       <c r="B68" s="102"/>
       <c r="C68" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="98" t="s">
         <v>2</v>
@@ -4702,7 +4705,7 @@
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B69" s="99"/>
       <c r="C69" s="74"/>
@@ -4734,7 +4737,7 @@
       <c r="A70" s="78"/>
       <c r="B70" s="78"/>
       <c r="C70" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="75" t="s">
         <v>2</v>
@@ -4746,7 +4749,7 @@
         <v>750</v>
       </c>
       <c r="G70" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H70" s="77"/>
       <c r="I70" s="13"/>
@@ -4772,7 +4775,7 @@
       <c r="A71" s="78"/>
       <c r="B71" s="78"/>
       <c r="C71" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>2</v>
@@ -4784,7 +4787,7 @@
         <v>80</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H71" s="77"/>
       <c r="I71" s="13"/>
@@ -4810,7 +4813,7 @@
       <c r="A72" s="78"/>
       <c r="B72" s="78"/>
       <c r="C72" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>2</v>
@@ -4822,7 +4825,7 @@
         <v>900</v>
       </c>
       <c r="G72" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H72" s="77"/>
       <c r="I72" s="13"/>
@@ -4848,7 +4851,7 @@
       <c r="A73" s="78"/>
       <c r="B73" s="78"/>
       <c r="C73" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>2</v>
@@ -4860,7 +4863,7 @@
         <v>1200</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H73" s="77"/>
       <c r="I73" s="13"/>
@@ -4886,7 +4889,7 @@
       <c r="A74" s="78"/>
       <c r="B74" s="78"/>
       <c r="C74" s="74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>2</v>
@@ -4898,10 +4901,10 @@
         <v>105</v>
       </c>
       <c r="G74" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="77" t="s">
         <v>117</v>
-      </c>
-      <c r="H74" s="77" t="s">
-        <v>118</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -4926,7 +4929,7 @@
       <c r="A75" s="78"/>
       <c r="B75" s="78"/>
       <c r="C75" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="75" t="s">
         <v>2</v>
@@ -4938,10 +4941,10 @@
         <v>12600</v>
       </c>
       <c r="G75" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="H75" s="77" t="s">
         <v>120</v>
-      </c>
-      <c r="H75" s="77" t="s">
-        <v>121</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -4966,7 +4969,7 @@
       <c r="A76" s="78"/>
       <c r="B76" s="78"/>
       <c r="C76" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76" s="75" t="s">
         <v>2</v>
@@ -4978,10 +4981,10 @@
         <v>3</v>
       </c>
       <c r="G76" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="H76" s="77" t="s">
         <v>123</v>
-      </c>
-      <c r="H76" s="77" t="s">
-        <v>124</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -5004,24 +5007,24 @@
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B77" s="79"/>
       <c r="C77" s="80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D77" s="81" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F77" s="80"/>
       <c r="G77" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="83" t="s">
         <v>126</v>
-      </c>
-      <c r="H77" s="83" t="s">
-        <v>127</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" s="99"/>
       <c r="C78" s="74"/>
@@ -5076,7 +5079,7 @@
       <c r="A79" s="78"/>
       <c r="B79" s="78"/>
       <c r="C79" s="112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="75" t="s">
         <v>2</v>
@@ -5088,10 +5091,10 @@
         <v>45</v>
       </c>
       <c r="G79" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H79" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -5116,7 +5119,7 @@
       <c r="A80" s="78"/>
       <c r="B80" s="78"/>
       <c r="C80" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D80" s="75" t="s">
         <v>2</v>
@@ -5128,10 +5131,10 @@
         <v>75</v>
       </c>
       <c r="G80" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H80" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -5156,7 +5159,7 @@
       <c r="A81" s="78"/>
       <c r="B81" s="78"/>
       <c r="C81" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D81" s="75" t="s">
         <v>2</v>
@@ -5168,10 +5171,10 @@
         <v>450</v>
       </c>
       <c r="G81" s="76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H81" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -5196,7 +5199,7 @@
       <c r="A82" s="79"/>
       <c r="B82" s="79"/>
       <c r="C82" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D82" s="81" t="s">
         <v>2</v>
@@ -5208,10 +5211,10 @@
         <v>3600</v>
       </c>
       <c r="G82" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -14442,7 +14445,7 @@
   <dimension ref="A1:T500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14456,37 +14459,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C1" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="E1" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="90" t="s">
         <v>232</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>233</v>
-      </c>
-      <c r="K1" s="90" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -14495,7 +14498,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="90">
         <v>150</v>
@@ -14532,7 +14535,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C3" s="90">
         <v>150</v>
@@ -14569,7 +14572,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C4" s="90">
         <v>150</v>
@@ -16040,7 +16043,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16052,37 +16055,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="89" t="s">
+      <c r="D1" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="E1" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="G1" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="89" t="s">
-        <v>144</v>
-      </c>
       <c r="J1" s="89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -20556,8 +20559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20901,7 +20904,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>2</v>
@@ -20938,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>2</v>
@@ -20973,14 +20976,14 @@
         <v>#</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="34" t="str">
         <f>'User Interface'!E13</f>
-        <v>[[3,1]]</v>
+        <v>[[2,3,1,]]</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>22</v>
@@ -21010,14 +21013,14 @@
         <v>#</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="34" t="str">
         <f>'User Interface'!E14</f>
-        <v>[[500,500]]</v>
+        <v>[[215, 215]]</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>22</v>
@@ -21047,7 +21050,7 @@
         <v>#</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>2</v>
@@ -21084,7 +21087,7 @@
         <v>#</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>2</v>
@@ -21115,7 +21118,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -21125,7 +21128,7 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="34">
@@ -21138,7 +21141,7 @@
     </row>
     <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
@@ -21190,10 +21193,10 @@
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="55" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>2</v>
@@ -21225,10 +21228,10 @@
     </row>
     <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>2</v>
@@ -21285,7 +21288,7 @@
     </row>
     <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
@@ -21341,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>2</v>
@@ -21378,13 +21381,13 @@
         <v>#</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="61" t="s">
         <v>15</v>
@@ -21439,7 +21442,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>2</v>
@@ -21476,7 +21479,7 @@
         <v>#</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>2</v>
@@ -21513,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="51" t="s">
         <v>2</v>
@@ -21550,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>2</v>
@@ -21587,7 +21590,7 @@
         <v>#</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>2</v>
@@ -21624,7 +21627,7 @@
         <v>#</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>2</v>
@@ -21661,7 +21664,7 @@
         <v>#</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>2</v>
@@ -21723,7 +21726,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>2</v>
@@ -21760,7 +21763,7 @@
         <v>#</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>2</v>
@@ -21797,7 +21800,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>2</v>
@@ -21834,7 +21837,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>2</v>
@@ -21869,7 +21872,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>2</v>
@@ -21904,7 +21907,7 @@
         <v>#</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="51" t="s">
         <v>2</v>
@@ -21941,7 +21944,7 @@
         <v>#</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="51" t="s">
         <v>2</v>
@@ -21978,7 +21981,7 @@
         <v>#</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>2</v>
@@ -22036,16 +22039,16 @@
     </row>
     <row r="46" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>22</v>
@@ -22071,16 +22074,16 @@
     </row>
     <row r="47" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="61" t="s">
         <v>15</v>
@@ -22106,10 +22109,10 @@
     </row>
     <row r="48" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>2</v>
@@ -22141,10 +22144,10 @@
     </row>
     <row r="49" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>2</v>
@@ -22176,10 +22179,10 @@
     </row>
     <row r="50" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>2</v>
@@ -22211,10 +22214,10 @@
     </row>
     <row r="51" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>2</v>
@@ -22246,10 +22249,10 @@
     </row>
     <row r="52" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>2</v>
@@ -22306,16 +22309,16 @@
     </row>
     <row r="54" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" s="50" t="s">
         <v>22</v>
@@ -22341,16 +22344,16 @@
     </row>
     <row r="55" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E55" s="61" t="s">
         <v>15</v>
@@ -22376,10 +22379,10 @@
     </row>
     <row r="56" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>2</v>
@@ -22411,10 +22414,10 @@
     </row>
     <row r="57" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="51" t="s">
         <v>2</v>
@@ -22446,10 +22449,10 @@
     </row>
     <row r="58" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>2</v>
@@ -22481,10 +22484,10 @@
     </row>
     <row r="59" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="51" t="s">
         <v>2</v>
@@ -22541,16 +22544,16 @@
     </row>
     <row r="61" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61" s="50" t="s">
         <v>22</v>
@@ -22576,16 +22579,16 @@
     </row>
     <row r="62" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E62" s="61" t="s">
         <v>15</v>
@@ -22636,16 +22639,16 @@
     </row>
     <row r="64" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64" s="50" t="s">
         <v>22</v>
@@ -22671,16 +22674,16 @@
     </row>
     <row r="65" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C65" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E65" s="69" t="s">
         <v>15</v>
@@ -22706,7 +22709,7 @@
     </row>
     <row r="66" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="74"/>
       <c r="C66" s="75"/>
@@ -22734,7 +22737,7 @@
     <row r="67" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" s="75" t="s">
         <v>2</v>
@@ -22768,7 +22771,7 @@
     <row r="68" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C68" s="75" t="s">
         <v>2</v>
@@ -22802,7 +22805,7 @@
     <row r="69" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="75" t="s">
         <v>2</v>
@@ -22836,7 +22839,7 @@
     <row r="70" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" s="75" t="s">
         <v>2</v>
@@ -22870,7 +22873,7 @@
     <row r="71" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="75" t="s">
         <v>2</v>
@@ -22904,7 +22907,7 @@
     <row r="72" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C72" s="75" t="s">
         <v>2</v>
@@ -22938,7 +22941,7 @@
     <row r="73" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="75" t="s">
         <v>2</v>
@@ -22972,7 +22975,7 @@
     <row r="74" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="79"/>
       <c r="B74" s="80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="81" t="s">
         <v>2</v>
@@ -23005,7 +23008,7 @@
     </row>
     <row r="75" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" s="74"/>
       <c r="C75" s="75"/>
@@ -23033,7 +23036,7 @@
     <row r="76" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="78"/>
       <c r="B76" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="75" t="s">
         <v>2</v>
@@ -23067,7 +23070,7 @@
     <row r="77" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="78"/>
       <c r="B77" s="74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C77" s="75" t="s">
         <v>2</v>
@@ -23101,7 +23104,7 @@
     <row r="78" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="78"/>
       <c r="B78" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C78" s="75" t="s">
         <v>2</v>
@@ -23135,7 +23138,7 @@
     <row r="79" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="79"/>
       <c r="B79" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="81" t="s">
         <v>2</v>

--- a/MIT_PVLab_Template.xlsx
+++ b/MIT_PVLab_Template.xlsx
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>exp1_vols</t>
+  </si>
+  <si>
+    <t>[[500,500]]</t>
   </si>
   <si>
     <t xml:space="preserve">Min and Max volumes for each portion of the experiment. </t>
@@ -1172,6 +1175,9 @@
     <t>Precursor3 (ul)</t>
   </si>
   <si>
+    <t>Precurso4 (ul)</t>
+  </si>
+  <si>
     <t>Precursor5 (ul)</t>
   </si>
   <si>
@@ -1220,13 +1226,7 @@
     <t>exp2_name</t>
   </si>
   <si>
-    <t>Precursor4 (ul)</t>
-  </si>
-  <si>
-    <t>[[2,3,1,]]</t>
-  </si>
-  <si>
-    <t>[[215, 215]]</t>
+    <t>[[3,1]]</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1820,9 +1820,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2215,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2309,7 +2306,7 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="92" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D3" s="93" t="s">
         <v>2</v>
@@ -2321,7 +2318,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -2353,16 +2350,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2417,7 +2414,7 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>2</v>
@@ -2451,7 +2448,7 @@
     </row>
     <row r="7" spans="1:26" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -2485,16 +2482,16 @@
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>23</v>
@@ -2525,22 +2522,22 @@
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -2565,7 +2562,7 @@
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>2</v>
@@ -2577,10 +2574,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -2605,13 +2602,13 @@
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="36"/>
@@ -2636,8 +2633,8 @@
       <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
-        <v>224</v>
+      <c r="A12" s="116" t="s">
+        <v>225</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
@@ -2666,21 +2663,21 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116" t="s">
-        <v>38</v>
+      <c r="A13" s="117" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>23</v>
@@ -2706,24 +2703,24 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
-        <v>38</v>
+      <c r="A14" s="117" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="13"/>
@@ -2746,12 +2743,12 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="116" t="s">
-        <v>38</v>
+      <c r="A15" s="117" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>2</v>
@@ -2763,7 +2760,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="13"/>
@@ -2786,18 +2783,18 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="118" t="s">
-        <v>38</v>
+      <c r="A16" s="117" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="36"/>
@@ -2823,7 +2820,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -2837,7 +2834,7 @@
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>2</v>
@@ -2849,13 +2846,13 @@
         <v>12</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -2863,10 +2860,10 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -2890,7 +2887,7 @@
     <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="103" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
@@ -2898,7 +2895,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="52"/>
       <c r="H20" s="60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2925,22 +2922,22 @@
         <v>1</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2963,11 +2960,11 @@
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="100"/>
       <c r="C22" s="108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>2</v>
@@ -3029,25 +3026,25 @@
         <v>2</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="96" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="96" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -3069,11 +3066,11 @@
     </row>
     <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="101"/>
       <c r="C25" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" s="64" t="s">
         <v>2</v>
@@ -3081,10 +3078,10 @@
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
       <c r="G25" s="65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -3109,7 +3106,7 @@
       <c r="A26" s="63"/>
       <c r="B26" s="100"/>
       <c r="C26" s="96" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>2</v>
@@ -3121,10 +3118,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -3149,7 +3146,7 @@
       <c r="A27" s="63"/>
       <c r="B27" s="100"/>
       <c r="C27" s="96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>2</v>
@@ -3161,7 +3158,7 @@
         <v>1.5</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="13"/>
@@ -3185,7 +3182,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" s="100"/>
       <c r="C28" s="104"/>
@@ -3215,11 +3212,11 @@
     </row>
     <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="100"/>
       <c r="C29" s="50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>2</v>
@@ -3231,10 +3228,10 @@
         <v>75</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -3257,11 +3254,11 @@
     </row>
     <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="100"/>
       <c r="C30" s="50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>2</v>
@@ -3273,10 +3270,10 @@
         <v>450</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -3299,11 +3296,11 @@
     </row>
     <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>2</v>
@@ -3315,10 +3312,10 @@
         <v>3600</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -3373,19 +3370,19 @@
         <v>3</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="13"/>
@@ -3409,24 +3406,24 @@
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="101"/>
       <c r="C34" s="108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="61"/>
       <c r="F34" s="61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -3451,7 +3448,7 @@
       <c r="A35" s="63"/>
       <c r="B35" s="100"/>
       <c r="C35" s="50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>2</v>
@@ -3463,7 +3460,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" s="53"/>
       <c r="I35" s="13"/>
@@ -3489,7 +3486,7 @@
       <c r="A36" s="63"/>
       <c r="B36" s="100"/>
       <c r="C36" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>2</v>
@@ -3523,7 +3520,7 @@
       <c r="A37" s="63"/>
       <c r="B37" s="100"/>
       <c r="C37" s="50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>2</v>
@@ -3555,7 +3552,7 @@
     </row>
     <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="50"/>
@@ -3585,11 +3582,11 @@
     </row>
     <row r="39" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>2</v>
@@ -3601,10 +3598,10 @@
         <v>75</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -3627,11 +3624,11 @@
     </row>
     <row r="40" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D40" s="51" t="s">
         <v>2</v>
@@ -3643,10 +3640,10 @@
         <v>450</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H40" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -3669,11 +3666,11 @@
     </row>
     <row r="41" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="100"/>
       <c r="C41" s="50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>2</v>
@@ -3685,10 +3682,10 @@
         <v>3600</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H41" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -3739,23 +3736,23 @@
     </row>
     <row r="43" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="100">
         <v>4</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D43" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="50"/>
       <c r="F43" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" s="56"/>
       <c r="I43" s="13"/>
@@ -3779,24 +3776,24 @@
     </row>
     <row r="44" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D44" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G44" s="65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -3819,11 +3816,11 @@
     </row>
     <row r="45" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D45" s="51" t="s">
         <v>2</v>
@@ -3833,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H45" s="53"/>
       <c r="I45" s="13"/>
@@ -3857,11 +3854,11 @@
     </row>
     <row r="46" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>2</v>
@@ -3871,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" s="53"/>
       <c r="I46" s="13"/>
@@ -3895,11 +3892,11 @@
     </row>
     <row r="47" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D47" s="51" t="s">
         <v>2</v>
@@ -3911,10 +3908,10 @@
         <v>75</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -3937,11 +3934,11 @@
     </row>
     <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48" s="100"/>
       <c r="C48" s="50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>2</v>
@@ -3953,10 +3950,10 @@
         <v>450</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H48" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -3979,11 +3976,11 @@
     </row>
     <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B49" s="100"/>
       <c r="C49" s="50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>2</v>
@@ -3995,10 +3992,10 @@
         <v>3600</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -4049,23 +4046,23 @@
     </row>
     <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B51" s="100">
         <v>5</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" s="53"/>
       <c r="I51" s="13"/>
@@ -4089,24 +4086,24 @@
     </row>
     <row r="52" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B52" s="101"/>
       <c r="C52" s="61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D52" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="61"/>
       <c r="F52" s="61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G52" s="65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -4129,11 +4126,11 @@
     </row>
     <row r="53" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B53" s="101"/>
       <c r="C53" s="50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>2</v>
@@ -4163,11 +4160,11 @@
     </row>
     <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>2</v>
@@ -4197,11 +4194,11 @@
     </row>
     <row r="55" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B55" s="101"/>
       <c r="C55" s="50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>2</v>
@@ -4211,7 +4208,7 @@
         <v>4.5</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H55" s="56"/>
       <c r="I55" s="13"/>
@@ -4235,11 +4232,11 @@
     </row>
     <row r="56" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B56" s="101"/>
       <c r="C56" s="50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>2</v>
@@ -4251,10 +4248,10 @@
         <v>75</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H56" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -4277,11 +4274,11 @@
     </row>
     <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B57" s="101"/>
       <c r="C57" s="50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>2</v>
@@ -4293,10 +4290,10 @@
         <v>450</v>
       </c>
       <c r="G57" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H57" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -4319,11 +4316,11 @@
     </row>
     <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B58" s="101"/>
       <c r="C58" s="50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>2</v>
@@ -4335,10 +4332,10 @@
         <v>3600</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H58" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -4389,23 +4386,23 @@
     </row>
     <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60" s="100">
         <v>6</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D60" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="50"/>
       <c r="F60" s="50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G60" s="52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H60" s="53"/>
       <c r="I60" s="13"/>
@@ -4434,7 +4431,7 @@
       </c>
       <c r="B61" s="100"/>
       <c r="C61" s="50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="50"/>
@@ -4467,20 +4464,20 @@
       </c>
       <c r="B62" s="101"/>
       <c r="C62" s="61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="61"/>
       <c r="F62" s="61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G62" s="65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H62" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -4531,23 +4528,23 @@
     </row>
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B64" s="100">
         <v>7</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="50"/>
       <c r="F64" s="50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G64" s="52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H64" s="53"/>
       <c r="I64" s="13"/>
@@ -4576,7 +4573,7 @@
       </c>
       <c r="B65" s="100"/>
       <c r="C65" s="50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="97" t="s">
         <v>2</v>
@@ -4634,13 +4631,13 @@
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B67" s="100">
         <v>8</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="97" t="s">
         <v>2</v>
@@ -4675,7 +4672,7 @@
       </c>
       <c r="B68" s="102"/>
       <c r="C68" s="69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="98" t="s">
         <v>2</v>
@@ -4705,7 +4702,7 @@
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="99" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B69" s="99"/>
       <c r="C69" s="74"/>
@@ -4737,7 +4734,7 @@
       <c r="A70" s="78"/>
       <c r="B70" s="78"/>
       <c r="C70" s="74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="75" t="s">
         <v>2</v>
@@ -4749,7 +4746,7 @@
         <v>750</v>
       </c>
       <c r="G70" s="76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H70" s="77"/>
       <c r="I70" s="13"/>
@@ -4775,7 +4772,7 @@
       <c r="A71" s="78"/>
       <c r="B71" s="78"/>
       <c r="C71" s="74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>2</v>
@@ -4787,7 +4784,7 @@
         <v>80</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H71" s="77"/>
       <c r="I71" s="13"/>
@@ -4813,7 +4810,7 @@
       <c r="A72" s="78"/>
       <c r="B72" s="78"/>
       <c r="C72" s="74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>2</v>
@@ -4825,7 +4822,7 @@
         <v>900</v>
       </c>
       <c r="G72" s="76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H72" s="77"/>
       <c r="I72" s="13"/>
@@ -4851,7 +4848,7 @@
       <c r="A73" s="78"/>
       <c r="B73" s="78"/>
       <c r="C73" s="74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>2</v>
@@ -4863,7 +4860,7 @@
         <v>1200</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H73" s="77"/>
       <c r="I73" s="13"/>
@@ -4889,7 +4886,7 @@
       <c r="A74" s="78"/>
       <c r="B74" s="78"/>
       <c r="C74" s="74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>2</v>
@@ -4901,10 +4898,10 @@
         <v>105</v>
       </c>
       <c r="G74" s="76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H74" s="77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -4929,7 +4926,7 @@
       <c r="A75" s="78"/>
       <c r="B75" s="78"/>
       <c r="C75" s="74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D75" s="75" t="s">
         <v>2</v>
@@ -4941,10 +4938,10 @@
         <v>12600</v>
       </c>
       <c r="G75" s="76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H75" s="77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -4969,7 +4966,7 @@
       <c r="A76" s="78"/>
       <c r="B76" s="78"/>
       <c r="C76" s="74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D76" s="75" t="s">
         <v>2</v>
@@ -4981,10 +4978,10 @@
         <v>3</v>
       </c>
       <c r="G76" s="76" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H76" s="77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -5007,24 +5004,24 @@
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B77" s="79"/>
       <c r="C77" s="80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D77" s="81" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F77" s="80"/>
       <c r="G77" s="82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H77" s="83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -5047,7 +5044,7 @@
     </row>
     <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B78" s="99"/>
       <c r="C78" s="74"/>
@@ -5079,7 +5076,7 @@
       <c r="A79" s="78"/>
       <c r="B79" s="78"/>
       <c r="C79" s="112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="75" t="s">
         <v>2</v>
@@ -5091,10 +5088,10 @@
         <v>45</v>
       </c>
       <c r="G79" s="113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H79" s="77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -5119,7 +5116,7 @@
       <c r="A80" s="78"/>
       <c r="B80" s="78"/>
       <c r="C80" s="74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D80" s="75" t="s">
         <v>2</v>
@@ -5131,10 +5128,10 @@
         <v>75</v>
       </c>
       <c r="G80" s="76" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H80" s="77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -5159,7 +5156,7 @@
       <c r="A81" s="78"/>
       <c r="B81" s="78"/>
       <c r="C81" s="74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D81" s="75" t="s">
         <v>2</v>
@@ -5171,10 +5168,10 @@
         <v>450</v>
       </c>
       <c r="G81" s="76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H81" s="77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -5199,7 +5196,7 @@
       <c r="A82" s="79"/>
       <c r="B82" s="79"/>
       <c r="C82" s="80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D82" s="81" t="s">
         <v>2</v>
@@ -5211,10 +5208,10 @@
         <v>3600</v>
       </c>
       <c r="G82" s="82" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -14445,7 +14442,7 @@
   <dimension ref="A1:T500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14459,37 +14456,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="89" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>231</v>
-      </c>
       <c r="K1" s="90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -14498,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C2" s="90">
         <v>150</v>
@@ -14535,7 +14532,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C3" s="90">
         <v>150</v>
@@ -14572,7 +14569,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C4" s="90">
         <v>150</v>
@@ -16043,7 +16040,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16055,37 +16052,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="89" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="89" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="89" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J1" s="89" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -20559,8 +20556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20904,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>2</v>
@@ -20941,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>2</v>
@@ -20976,14 +20973,14 @@
         <v>#</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="34" t="str">
         <f>'User Interface'!E13</f>
-        <v>[[2,3,1,]]</v>
+        <v>[[3,1]]</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>22</v>
@@ -21013,14 +21010,14 @@
         <v>#</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="34" t="str">
         <f>'User Interface'!E14</f>
-        <v>[[215, 215]]</v>
+        <v>[[500,500]]</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>22</v>
@@ -21050,7 +21047,7 @@
         <v>#</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>2</v>
@@ -21087,7 +21084,7 @@
         <v>#</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>2</v>
@@ -21118,7 +21115,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -21128,7 +21125,7 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="34">
@@ -21141,7 +21138,7 @@
     </row>
     <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
@@ -21193,10 +21190,10 @@
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>2</v>
@@ -21228,10 +21225,10 @@
     </row>
     <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>2</v>
@@ -21288,7 +21285,7 @@
     </row>
     <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
@@ -21344,7 +21341,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>2</v>
@@ -21381,13 +21378,13 @@
         <v>#</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="61" t="s">
         <v>15</v>
@@ -21442,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>2</v>
@@ -21479,7 +21476,7 @@
         <v>#</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>2</v>
@@ -21516,7 +21513,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="51" t="s">
         <v>2</v>
@@ -21553,7 +21550,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>2</v>
@@ -21590,7 +21587,7 @@
         <v>#</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>2</v>
@@ -21627,7 +21624,7 @@
         <v>#</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>2</v>
@@ -21664,7 +21661,7 @@
         <v>#</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>2</v>
@@ -21726,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>2</v>
@@ -21763,7 +21760,7 @@
         <v>#</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>2</v>
@@ -21800,7 +21797,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>2</v>
@@ -21837,7 +21834,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>2</v>
@@ -21872,7 +21869,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>2</v>
@@ -21907,7 +21904,7 @@
         <v>#</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" s="51" t="s">
         <v>2</v>
@@ -21944,7 +21941,7 @@
         <v>#</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C43" s="51" t="s">
         <v>2</v>
@@ -21981,7 +21978,7 @@
         <v>#</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>2</v>
@@ -22039,16 +22036,16 @@
     </row>
     <row r="46" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C46" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>22</v>
@@ -22074,16 +22071,16 @@
     </row>
     <row r="47" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" s="61" t="s">
         <v>15</v>
@@ -22109,10 +22106,10 @@
     </row>
     <row r="48" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>2</v>
@@ -22144,10 +22141,10 @@
     </row>
     <row r="49" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B49" s="67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>2</v>
@@ -22179,10 +22176,10 @@
     </row>
     <row r="50" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>2</v>
@@ -22214,10 +22211,10 @@
     </row>
     <row r="51" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>2</v>
@@ -22249,10 +22246,10 @@
     </row>
     <row r="52" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>2</v>
@@ -22309,16 +22306,16 @@
     </row>
     <row r="54" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="50" t="s">
         <v>22</v>
@@ -22344,16 +22341,16 @@
     </row>
     <row r="55" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="61" t="s">
         <v>15</v>
@@ -22379,10 +22376,10 @@
     </row>
     <row r="56" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>2</v>
@@ -22414,10 +22411,10 @@
     </row>
     <row r="57" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C57" s="51" t="s">
         <v>2</v>
@@ -22449,10 +22446,10 @@
     </row>
     <row r="58" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>2</v>
@@ -22484,10 +22481,10 @@
     </row>
     <row r="59" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C59" s="51" t="s">
         <v>2</v>
@@ -22544,16 +22541,16 @@
     </row>
     <row r="61" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C61" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61" s="50" t="s">
         <v>22</v>
@@ -22579,16 +22576,16 @@
     </row>
     <row r="62" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" s="61" t="s">
         <v>15</v>
@@ -22639,16 +22636,16 @@
     </row>
     <row r="64" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E64" s="50" t="s">
         <v>22</v>
@@ -22674,16 +22671,16 @@
     </row>
     <row r="65" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C65" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="69" t="s">
         <v>15</v>
@@ -22709,7 +22706,7 @@
     </row>
     <row r="66" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B66" s="74"/>
       <c r="C66" s="75"/>
@@ -22737,7 +22734,7 @@
     <row r="67" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C67" s="75" t="s">
         <v>2</v>
@@ -22771,7 +22768,7 @@
     <row r="68" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C68" s="75" t="s">
         <v>2</v>
@@ -22805,7 +22802,7 @@
     <row r="69" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C69" s="75" t="s">
         <v>2</v>
@@ -22839,7 +22836,7 @@
     <row r="70" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C70" s="75" t="s">
         <v>2</v>
@@ -22873,7 +22870,7 @@
     <row r="71" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C71" s="75" t="s">
         <v>2</v>
@@ -22907,7 +22904,7 @@
     <row r="72" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C72" s="75" t="s">
         <v>2</v>
@@ -22941,7 +22938,7 @@
     <row r="73" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C73" s="75" t="s">
         <v>2</v>
@@ -22975,7 +22972,7 @@
     <row r="74" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="79"/>
       <c r="B74" s="80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C74" s="81" t="s">
         <v>2</v>
@@ -23008,7 +23005,7 @@
     </row>
     <row r="75" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B75" s="74"/>
       <c r="C75" s="75"/>
@@ -23036,7 +23033,7 @@
     <row r="76" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="78"/>
       <c r="B76" s="74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C76" s="75" t="s">
         <v>2</v>
@@ -23070,7 +23067,7 @@
     <row r="77" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="78"/>
       <c r="B77" s="74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C77" s="75" t="s">
         <v>2</v>
@@ -23104,7 +23101,7 @@
     <row r="78" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="78"/>
       <c r="B78" s="74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78" s="75" t="s">
         <v>2</v>
@@ -23138,7 +23135,7 @@
     <row r="79" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="79"/>
       <c r="B79" s="80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79" s="81" t="s">
         <v>2</v>

--- a/MIT_PVLab_Template.xlsx
+++ b/MIT_PVLab_Template.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="247">
   <si>
     <t>Comment</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>exp1_vols</t>
-  </si>
-  <si>
-    <t>[[500,500]]</t>
   </si>
   <si>
     <t xml:space="preserve">Min and Max volumes for each portion of the experiment. </t>
@@ -1175,9 +1172,6 @@
     <t>Precursor3 (ul)</t>
   </si>
   <si>
-    <t>Precurso4 (ul)</t>
-  </si>
-  <si>
     <t>Precursor5 (ul)</t>
   </si>
   <si>
@@ -1211,13 +1205,7 @@
     <t>Experiment 1 Group Name</t>
   </si>
   <si>
-    <t>Experiment 1</t>
-  </si>
-  <si>
     <t>Experiment 2 Group Name</t>
-  </si>
-  <si>
-    <t>Experiment 2</t>
   </si>
   <si>
     <t>exp1_name</t>
@@ -1226,7 +1214,19 @@
     <t>exp2_name</t>
   </si>
   <si>
-    <t>[[3,1]]</t>
+    <t>Precursor4 (ul)</t>
+  </si>
+  <si>
+    <t>[[215, 215]]</t>
+  </si>
+  <si>
+    <t>qux</t>
+  </si>
+  <si>
+    <t>random_exp1</t>
+  </si>
+  <si>
+    <t>random_exp2</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1820,6 +1820,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2212,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2309,7 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="93" t="s">
         <v>2</v>
@@ -2318,7 +2321,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -2350,16 +2353,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2414,13 +2417,13 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="21">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="23" t="s">
@@ -2448,7 +2451,7 @@
     </row>
     <row r="7" spans="1:26" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -2482,16 +2485,16 @@
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>23</v>
@@ -2522,22 +2525,22 @@
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>28</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -2562,22 +2565,22 @@
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="34">
         <v>12</v>
       </c>
       <c r="G10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>30</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>31</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -2602,13 +2605,13 @@
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="36"/>
@@ -2633,8 +2636,8 @@
       <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116" t="s">
-        <v>225</v>
+      <c r="A12" s="117" t="s">
+        <v>224</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
@@ -2663,21 +2666,19 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="118"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>23</v>
@@ -2703,24 +2704,22 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
-        <v>39</v>
-      </c>
+      <c r="A14" s="116"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>27</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="13"/>
@@ -2743,24 +2742,22 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
-        <v>39</v>
-      </c>
+      <c r="A15" s="116"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="39">
         <v>12</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="13"/>
@@ -2783,18 +2780,16 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
-        <v>39</v>
-      </c>
+      <c r="A16" s="118"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="36"/>
@@ -2820,7 +2815,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -2834,25 +2829,25 @@
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="47">
         <v>12</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -2860,10 +2855,10 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="53" t="s">
         <v>43</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>44</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -2887,7 +2882,7 @@
     <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
@@ -2895,7 +2890,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="52"/>
       <c r="H20" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2922,22 +2917,22 @@
         <v>1</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="114" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="62" t="s">
         <v>47</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>48</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2960,11 +2955,11 @@
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="100"/>
       <c r="C22" s="108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>2</v>
@@ -3026,25 +3021,25 @@
         <v>2</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -3066,11 +3061,11 @@
     </row>
     <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="101"/>
       <c r="C25" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" s="64" t="s">
         <v>2</v>
@@ -3078,10 +3073,10 @@
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
       <c r="G25" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -3106,7 +3101,7 @@
       <c r="A26" s="63"/>
       <c r="B26" s="100"/>
       <c r="C26" s="96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>2</v>
@@ -3118,10 +3113,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="53" t="s">
         <v>59</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>60</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -3146,7 +3141,7 @@
       <c r="A27" s="63"/>
       <c r="B27" s="100"/>
       <c r="C27" s="96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>2</v>
@@ -3158,7 +3153,7 @@
         <v>1.5</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="13"/>
@@ -3182,7 +3177,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="100"/>
       <c r="C28" s="104"/>
@@ -3212,11 +3207,11 @@
     </row>
     <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="100"/>
       <c r="C29" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>2</v>
@@ -3228,10 +3223,10 @@
         <v>75</v>
       </c>
       <c r="G29" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="H29" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -3254,11 +3249,11 @@
     </row>
     <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="100"/>
       <c r="C30" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>2</v>
@@ -3270,10 +3265,10 @@
         <v>450</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -3296,11 +3291,11 @@
     </row>
     <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>2</v>
@@ -3312,10 +3307,10 @@
         <v>3600</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -3370,19 +3365,19 @@
         <v>3</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F33" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="52" t="s">
         <v>71</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>72</v>
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="13"/>
@@ -3406,24 +3401,24 @@
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="101"/>
       <c r="C34" s="108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="61"/>
       <c r="F34" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H34" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -3448,7 +3443,7 @@
       <c r="A35" s="63"/>
       <c r="B35" s="100"/>
       <c r="C35" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>2</v>
@@ -3460,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="53"/>
       <c r="I35" s="13"/>
@@ -3486,7 +3481,7 @@
       <c r="A36" s="63"/>
       <c r="B36" s="100"/>
       <c r="C36" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>2</v>
@@ -3520,7 +3515,7 @@
       <c r="A37" s="63"/>
       <c r="B37" s="100"/>
       <c r="C37" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>2</v>
@@ -3552,7 +3547,7 @@
     </row>
     <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="50"/>
@@ -3582,11 +3577,11 @@
     </row>
     <row r="39" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>2</v>
@@ -3598,10 +3593,10 @@
         <v>75</v>
       </c>
       <c r="G39" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -3624,11 +3619,11 @@
     </row>
     <row r="40" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="51" t="s">
         <v>2</v>
@@ -3640,10 +3635,10 @@
         <v>450</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -3666,11 +3661,11 @@
     </row>
     <row r="41" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="100"/>
       <c r="C41" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>2</v>
@@ -3682,10 +3677,10 @@
         <v>3600</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -3736,23 +3731,23 @@
     </row>
     <row r="43" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="100">
         <v>4</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="50"/>
       <c r="F43" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="56"/>
       <c r="I43" s="13"/>
@@ -3776,24 +3771,24 @@
     </row>
     <row r="44" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -3816,11 +3811,11 @@
     </row>
     <row r="45" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D45" s="51" t="s">
         <v>2</v>
@@ -3830,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" s="53"/>
       <c r="I45" s="13"/>
@@ -3854,11 +3849,11 @@
     </row>
     <row r="46" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>2</v>
@@ -3868,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H46" s="53"/>
       <c r="I46" s="13"/>
@@ -3892,11 +3887,11 @@
     </row>
     <row r="47" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="51" t="s">
         <v>2</v>
@@ -3908,10 +3903,10 @@
         <v>75</v>
       </c>
       <c r="G47" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="H47" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -3934,11 +3929,11 @@
     </row>
     <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="100"/>
       <c r="C48" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>2</v>
@@ -3950,10 +3945,10 @@
         <v>450</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -3976,11 +3971,11 @@
     </row>
     <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="100"/>
       <c r="C49" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>2</v>
@@ -3992,10 +3987,10 @@
         <v>3600</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -4046,23 +4041,23 @@
     </row>
     <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="100">
         <v>5</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="53"/>
       <c r="I51" s="13"/>
@@ -4086,24 +4081,24 @@
     </row>
     <row r="52" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="101"/>
       <c r="C52" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="61"/>
       <c r="F52" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H52" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -4126,11 +4121,11 @@
     </row>
     <row r="53" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="101"/>
       <c r="C53" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>2</v>
@@ -4160,11 +4155,11 @@
     </row>
     <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>2</v>
@@ -4194,11 +4189,11 @@
     </row>
     <row r="55" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="101"/>
       <c r="C55" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>2</v>
@@ -4208,7 +4203,7 @@
         <v>4.5</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H55" s="56"/>
       <c r="I55" s="13"/>
@@ -4232,11 +4227,11 @@
     </row>
     <row r="56" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="101"/>
       <c r="C56" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>2</v>
@@ -4248,10 +4243,10 @@
         <v>75</v>
       </c>
       <c r="G56" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="H56" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -4274,11 +4269,11 @@
     </row>
     <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="101"/>
       <c r="C57" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>2</v>
@@ -4290,10 +4285,10 @@
         <v>450</v>
       </c>
       <c r="G57" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -4316,11 +4311,11 @@
     </row>
     <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="101"/>
       <c r="C58" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>2</v>
@@ -4332,10 +4327,10 @@
         <v>3600</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H58" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -4386,23 +4381,23 @@
     </row>
     <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="100">
         <v>6</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D60" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="50"/>
       <c r="F60" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="52" t="s">
         <v>101</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>102</v>
       </c>
       <c r="H60" s="53"/>
       <c r="I60" s="13"/>
@@ -4431,7 +4426,7 @@
       </c>
       <c r="B61" s="100"/>
       <c r="C61" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="50"/>
@@ -4464,20 +4459,20 @@
       </c>
       <c r="B62" s="101"/>
       <c r="C62" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="61"/>
       <c r="F62" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="66" t="s">
         <v>51</v>
-      </c>
-      <c r="H62" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -4528,23 +4523,23 @@
     </row>
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="100">
         <v>7</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="50"/>
       <c r="F64" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="52" t="s">
         <v>101</v>
-      </c>
-      <c r="G64" s="52" t="s">
-        <v>102</v>
       </c>
       <c r="H64" s="53"/>
       <c r="I64" s="13"/>
@@ -4573,7 +4568,7 @@
       </c>
       <c r="B65" s="100"/>
       <c r="C65" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="97" t="s">
         <v>2</v>
@@ -4631,13 +4626,13 @@
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="100">
         <v>8</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="97" t="s">
         <v>2</v>
@@ -4672,7 +4667,7 @@
       </c>
       <c r="B68" s="102"/>
       <c r="C68" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="98" t="s">
         <v>2</v>
@@ -4702,7 +4697,7 @@
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B69" s="99"/>
       <c r="C69" s="74"/>
@@ -4734,7 +4729,7 @@
       <c r="A70" s="78"/>
       <c r="B70" s="78"/>
       <c r="C70" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="75" t="s">
         <v>2</v>
@@ -4746,7 +4741,7 @@
         <v>750</v>
       </c>
       <c r="G70" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H70" s="77"/>
       <c r="I70" s="13"/>
@@ -4772,7 +4767,7 @@
       <c r="A71" s="78"/>
       <c r="B71" s="78"/>
       <c r="C71" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>2</v>
@@ -4784,7 +4779,7 @@
         <v>80</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H71" s="77"/>
       <c r="I71" s="13"/>
@@ -4810,7 +4805,7 @@
       <c r="A72" s="78"/>
       <c r="B72" s="78"/>
       <c r="C72" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>2</v>
@@ -4822,7 +4817,7 @@
         <v>900</v>
       </c>
       <c r="G72" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H72" s="77"/>
       <c r="I72" s="13"/>
@@ -4848,7 +4843,7 @@
       <c r="A73" s="78"/>
       <c r="B73" s="78"/>
       <c r="C73" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>2</v>
@@ -4860,7 +4855,7 @@
         <v>1200</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H73" s="77"/>
       <c r="I73" s="13"/>
@@ -4886,7 +4881,7 @@
       <c r="A74" s="78"/>
       <c r="B74" s="78"/>
       <c r="C74" s="74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>2</v>
@@ -4898,10 +4893,10 @@
         <v>105</v>
       </c>
       <c r="G74" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="77" t="s">
         <v>117</v>
-      </c>
-      <c r="H74" s="77" t="s">
-        <v>118</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -4926,7 +4921,7 @@
       <c r="A75" s="78"/>
       <c r="B75" s="78"/>
       <c r="C75" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="75" t="s">
         <v>2</v>
@@ -4938,10 +4933,10 @@
         <v>12600</v>
       </c>
       <c r="G75" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="H75" s="77" t="s">
         <v>120</v>
-      </c>
-      <c r="H75" s="77" t="s">
-        <v>121</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -4966,7 +4961,7 @@
       <c r="A76" s="78"/>
       <c r="B76" s="78"/>
       <c r="C76" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76" s="75" t="s">
         <v>2</v>
@@ -4978,10 +4973,10 @@
         <v>3</v>
       </c>
       <c r="G76" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="H76" s="77" t="s">
         <v>123</v>
-      </c>
-      <c r="H76" s="77" t="s">
-        <v>124</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -5004,24 +4999,24 @@
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B77" s="79"/>
       <c r="C77" s="80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D77" s="81" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F77" s="80"/>
       <c r="G77" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="83" t="s">
         <v>126</v>
-      </c>
-      <c r="H77" s="83" t="s">
-        <v>127</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -5044,7 +5039,7 @@
     </row>
     <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" s="99"/>
       <c r="C78" s="74"/>
@@ -5076,7 +5071,7 @@
       <c r="A79" s="78"/>
       <c r="B79" s="78"/>
       <c r="C79" s="112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="75" t="s">
         <v>2</v>
@@ -5088,10 +5083,10 @@
         <v>45</v>
       </c>
       <c r="G79" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H79" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -5116,7 +5111,7 @@
       <c r="A80" s="78"/>
       <c r="B80" s="78"/>
       <c r="C80" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D80" s="75" t="s">
         <v>2</v>
@@ -5128,10 +5123,10 @@
         <v>75</v>
       </c>
       <c r="G80" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H80" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -5156,7 +5151,7 @@
       <c r="A81" s="78"/>
       <c r="B81" s="78"/>
       <c r="C81" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D81" s="75" t="s">
         <v>2</v>
@@ -5168,10 +5163,10 @@
         <v>450</v>
       </c>
       <c r="G81" s="76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H81" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -5196,7 +5191,7 @@
       <c r="A82" s="79"/>
       <c r="B82" s="79"/>
       <c r="C82" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D82" s="81" t="s">
         <v>2</v>
@@ -5208,10 +5203,10 @@
         <v>3600</v>
       </c>
       <c r="G82" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -14423,7 +14418,7 @@
       <c r="H1001" s="88"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" errorTitle="WellCountError" error="Global wellcount should be sum of random_wellcount and fixed_wells" promptTitle="Experiment Count" prompt="MUST be the sum of &quot;Random Experiments&quot; and &quot;Manual Experiments&quot;" sqref="E6">
       <formula1>SUM(#REF!,E18)</formula1>
     </dataValidation>
@@ -14442,7 +14437,7 @@
   <dimension ref="A1:T500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14456,37 +14451,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C1" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="E1" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="90" t="s">
         <v>232</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>233</v>
-      </c>
-      <c r="K1" s="90" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -14495,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="90">
         <v>150</v>
@@ -14532,7 +14527,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C3" s="90">
         <v>150</v>
@@ -14569,7 +14564,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C4" s="90">
         <v>150</v>
@@ -14601,14 +14596,40 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="str">
+      <c r="A5" s="91">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="K5" s="90" t="str">
+        <v>4</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="90">
+        <v>150</v>
+      </c>
+      <c r="D5" s="90">
+        <v>30</v>
+      </c>
+      <c r="E5" s="90">
+        <v>35</v>
+      </c>
+      <c r="F5" s="90">
+        <v>0</v>
+      </c>
+      <c r="G5" s="90">
+        <v>0</v>
+      </c>
+      <c r="H5" s="90">
+        <v>0</v>
+      </c>
+      <c r="I5" s="90">
+        <v>0</v>
+      </c>
+      <c r="J5" s="90">
+        <v>0</v>
+      </c>
+      <c r="K5" s="90">
         <f t="shared" si="0"/>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -16040,7 +16061,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16052,37 +16073,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="89" t="s">
+      <c r="D1" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="E1" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="G1" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="89" t="s">
-        <v>144</v>
-      </c>
       <c r="J1" s="89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -16224,49 +16245,49 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
+      <c r="A5">
         <f>IF(NOT('Manual Experiment Interface'!A5=""),'Manual Experiment Interface'!A5,"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
         <f>IF(NOT('Manual Experiment Interface'!B5=""),'Manual Experiment Interface'!B5,"")</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
+        <v>qux</v>
+      </c>
+      <c r="C5">
         <f>IF(NOT('Manual Experiment Interface'!C5=""),'Manual Experiment Interface'!C5,"")</f>
-        <v/>
-      </c>
-      <c r="D5" t="str">
+        <v>150</v>
+      </c>
+      <c r="D5">
         <f>IF(NOT('Manual Experiment Interface'!D5=""),'Manual Experiment Interface'!D5,"")</f>
-        <v/>
-      </c>
-      <c r="E5" t="str">
+        <v>30</v>
+      </c>
+      <c r="E5">
         <f>IF(NOT('Manual Experiment Interface'!E5=""),'Manual Experiment Interface'!E5,"")</f>
-        <v/>
-      </c>
-      <c r="F5" t="str">
+        <v>35</v>
+      </c>
+      <c r="F5">
         <f>IF(NOT('Manual Experiment Interface'!F5=""),'Manual Experiment Interface'!F5,"")</f>
-        <v/>
-      </c>
-      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <f>IF(NOT('Manual Experiment Interface'!G5=""),'Manual Experiment Interface'!G5,"")</f>
-        <v/>
-      </c>
-      <c r="H5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <f>IF(NOT('Manual Experiment Interface'!H5=""),'Manual Experiment Interface'!H5,"")</f>
-        <v/>
-      </c>
-      <c r="I5" t="str">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <f>IF(NOT('Manual Experiment Interface'!I5=""),'Manual Experiment Interface'!I5,"")</f>
-        <v/>
-      </c>
-      <c r="J5" t="str">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f>IF(NOT('Manual Experiment Interface'!J5=""),'Manual Experiment Interface'!J5,"")</f>
-        <v/>
-      </c>
-      <c r="K5" t="str">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f>IF(NOT('Manual Experiment Interface'!K5=""),'Manual Experiment Interface'!K5,"")</f>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -20556,8 +20577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20770,7 +20791,7 @@
       </c>
       <c r="D7" s="21">
         <f>'User Interface'!wellcount</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>12</v>
@@ -20901,14 +20922,14 @@
         <v>0</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="34">
         <f>'User Interface'!E10</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>12</v>
@@ -20938,14 +20959,14 @@
         <v>0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="34" t="str">
         <f>'User Interface'!E11</f>
-        <v>Experiment 1</v>
+        <v>random_exp1</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="38"/>
@@ -20968,19 +20989,19 @@
       <c r="W12" s="38"/>
     </row>
     <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="str">
+      <c r="A13" s="33">
         <f>'User Interface'!A13</f>
-        <v>#</v>
+        <v>0</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="34" t="str">
         <f>'User Interface'!E13</f>
-        <v>[[3,1]]</v>
+        <v>[[2,3,1]]</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>22</v>
@@ -21005,19 +21026,19 @@
       <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="str">
+      <c r="A14" s="33">
         <f>'User Interface'!A14</f>
-        <v>#</v>
+        <v>0</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="34" t="str">
         <f>'User Interface'!E14</f>
-        <v>[[500,500]]</v>
+        <v>[[215, 215]]</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>22</v>
@@ -21042,19 +21063,19 @@
       <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="str">
+      <c r="A15" s="33">
         <f>'User Interface'!A15</f>
-        <v>#</v>
+        <v>0</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="34">
         <f>'User Interface'!E15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>12</v>
@@ -21079,19 +21100,19 @@
       <c r="W15" s="13"/>
     </row>
     <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="str">
+      <c r="A16" s="33">
         <f>'User Interface'!A16</f>
-        <v>#</v>
+        <v>0</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="34" t="str">
         <f>'User Interface'!E16</f>
-        <v>Experiment 2</v>
+        <v>random_exp2</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="13"/>
@@ -21115,7 +21136,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -21125,12 +21146,12 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="34">
         <f>'User Interface'!E18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>12</v>
@@ -21138,7 +21159,7 @@
     </row>
     <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
@@ -21190,10 +21211,10 @@
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="55" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>2</v>
@@ -21225,10 +21246,10 @@
     </row>
     <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>2</v>
@@ -21285,7 +21306,7 @@
     </row>
     <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
@@ -21341,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>2</v>
@@ -21378,13 +21399,13 @@
         <v>#</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="61" t="s">
         <v>15</v>
@@ -21439,7 +21460,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>2</v>
@@ -21476,7 +21497,7 @@
         <v>#</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>2</v>
@@ -21513,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="51" t="s">
         <v>2</v>
@@ -21550,7 +21571,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>2</v>
@@ -21587,7 +21608,7 @@
         <v>#</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>2</v>
@@ -21624,7 +21645,7 @@
         <v>#</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>2</v>
@@ -21661,7 +21682,7 @@
         <v>#</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>2</v>
@@ -21723,7 +21744,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>2</v>
@@ -21760,7 +21781,7 @@
         <v>#</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>2</v>
@@ -21797,7 +21818,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>2</v>
@@ -21834,7 +21855,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>2</v>
@@ -21869,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>2</v>
@@ -21904,7 +21925,7 @@
         <v>#</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="51" t="s">
         <v>2</v>
@@ -21941,7 +21962,7 @@
         <v>#</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="51" t="s">
         <v>2</v>
@@ -21978,7 +21999,7 @@
         <v>#</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>2</v>
@@ -22036,16 +22057,16 @@
     </row>
     <row r="46" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>22</v>
@@ -22071,16 +22092,16 @@
     </row>
     <row r="47" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="61" t="s">
         <v>15</v>
@@ -22106,10 +22127,10 @@
     </row>
     <row r="48" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>2</v>
@@ -22141,10 +22162,10 @@
     </row>
     <row r="49" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>2</v>
@@ -22176,10 +22197,10 @@
     </row>
     <row r="50" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>2</v>
@@ -22211,10 +22232,10 @@
     </row>
     <row r="51" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>2</v>
@@ -22246,10 +22267,10 @@
     </row>
     <row r="52" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>2</v>
@@ -22306,16 +22327,16 @@
     </row>
     <row r="54" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" s="50" t="s">
         <v>22</v>
@@ -22341,16 +22362,16 @@
     </row>
     <row r="55" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E55" s="61" t="s">
         <v>15</v>
@@ -22376,10 +22397,10 @@
     </row>
     <row r="56" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>2</v>
@@ -22411,10 +22432,10 @@
     </row>
     <row r="57" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="51" t="s">
         <v>2</v>
@@ -22446,10 +22467,10 @@
     </row>
     <row r="58" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>2</v>
@@ -22481,10 +22502,10 @@
     </row>
     <row r="59" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="51" t="s">
         <v>2</v>
@@ -22541,16 +22562,16 @@
     </row>
     <row r="61" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61" s="50" t="s">
         <v>22</v>
@@ -22576,16 +22597,16 @@
     </row>
     <row r="62" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E62" s="61" t="s">
         <v>15</v>
@@ -22636,16 +22657,16 @@
     </row>
     <row r="64" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64" s="50" t="s">
         <v>22</v>
@@ -22671,16 +22692,16 @@
     </row>
     <row r="65" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C65" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E65" s="69" t="s">
         <v>15</v>
@@ -22706,7 +22727,7 @@
     </row>
     <row r="66" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="74"/>
       <c r="C66" s="75"/>
@@ -22734,7 +22755,7 @@
     <row r="67" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" s="75" t="s">
         <v>2</v>
@@ -22768,7 +22789,7 @@
     <row r="68" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C68" s="75" t="s">
         <v>2</v>
@@ -22802,7 +22823,7 @@
     <row r="69" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="75" t="s">
         <v>2</v>
@@ -22836,7 +22857,7 @@
     <row r="70" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" s="75" t="s">
         <v>2</v>
@@ -22870,7 +22891,7 @@
     <row r="71" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="75" t="s">
         <v>2</v>
@@ -22904,7 +22925,7 @@
     <row r="72" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C72" s="75" t="s">
         <v>2</v>
@@ -22938,7 +22959,7 @@
     <row r="73" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="75" t="s">
         <v>2</v>
@@ -22972,7 +22993,7 @@
     <row r="74" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="79"/>
       <c r="B74" s="80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="81" t="s">
         <v>2</v>
@@ -23005,7 +23026,7 @@
     </row>
     <row r="75" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" s="74"/>
       <c r="C75" s="75"/>
@@ -23033,7 +23054,7 @@
     <row r="76" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="78"/>
       <c r="B76" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="75" t="s">
         <v>2</v>
@@ -23067,7 +23088,7 @@
     <row r="77" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="78"/>
       <c r="B77" s="74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C77" s="75" t="s">
         <v>2</v>
@@ -23101,7 +23122,7 @@
     <row r="78" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="78"/>
       <c r="B78" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C78" s="75" t="s">
         <v>2</v>
@@ -23135,7 +23156,7 @@
     <row r="79" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="79"/>
       <c r="B79" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="81" t="s">
         <v>2</v>

--- a/MIT_PVLab_Template.xlsx
+++ b/MIT_PVLab_Template.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="246">
   <si>
     <t>Comment</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Random Experiments</t>
-  </si>
-  <si>
-    <t>Max Experiments = 9, users must add more experiment rows manually</t>
   </si>
   <si>
     <t>exp1</t>
@@ -1124,9 +1121,6 @@
     <t>← Unhide cells to specify unique precursor preparation conditions</t>
   </si>
   <si>
-    <t>Automated Sampling Experiments</t>
-  </si>
-  <si>
     <t>User Specified Sampling Experiments</t>
   </si>
   <si>
@@ -1158,9 +1152,6 @@
   </si>
   <si>
     <t>[[215,215]]</t>
-  </si>
-  <si>
-    <t>← Unhide cells to add an additional experiment template to this batch</t>
   </si>
   <si>
     <t>Precursor1 (ul)</t>
@@ -1228,12 +1219,18 @@
   <si>
     <t>random_exp2</t>
   </si>
+  <si>
+    <t>Automatically Generated Experiments</t>
+  </si>
+  <si>
+    <t>Experiments are randomly sampled from the space of possible reactions given the precursor definitions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1309,6 +1306,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1790,12 +1794,6 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1829,6 +1827,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2215,13 +2219,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="221" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
@@ -2309,7 +2313,7 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="93" t="s">
         <v>2</v>
@@ -2321,7 +2325,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -2353,16 +2357,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2417,13 +2421,14 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="21">
-        <v>12</v>
+        <f>SUM(E10,E15,E18)</f>
+        <v>4</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="23" t="s">
@@ -2450,8 +2455,8 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
-        <v>212</v>
+      <c r="A7" s="118" t="s">
+        <v>244</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -2459,7 +2464,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="29" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="31"/>
@@ -2485,22 +2490,22 @@
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>23</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>24</v>
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -2525,22 +2530,22 @@
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="115" t="s">
-        <v>223</v>
+      <c r="E9" s="113" t="s">
+        <v>221</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="37" t="s">
         <v>26</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>27</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -2565,7 +2570,7 @@
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>2</v>
@@ -2577,10 +2582,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>29</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>30</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -2605,13 +2610,13 @@
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="36"/>
@@ -2636,9 +2641,7 @@
       <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
-        <v>224</v>
-      </c>
+      <c r="A12" s="115"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
@@ -2666,22 +2669,22 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="118"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="13"/>
@@ -2704,22 +2707,22 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="13"/>
@@ -2742,22 +2745,22 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="116"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="39">
         <v>12</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="13"/>
@@ -2780,16 +2783,16 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="118"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="36"/>
@@ -2814,8 +2817,8 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="106" t="s">
-        <v>213</v>
+      <c r="A17" s="117" t="s">
+        <v>211</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -2828,26 +2831,26 @@
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
-      <c r="C18" s="107" t="s">
-        <v>34</v>
+      <c r="C18" s="105" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18" s="47">
         <v>12</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -2855,10 +2858,10 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="53" t="s">
         <v>42</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>43</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -2882,7 +2885,7 @@
     <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
@@ -2890,7 +2893,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="52"/>
       <c r="H20" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2917,22 +2920,22 @@
         <v>1</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="114" t="s">
-        <v>222</v>
+      <c r="E21" s="112" t="s">
+        <v>220</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="62" t="s">
         <v>46</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>47</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2954,12 +2957,12 @@
       <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109" t="s">
-        <v>38</v>
+      <c r="A22" s="107" t="s">
+        <v>37</v>
       </c>
       <c r="B22" s="100"/>
-      <c r="C22" s="108" t="s">
-        <v>218</v>
+      <c r="C22" s="106" t="s">
+        <v>216</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>2</v>
@@ -3021,25 +3024,25 @@
         <v>2</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F24" s="96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G24" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -3061,11 +3064,11 @@
     </row>
     <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="101"/>
       <c r="C25" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="64" t="s">
         <v>2</v>
@@ -3073,10 +3076,10 @@
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
       <c r="G25" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="66" t="s">
         <v>50</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>51</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -3101,7 +3104,7 @@
       <c r="A26" s="63"/>
       <c r="B26" s="100"/>
       <c r="C26" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>2</v>
@@ -3113,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="53" t="s">
         <v>58</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>59</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -3141,7 +3144,7 @@
       <c r="A27" s="63"/>
       <c r="B27" s="100"/>
       <c r="C27" s="96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>2</v>
@@ -3153,7 +3156,7 @@
         <v>1.5</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="13"/>
@@ -3177,7 +3180,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" s="100"/>
       <c r="C28" s="104"/>
@@ -3207,11 +3210,11 @@
     </row>
     <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="100"/>
       <c r="C29" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>2</v>
@@ -3223,10 +3226,10 @@
         <v>75</v>
       </c>
       <c r="G29" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="53" t="s">
         <v>63</v>
-      </c>
-      <c r="H29" s="53" t="s">
-        <v>64</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -3249,11 +3252,11 @@
     </row>
     <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="100"/>
       <c r="C30" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>2</v>
@@ -3265,10 +3268,10 @@
         <v>450</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -3291,11 +3294,11 @@
     </row>
     <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>2</v>
@@ -3307,10 +3310,10 @@
         <v>3600</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -3365,19 +3368,19 @@
         <v>3</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="52" t="s">
         <v>70</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>71</v>
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="13"/>
@@ -3401,24 +3404,24 @@
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="101"/>
-      <c r="C34" s="108" t="s">
-        <v>215</v>
+      <c r="C34" s="106" t="s">
+        <v>213</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="61"/>
       <c r="F34" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="66" t="s">
         <v>50</v>
-      </c>
-      <c r="H34" s="66" t="s">
-        <v>51</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -3443,7 +3446,7 @@
       <c r="A35" s="63"/>
       <c r="B35" s="100"/>
       <c r="C35" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>2</v>
@@ -3455,7 +3458,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="53"/>
       <c r="I35" s="13"/>
@@ -3481,7 +3484,7 @@
       <c r="A36" s="63"/>
       <c r="B36" s="100"/>
       <c r="C36" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>2</v>
@@ -3515,7 +3518,7 @@
       <c r="A37" s="63"/>
       <c r="B37" s="100"/>
       <c r="C37" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>2</v>
@@ -3547,7 +3550,7 @@
     </row>
     <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="50"/>
@@ -3577,11 +3580,11 @@
     </row>
     <row r="39" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>2</v>
@@ -3593,10 +3596,10 @@
         <v>75</v>
       </c>
       <c r="G39" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="53" t="s">
         <v>63</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>64</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -3619,11 +3622,11 @@
     </row>
     <row r="40" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D40" s="51" t="s">
         <v>2</v>
@@ -3635,10 +3638,10 @@
         <v>450</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -3661,11 +3664,11 @@
     </row>
     <row r="41" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="100"/>
       <c r="C41" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>2</v>
@@ -3677,10 +3680,10 @@
         <v>3600</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -3731,23 +3734,23 @@
     </row>
     <row r="43" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="100">
         <v>4</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="50"/>
       <c r="F43" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" s="56"/>
       <c r="I43" s="13"/>
@@ -3771,24 +3774,24 @@
     </row>
     <row r="44" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="101"/>
-      <c r="C44" s="108" t="s">
-        <v>214</v>
+      <c r="C44" s="106" t="s">
+        <v>212</v>
       </c>
       <c r="D44" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="66" t="s">
         <v>50</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>51</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -3811,11 +3814,11 @@
     </row>
     <row r="45" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D45" s="51" t="s">
         <v>2</v>
@@ -3825,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" s="53"/>
       <c r="I45" s="13"/>
@@ -3849,11 +3852,11 @@
     </row>
     <row r="46" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>2</v>
@@ -3863,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" s="53"/>
       <c r="I46" s="13"/>
@@ -3887,11 +3890,11 @@
     </row>
     <row r="47" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D47" s="51" t="s">
         <v>2</v>
@@ -3903,10 +3906,10 @@
         <v>75</v>
       </c>
       <c r="G47" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="53" t="s">
         <v>63</v>
-      </c>
-      <c r="H47" s="53" t="s">
-        <v>64</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -3929,11 +3932,11 @@
     </row>
     <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="100"/>
       <c r="C48" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>2</v>
@@ -3945,10 +3948,10 @@
         <v>450</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -3971,11 +3974,11 @@
     </row>
     <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="100"/>
       <c r="C49" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>2</v>
@@ -3987,10 +3990,10 @@
         <v>3600</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -4041,23 +4044,23 @@
     </row>
     <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="100">
         <v>5</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H51" s="53"/>
       <c r="I51" s="13"/>
@@ -4081,24 +4084,24 @@
     </row>
     <row r="52" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="101"/>
       <c r="C52" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="61"/>
       <c r="F52" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G52" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="66" t="s">
         <v>50</v>
-      </c>
-      <c r="H52" s="66" t="s">
-        <v>51</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -4121,11 +4124,11 @@
     </row>
     <row r="53" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="101"/>
       <c r="C53" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>2</v>
@@ -4155,11 +4158,11 @@
     </row>
     <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>2</v>
@@ -4189,11 +4192,11 @@
     </row>
     <row r="55" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="101"/>
       <c r="C55" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>2</v>
@@ -4203,7 +4206,7 @@
         <v>4.5</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H55" s="56"/>
       <c r="I55" s="13"/>
@@ -4227,11 +4230,11 @@
     </row>
     <row r="56" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="101"/>
       <c r="C56" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>2</v>
@@ -4243,10 +4246,10 @@
         <v>75</v>
       </c>
       <c r="G56" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="53" t="s">
         <v>63</v>
-      </c>
-      <c r="H56" s="53" t="s">
-        <v>64</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -4269,11 +4272,11 @@
     </row>
     <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" s="101"/>
       <c r="C57" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>2</v>
@@ -4285,10 +4288,10 @@
         <v>450</v>
       </c>
       <c r="G57" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -4311,11 +4314,11 @@
     </row>
     <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="101"/>
       <c r="C58" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>2</v>
@@ -4327,10 +4330,10 @@
         <v>3600</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H58" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -4381,23 +4384,23 @@
     </row>
     <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" s="100">
         <v>6</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="50"/>
       <c r="F60" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="52" t="s">
         <v>100</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>101</v>
       </c>
       <c r="H60" s="53"/>
       <c r="I60" s="13"/>
@@ -4426,7 +4429,7 @@
       </c>
       <c r="B61" s="100"/>
       <c r="C61" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="50"/>
@@ -4459,20 +4462,20 @@
       </c>
       <c r="B62" s="101"/>
       <c r="C62" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="61"/>
       <c r="F62" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G62" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" s="66" t="s">
         <v>50</v>
-      </c>
-      <c r="H62" s="66" t="s">
-        <v>51</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -4523,23 +4526,23 @@
     </row>
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="100">
         <v>7</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="50"/>
       <c r="F64" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="52" t="s">
         <v>100</v>
-      </c>
-      <c r="G64" s="52" t="s">
-        <v>101</v>
       </c>
       <c r="H64" s="53"/>
       <c r="I64" s="13"/>
@@ -4568,7 +4571,7 @@
       </c>
       <c r="B65" s="100"/>
       <c r="C65" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="97" t="s">
         <v>2</v>
@@ -4626,13 +4629,13 @@
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="100">
         <v>8</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="97" t="s">
         <v>2</v>
@@ -4667,7 +4670,7 @@
       </c>
       <c r="B68" s="102"/>
       <c r="C68" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="98" t="s">
         <v>2</v>
@@ -4697,7 +4700,7 @@
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69" s="99"/>
       <c r="C69" s="74"/>
@@ -4729,7 +4732,7 @@
       <c r="A70" s="78"/>
       <c r="B70" s="78"/>
       <c r="C70" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" s="75" t="s">
         <v>2</v>
@@ -4741,7 +4744,7 @@
         <v>750</v>
       </c>
       <c r="G70" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H70" s="77"/>
       <c r="I70" s="13"/>
@@ -4767,7 +4770,7 @@
       <c r="A71" s="78"/>
       <c r="B71" s="78"/>
       <c r="C71" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>2</v>
@@ -4779,7 +4782,7 @@
         <v>80</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H71" s="77"/>
       <c r="I71" s="13"/>
@@ -4805,7 +4808,7 @@
       <c r="A72" s="78"/>
       <c r="B72" s="78"/>
       <c r="C72" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>2</v>
@@ -4817,7 +4820,7 @@
         <v>900</v>
       </c>
       <c r="G72" s="76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H72" s="77"/>
       <c r="I72" s="13"/>
@@ -4843,7 +4846,7 @@
       <c r="A73" s="78"/>
       <c r="B73" s="78"/>
       <c r="C73" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>2</v>
@@ -4855,7 +4858,7 @@
         <v>1200</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H73" s="77"/>
       <c r="I73" s="13"/>
@@ -4881,7 +4884,7 @@
       <c r="A74" s="78"/>
       <c r="B74" s="78"/>
       <c r="C74" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>2</v>
@@ -4893,10 +4896,10 @@
         <v>105</v>
       </c>
       <c r="G74" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="77" t="s">
         <v>116</v>
-      </c>
-      <c r="H74" s="77" t="s">
-        <v>117</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -4921,7 +4924,7 @@
       <c r="A75" s="78"/>
       <c r="B75" s="78"/>
       <c r="C75" s="74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" s="75" t="s">
         <v>2</v>
@@ -4933,10 +4936,10 @@
         <v>12600</v>
       </c>
       <c r="G75" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="77" t="s">
         <v>119</v>
-      </c>
-      <c r="H75" s="77" t="s">
-        <v>120</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -4961,7 +4964,7 @@
       <c r="A76" s="78"/>
       <c r="B76" s="78"/>
       <c r="C76" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D76" s="75" t="s">
         <v>2</v>
@@ -4973,10 +4976,10 @@
         <v>3</v>
       </c>
       <c r="G76" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="77" t="s">
         <v>122</v>
-      </c>
-      <c r="H76" s="77" t="s">
-        <v>123</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -4999,24 +5002,24 @@
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B77" s="79"/>
       <c r="C77" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D77" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="111" t="s">
-        <v>219</v>
+      <c r="E77" s="109" t="s">
+        <v>217</v>
       </c>
       <c r="F77" s="80"/>
       <c r="G77" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="83" t="s">
         <v>125</v>
-      </c>
-      <c r="H77" s="83" t="s">
-        <v>126</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -5039,7 +5042,7 @@
     </row>
     <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B78" s="99"/>
       <c r="C78" s="74"/>
@@ -5070,8 +5073,8 @@
     <row r="79" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="78"/>
       <c r="B79" s="78"/>
-      <c r="C79" s="112" t="s">
-        <v>220</v>
+      <c r="C79" s="110" t="s">
+        <v>218</v>
       </c>
       <c r="D79" s="75" t="s">
         <v>2</v>
@@ -5082,11 +5085,11 @@
       <c r="F79" s="74">
         <v>45</v>
       </c>
-      <c r="G79" s="113" t="s">
-        <v>221</v>
+      <c r="G79" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="H79" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -5111,7 +5114,7 @@
       <c r="A80" s="78"/>
       <c r="B80" s="78"/>
       <c r="C80" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D80" s="75" t="s">
         <v>2</v>
@@ -5123,10 +5126,10 @@
         <v>75</v>
       </c>
       <c r="G80" s="76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H80" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -5151,7 +5154,7 @@
       <c r="A81" s="78"/>
       <c r="B81" s="78"/>
       <c r="C81" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D81" s="75" t="s">
         <v>2</v>
@@ -5163,10 +5166,10 @@
         <v>450</v>
       </c>
       <c r="G81" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H81" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -5191,7 +5194,7 @@
       <c r="A82" s="79"/>
       <c r="B82" s="79"/>
       <c r="C82" s="80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D82" s="81" t="s">
         <v>2</v>
@@ -5203,10 +5206,10 @@
         <v>3600</v>
       </c>
       <c r="G82" s="82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -14451,46 +14454,46 @@
   <sheetData>
     <row r="1" spans="1:11" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C1" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="89" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="89" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1" s="89" t="s">
+      <c r="J1" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="K1" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="90" t="s">
+    </row>
+    <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="91" t="str">
+        <f>IF(manual_wells &gt; 0, 1, "")</f>
+        <v/>
+      </c>
+      <c r="B2" s="91" t="s">
         <v>231</v>
-      </c>
-      <c r="K1" s="90" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91">
-        <f>IF(manual_wells &gt; 0, 1, "")</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>234</v>
       </c>
       <c r="C2" s="90">
         <v>150</v>
@@ -14516,18 +14519,18 @@
       <c r="J2" s="90">
         <v>0</v>
       </c>
-      <c r="K2" s="90">
+      <c r="K2" s="90" t="str">
         <f>IF(NOT(A2=""), SUM(C2:J2), "")</f>
-        <v>210</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91">
+      <c r="A3" s="91" t="str">
         <f>IF(A2 &lt; fixed_wells, A2 + 1, "")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="B3" s="91" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C3" s="90">
         <v>150</v>
@@ -14553,18 +14556,18 @@
       <c r="J3" s="90">
         <v>0</v>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="90" t="str">
         <f t="shared" ref="K3:K66" si="0">IF(NOT(A3=""), SUM(C3:J3), "")</f>
-        <v>215</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91">
+      <c r="A4" s="91" t="str">
         <f t="shared" ref="A4:A34" si="1">IF(A3 &lt; fixed_wells, A3 + 1, "")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="B4" s="91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C4" s="90">
         <v>150</v>
@@ -14590,18 +14593,18 @@
       <c r="J4" s="90">
         <v>0</v>
       </c>
-      <c r="K4" s="90">
+      <c r="K4" s="90" t="str">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91">
+      <c r="A5" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="B5" s="91" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C5" s="90">
         <v>150</v>
@@ -14627,9 +14630,9 @@
       <c r="J5" s="90">
         <v>0</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="90" t="str">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -16073,43 +16076,43 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="89" t="s">
+      <c r="D1" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="E1" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="G1" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="89" t="s">
-        <v>143</v>
-      </c>
       <c r="J1" s="89" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>IF(NOT('Manual Experiment Interface'!A2=""),'Manual Experiment Interface'!A2,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="B2" t="str">
         <f>IF(NOT('Manual Experiment Interface'!B2=""),'Manual Experiment Interface'!B2,"")</f>
@@ -16147,15 +16150,15 @@
         <f>IF(NOT('Manual Experiment Interface'!J2=""),'Manual Experiment Interface'!J2,"")</f>
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="str">
         <f>IF(NOT('Manual Experiment Interface'!K2=""),'Manual Experiment Interface'!K2,"")</f>
-        <v>210</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>IF(NOT('Manual Experiment Interface'!A3=""),'Manual Experiment Interface'!A3,"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="B3" t="str">
         <f>IF(NOT('Manual Experiment Interface'!B3=""),'Manual Experiment Interface'!B3,"")</f>
@@ -16193,15 +16196,15 @@
         <f>IF(NOT('Manual Experiment Interface'!J3=""),'Manual Experiment Interface'!J3,"")</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="str">
         <f>IF(NOT('Manual Experiment Interface'!K3=""),'Manual Experiment Interface'!K3,"")</f>
-        <v>215</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>IF(NOT('Manual Experiment Interface'!A4=""),'Manual Experiment Interface'!A4,"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="B4" t="str">
         <f>IF(NOT('Manual Experiment Interface'!B4=""),'Manual Experiment Interface'!B4,"")</f>
@@ -16239,15 +16242,15 @@
         <f>IF(NOT('Manual Experiment Interface'!J4=""),'Manual Experiment Interface'!J4,"")</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="str">
         <f>IF(NOT('Manual Experiment Interface'!K4=""),'Manual Experiment Interface'!K4,"")</f>
-        <v>215</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" t="str">
         <f>IF(NOT('Manual Experiment Interface'!A5=""),'Manual Experiment Interface'!A5,"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="B5" t="str">
         <f>IF(NOT('Manual Experiment Interface'!B5=""),'Manual Experiment Interface'!B5,"")</f>
@@ -16285,9 +16288,9 @@
         <f>IF(NOT('Manual Experiment Interface'!J5=""),'Manual Experiment Interface'!J5,"")</f>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="str">
         <f>IF(NOT('Manual Experiment Interface'!K5=""),'Manual Experiment Interface'!K5,"")</f>
-        <v>215</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -20791,7 +20794,7 @@
       </c>
       <c r="D7" s="21">
         <f>'User Interface'!wellcount</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>12</v>
@@ -20848,7 +20851,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>2</v>
@@ -20858,7 +20861,7 @@
         <v>[[2,3,1]]</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -20885,7 +20888,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>2</v>
@@ -20895,7 +20898,7 @@
         <v>[[215,215]]</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -20922,7 +20925,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>2</v>
@@ -20959,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>2</v>
@@ -20994,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>2</v>
@@ -21004,7 +21007,7 @@
         <v>[[2,3,1]]</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -21031,7 +21034,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>2</v>
@@ -21041,7 +21044,7 @@
         <v>[[215, 215]]</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -21068,14 +21071,14 @@
         <v>0</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="34">
         <f>'User Interface'!E15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>12</v>
@@ -21105,7 +21108,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>2</v>
@@ -21136,7 +21139,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -21146,12 +21149,12 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="34">
         <f>'User Interface'!E18</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>12</v>
@@ -21159,7 +21162,7 @@
     </row>
     <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
@@ -21211,10 +21214,10 @@
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="55" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>39</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>2</v>
@@ -21245,11 +21248,11 @@
       <c r="W21" s="13"/>
     </row>
     <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110" t="s">
-        <v>38</v>
+      <c r="A22" s="108" t="s">
+        <v>37</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>2</v>
@@ -21306,7 +21309,7 @@
     </row>
     <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
@@ -21362,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>2</v>
@@ -21372,7 +21375,7 @@
         <v>['CBz']</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -21399,13 +21402,13 @@
         <v>#</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="61" t="s">
         <v>15</v>
@@ -21460,7 +21463,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>2</v>
@@ -21470,7 +21473,7 @@
         <v>['PbI2','DMSO','DMF']</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -21497,7 +21500,7 @@
         <v>#</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>2</v>
@@ -21534,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="51" t="s">
         <v>2</v>
@@ -21571,7 +21574,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>2</v>
@@ -21608,7 +21611,7 @@
         <v>#</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>2</v>
@@ -21645,7 +21648,7 @@
         <v>#</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>2</v>
@@ -21682,7 +21685,7 @@
         <v>#</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>2</v>
@@ -21744,7 +21747,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>2</v>
@@ -21754,7 +21757,7 @@
         <v>['MeNH3I','PbI2','DMSO', 'DMF']</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -21781,7 +21784,7 @@
         <v>#</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>2</v>
@@ -21818,7 +21821,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>2</v>
@@ -21854,8 +21857,8 @@
         <f>'User Interface'!A36</f>
         <v>0</v>
       </c>
-      <c r="B40" s="108" t="s">
-        <v>216</v>
+      <c r="B40" s="106" t="s">
+        <v>214</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>2</v>
@@ -21889,8 +21892,8 @@
         <f>'User Interface'!A37</f>
         <v>0</v>
       </c>
-      <c r="B41" s="108" t="s">
-        <v>217</v>
+      <c r="B41" s="106" t="s">
+        <v>215</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>2</v>
@@ -21925,7 +21928,7 @@
         <v>#</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="51" t="s">
         <v>2</v>
@@ -21962,7 +21965,7 @@
         <v>#</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="51" t="s">
         <v>2</v>
@@ -21999,7 +22002,7 @@
         <v>#</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>2</v>
@@ -22056,20 +22059,20 @@
       <c r="W45" s="13"/>
     </row>
     <row r="46" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="110" t="s">
-        <v>38</v>
+      <c r="A46" s="108" t="s">
+        <v>37</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -22092,16 +22095,16 @@
     </row>
     <row r="47" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="61" t="s">
         <v>15</v>
@@ -22126,11 +22129,11 @@
       <c r="W47" s="13"/>
     </row>
     <row r="48" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="110" t="s">
-        <v>38</v>
+      <c r="A48" s="108" t="s">
+        <v>37</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>2</v>
@@ -22161,11 +22164,11 @@
       <c r="W48" s="13"/>
     </row>
     <row r="49" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="110" t="s">
-        <v>38</v>
+      <c r="A49" s="108" t="s">
+        <v>37</v>
       </c>
       <c r="B49" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>2</v>
@@ -22197,10 +22200,10 @@
     </row>
     <row r="50" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>2</v>
@@ -22232,10 +22235,10 @@
     </row>
     <row r="51" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>2</v>
@@ -22267,10 +22270,10 @@
     </row>
     <row r="52" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>2</v>
@@ -22326,20 +22329,20 @@
       <c r="W53" s="13"/>
     </row>
     <row r="54" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="110" t="s">
-        <v>38</v>
+      <c r="A54" s="108" t="s">
+        <v>37</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -22362,16 +22365,16 @@
     </row>
     <row r="55" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" s="61" t="s">
         <v>15</v>
@@ -22396,11 +22399,11 @@
       <c r="W55" s="13"/>
     </row>
     <row r="56" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="110" t="s">
-        <v>38</v>
+      <c r="A56" s="108" t="s">
+        <v>37</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>2</v>
@@ -22432,10 +22435,10 @@
     </row>
     <row r="57" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="51" t="s">
         <v>2</v>
@@ -22467,10 +22470,10 @@
     </row>
     <row r="58" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>2</v>
@@ -22502,10 +22505,10 @@
     </row>
     <row r="59" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="51" t="s">
         <v>2</v>
@@ -22562,19 +22565,19 @@
     </row>
     <row r="61" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -22597,16 +22600,16 @@
     </row>
     <row r="62" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E62" s="61" t="s">
         <v>15</v>
@@ -22656,20 +22659,20 @@
       <c r="W63" s="13"/>
     </row>
     <row r="64" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="110" t="s">
-        <v>38</v>
+      <c r="A64" s="108" t="s">
+        <v>37</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
@@ -22692,16 +22695,16 @@
     </row>
     <row r="65" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E65" s="69" t="s">
         <v>15</v>
@@ -22727,7 +22730,7 @@
     </row>
     <row r="66" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="74"/>
       <c r="C66" s="75"/>
@@ -22755,7 +22758,7 @@
     <row r="67" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" s="75" t="s">
         <v>2</v>
@@ -22789,7 +22792,7 @@
     <row r="68" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68" s="75" t="s">
         <v>2</v>
@@ -22823,7 +22826,7 @@
     <row r="69" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C69" s="75" t="s">
         <v>2</v>
@@ -22857,7 +22860,7 @@
     <row r="70" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" s="75" t="s">
         <v>2</v>
@@ -22891,7 +22894,7 @@
     <row r="71" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C71" s="75" t="s">
         <v>2</v>
@@ -22925,7 +22928,7 @@
     <row r="72" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="75" t="s">
         <v>2</v>
@@ -22959,7 +22962,7 @@
     <row r="73" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="75" t="s">
         <v>2</v>
@@ -22993,7 +22996,7 @@
     <row r="74" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="79"/>
       <c r="B74" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C74" s="81" t="s">
         <v>2</v>
@@ -23026,7 +23029,7 @@
     </row>
     <row r="75" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" s="74"/>
       <c r="C75" s="75"/>
@@ -23054,7 +23057,7 @@
     <row r="76" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="78"/>
       <c r="B76" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="75" t="s">
         <v>2</v>
@@ -23088,7 +23091,7 @@
     <row r="77" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="78"/>
       <c r="B77" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C77" s="75" t="s">
         <v>2</v>
@@ -23122,7 +23125,7 @@
     <row r="78" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="78"/>
       <c r="B78" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="75" t="s">
         <v>2</v>
@@ -23156,7 +23159,7 @@
     <row r="79" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="79"/>
       <c r="B79" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C79" s="81" t="s">
         <v>2</v>

--- a/MIT_PVLab_Template.xlsx
+++ b/MIT_PVLab_Template.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="245">
   <si>
     <t>Comment</t>
   </si>
@@ -1118,9 +1118,6 @@
     <t>Precursor Number</t>
   </si>
   <si>
-    <t>← Unhide cells to specify unique precursor preparation conditions</t>
-  </si>
-  <si>
     <t>User Specified Sampling Experiments</t>
   </si>
   <si>
@@ -1502,7 +1499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1791,9 +1788,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1818,9 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2217,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="221" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2455,8 +2446,8 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="118" t="s">
-        <v>244</v>
+      <c r="A7" s="116" t="s">
+        <v>243</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -2464,7 +2455,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="31"/>
@@ -2535,8 +2526,8 @@
       <c r="D9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="113" t="s">
-        <v>221</v>
+      <c r="E9" s="112" t="s">
+        <v>220</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>156</v>
@@ -2576,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="34">
         <v>12</v>
@@ -2610,13 +2601,13 @@
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="36"/>
@@ -2641,7 +2632,7 @@
       <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="115"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
@@ -2669,7 +2660,7 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34" t="s">
         <v>153</v>
@@ -2716,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>156</v>
@@ -2783,16 +2774,16 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="116"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="36"/>
@@ -2817,8 +2808,8 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
-        <v>211</v>
+      <c r="A17" s="115" t="s">
+        <v>210</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -2831,14 +2822,14 @@
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="104" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="47">
         <v>12</v>
@@ -2925,8 +2916,8 @@
       <c r="D21" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="112" t="s">
-        <v>220</v>
+      <c r="E21" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="F21" s="61" t="s">
         <v>144</v>
@@ -2957,12 +2948,12 @@
       <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="106" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="100"/>
-      <c r="C22" s="106" t="s">
-        <v>216</v>
+      <c r="C22" s="105" t="s">
+        <v>215</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>2</v>
@@ -3179,16 +3170,28 @@
       <c r="Z27" s="13"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="104" t="s">
-        <v>210</v>
+      <c r="A28" s="54" t="s">
+        <v>37</v>
       </c>
       <c r="B28" s="100"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
+      <c r="C28" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="50">
+        <v>75</v>
+      </c>
+      <c r="F28" s="50">
+        <v>75</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -3208,25 +3211,25 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="100"/>
       <c r="C29" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="50">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="F29" s="50">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H29" s="53" t="s">
         <v>63</v>
@@ -3250,25 +3253,25 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="100"/>
       <c r="C30" s="50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="50">
-        <v>450</v>
+        <v>3600</v>
       </c>
       <c r="F30" s="50">
-        <v>450</v>
+        <v>3600</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H30" s="53" t="s">
         <v>63</v>
@@ -3292,29 +3295,15 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
-        <v>37</v>
-      </c>
+    <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54"/>
       <c r="B31" s="100"/>
-      <c r="C31" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="50">
-        <v>3600</v>
-      </c>
-      <c r="F31" s="50">
-        <v>3600</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="53" t="s">
-        <v>63</v>
-      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -3335,14 +3324,26 @@
       <c r="Z31" s="13"/>
     </row>
     <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="56"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="100">
+        <v>3</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="53"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -3363,26 +3364,26 @@
       <c r="Z32" s="13"/>
     </row>
     <row r="33" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="100">
-        <v>3</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="51" t="s">
+      <c r="A33" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="101"/>
+      <c r="C33" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="53"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>50</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -3403,26 +3404,24 @@
       <c r="Z33" s="13"/>
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="106" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="64" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="66" t="s">
-        <v>50</v>
-      </c>
+      <c r="E34" s="50">
+        <v>1.22</v>
+      </c>
+      <c r="F34" s="50">
+        <v>6</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="53"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -3446,20 +3445,16 @@
       <c r="A35" s="63"/>
       <c r="B35" s="100"/>
       <c r="C35" s="50" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="50">
-        <v>1.22</v>
-      </c>
-      <c r="F35" s="50">
-        <v>6</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>73</v>
-      </c>
+        <v>1.33</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="53"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -3484,13 +3479,13 @@
       <c r="A36" s="63"/>
       <c r="B36" s="100"/>
       <c r="C36" s="50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="50">
-        <v>1.33</v>
+        <v>7</v>
       </c>
       <c r="F36" s="50"/>
       <c r="G36" s="52"/>
@@ -3515,20 +3510,28 @@
       <c r="Z36" s="13"/>
     </row>
     <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
+      <c r="A37" s="63" t="s">
+        <v>37</v>
+      </c>
       <c r="B37" s="100"/>
       <c r="C37" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="50">
-        <v>7</v>
-      </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
+        <v>75</v>
+      </c>
+      <c r="F37" s="50">
+        <v>75</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -3549,16 +3552,28 @@
       <c r="Z37" s="13"/>
     </row>
     <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="104" t="s">
-        <v>210</v>
+      <c r="A38" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="B38" s="100"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
+      <c r="C38" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="50">
+        <v>450</v>
+      </c>
+      <c r="F38" s="50">
+        <v>450</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -3578,25 +3593,25 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="50" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="50">
-        <v>75</v>
+        <v>3600</v>
       </c>
       <c r="F39" s="50">
-        <v>75</v>
+        <v>3600</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H39" s="53" t="s">
         <v>63</v>
@@ -3620,29 +3635,15 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63" t="s">
-        <v>37</v>
-      </c>
+    <row r="40" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
       <c r="B40" s="100"/>
-      <c r="C40" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="50">
-        <v>450</v>
-      </c>
-      <c r="F40" s="50">
-        <v>450</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" s="53" t="s">
-        <v>63</v>
-      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -3662,29 +3663,27 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="100"/>
+      <c r="B41" s="100">
+        <v>4</v>
+      </c>
       <c r="C41" s="50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="50">
-        <v>3600</v>
-      </c>
-      <c r="F41" s="50">
-        <v>3600</v>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="53" t="s">
-        <v>63</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H41" s="56"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -3705,14 +3704,26 @@
       <c r="Z41" s="13"/>
     </row>
     <row r="42" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="53"/>
+      <c r="A42" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="101"/>
+      <c r="C42" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="66" t="s">
+        <v>50</v>
+      </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -3736,23 +3747,21 @@
       <c r="A43" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="100">
-        <v>4</v>
-      </c>
+      <c r="B43" s="100"/>
       <c r="C43" s="50" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D43" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="50"/>
-      <c r="F43" s="50" t="s">
-        <v>52</v>
+      <c r="F43" s="50">
+        <v>2</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="56"/>
+        <v>82</v>
+      </c>
+      <c r="H43" s="53"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
@@ -3776,23 +3785,21 @@
       <c r="A44" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="64" t="s">
+      <c r="B44" s="100"/>
+      <c r="C44" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>50</v>
-      </c>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50">
+        <v>1</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="53"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
@@ -3818,19 +3825,23 @@
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="50" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D45" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="50"/>
+      <c r="E45" s="50">
+        <v>75</v>
+      </c>
       <c r="F45" s="50">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="53"/>
+        <v>62</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
@@ -3856,19 +3867,23 @@
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="50"/>
+      <c r="E46" s="50">
+        <v>450</v>
+      </c>
       <c r="F46" s="50">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="53"/>
+        <v>65</v>
+      </c>
+      <c r="H46" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
@@ -3894,19 +3909,19 @@
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D47" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="50">
-        <v>75</v>
+        <v>3600</v>
       </c>
       <c r="F47" s="50">
-        <v>75</v>
+        <v>3600</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H47" s="53" t="s">
         <v>63</v>
@@ -3931,28 +3946,14 @@
       <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="A48" s="54"/>
       <c r="B48" s="100"/>
-      <c r="C48" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="50">
-        <v>450</v>
-      </c>
-      <c r="F48" s="50">
-        <v>450</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="53" t="s">
-        <v>63</v>
-      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="56"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -3973,28 +3974,26 @@
       <c r="Z48" s="13"/>
     </row>
     <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="100"/>
+      <c r="B49" s="100">
+        <v>5</v>
+      </c>
       <c r="C49" s="50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="50">
-        <v>3600</v>
-      </c>
-      <c r="F49" s="50">
-        <v>3600</v>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="53" t="s">
-        <v>63</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H49" s="53"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -4015,14 +4014,26 @@
       <c r="Z49" s="13"/>
     </row>
     <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="56"/>
+      <c r="A50" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="101"/>
+      <c r="C50" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="66" t="s">
+        <v>50</v>
+      </c>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -4043,26 +4054,20 @@
       <c r="Z50" s="13"/>
     </row>
     <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="100">
-        <v>5</v>
-      </c>
+      <c r="B51" s="101"/>
       <c r="C51" s="50" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="H51" s="53"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="66"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -4087,22 +4092,16 @@
         <v>37</v>
       </c>
       <c r="B52" s="101"/>
-      <c r="C52" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" s="51" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="61"/>
-      <c r="F52" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="H52" s="66" t="s">
-        <v>50</v>
-      </c>
+      <c r="F52" s="61"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="66"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -4128,15 +4127,19 @@
       </c>
       <c r="B53" s="101"/>
       <c r="C53" s="50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="66"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50">
+        <v>4.5</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="56"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
@@ -4162,15 +4165,23 @@
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="50" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="66"/>
+      <c r="E54" s="50">
+        <v>75</v>
+      </c>
+      <c r="F54" s="50">
+        <v>75</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -4196,19 +4207,23 @@
       </c>
       <c r="B55" s="101"/>
       <c r="C55" s="50" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="50"/>
+      <c r="E55" s="50">
+        <v>450</v>
+      </c>
       <c r="F55" s="50">
-        <v>4.5</v>
+        <v>450</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="H55" s="56"/>
+        <v>65</v>
+      </c>
+      <c r="H55" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
@@ -4240,13 +4255,13 @@
         <v>2</v>
       </c>
       <c r="E56" s="50">
-        <v>75</v>
+        <v>3600</v>
       </c>
       <c r="F56" s="50">
-        <v>75</v>
+        <v>3600</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H56" s="53" t="s">
         <v>63</v>
@@ -4271,28 +4286,14 @@
       <c r="Z56" s="13"/>
     </row>
     <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="101"/>
-      <c r="C57" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="50">
-        <v>450</v>
-      </c>
-      <c r="F57" s="50">
-        <v>450</v>
-      </c>
-      <c r="G57" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H57" s="53" t="s">
-        <v>63</v>
-      </c>
+      <c r="A57" s="54"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="53"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -4313,28 +4314,26 @@
       <c r="Z57" s="13"/>
     </row>
     <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="101"/>
+      <c r="B58" s="100">
+        <v>6</v>
+      </c>
       <c r="C58" s="50" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="50">
-        <v>3600</v>
-      </c>
-      <c r="F58" s="50">
-        <v>3600</v>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50" t="s">
+        <v>99</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="53" t="s">
-        <v>63</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H58" s="53"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -4355,9 +4354,14 @@
       <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+      <c r="A59" s="54" t="str">
+        <f>A58</f>
+        <v>#</v>
+      </c>
       <c r="B59" s="100"/>
-      <c r="C59" s="50"/>
+      <c r="C59" s="50" t="s">
+        <v>189</v>
+      </c>
       <c r="D59" s="51"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
@@ -4383,26 +4387,27 @@
       <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="100">
-        <v>6</v>
-      </c>
-      <c r="C60" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="D60" s="51" t="s">
+      <c r="A60" s="63" t="str">
+        <f>A58</f>
+        <v>#</v>
+      </c>
+      <c r="B60" s="101"/>
+      <c r="C60" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" s="53"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="66" t="s">
+        <v>50</v>
+      </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -4423,14 +4428,9 @@
       <c r="Z60" s="13"/>
     </row>
     <row r="61" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54" t="str">
-        <f>A60</f>
-        <v>#</v>
-      </c>
+      <c r="A61" s="54"/>
       <c r="B61" s="100"/>
-      <c r="C61" s="50" t="s">
-        <v>189</v>
-      </c>
+      <c r="C61" s="50"/>
       <c r="D61" s="51"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -4456,27 +4456,26 @@
       <c r="Z61" s="13"/>
     </row>
     <row r="62" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="63" t="str">
-        <f>A60</f>
-        <v>#</v>
-      </c>
-      <c r="B62" s="101"/>
-      <c r="C62" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="64" t="s">
+      <c r="A62" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="100">
+        <v>7</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="H62" s="66" t="s">
-        <v>50</v>
-      </c>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="53"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -4497,10 +4496,17 @@
       <c r="Z62" s="13"/>
     </row>
     <row r="63" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="54" t="str">
+        <f>A62</f>
+        <v>#</v>
+      </c>
       <c r="B63" s="100"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="51"/>
+      <c r="C63" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="97" t="s">
+        <v>2</v>
+      </c>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
       <c r="G63" s="52"/>
@@ -4525,25 +4531,13 @@
       <c r="Z63" s="13"/>
     </row>
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="100">
-        <v>7</v>
-      </c>
-      <c r="C64" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D64" s="51" t="s">
-        <v>2</v>
-      </c>
+      <c r="A64" s="54"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="50"/>
-      <c r="F64" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="52" t="s">
-        <v>100</v>
-      </c>
+      <c r="F64" s="50"/>
+      <c r="G64" s="52"/>
       <c r="H64" s="53"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
@@ -4565,13 +4559,14 @@
       <c r="Z64" s="13"/>
     </row>
     <row r="65" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54" t="str">
-        <f>A64</f>
-        <v>#</v>
-      </c>
-      <c r="B65" s="100"/>
+      <c r="A65" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="100">
+        <v>8</v>
+      </c>
       <c r="C65" s="50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="97" t="s">
         <v>2</v>
@@ -4600,14 +4595,21 @@
       <c r="Z65" s="13"/>
     </row>
     <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="53"/>
+      <c r="A66" s="68" t="str">
+        <f>A65</f>
+        <v>#</v>
+      </c>
+      <c r="B66" s="102"/>
+      <c r="C66" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="72"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -4628,22 +4630,16 @@
       <c r="Z66" s="13"/>
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="100">
-        <v>8</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="53"/>
+      <c r="A67" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="99"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="77"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
@@ -4664,21 +4660,24 @@
       <c r="Z67" s="13"/>
     </row>
     <row r="68" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="68" t="str">
-        <f>A67</f>
-        <v>#</v>
-      </c>
-      <c r="B68" s="102"/>
-      <c r="C68" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="D68" s="98" t="s">
+      <c r="A68" s="78"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="72"/>
+      <c r="E68" s="74">
+        <v>750</v>
+      </c>
+      <c r="F68" s="74">
+        <v>750</v>
+      </c>
+      <c r="G68" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="77"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
@@ -4699,15 +4698,23 @@
       <c r="Z68" s="13"/>
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="B69" s="99"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="76"/>
+      <c r="A69" s="78"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="74">
+        <v>80</v>
+      </c>
+      <c r="F69" s="74">
+        <v>80</v>
+      </c>
+      <c r="G69" s="76" t="s">
+        <v>109</v>
+      </c>
       <c r="H69" s="77"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
@@ -4732,19 +4739,19 @@
       <c r="A70" s="78"/>
       <c r="B70" s="78"/>
       <c r="C70" s="74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D70" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="74">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F70" s="74">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="G70" s="76" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H70" s="77"/>
       <c r="I70" s="13"/>
@@ -4770,19 +4777,19 @@
       <c r="A71" s="78"/>
       <c r="B71" s="78"/>
       <c r="C71" s="74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="74">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="F71" s="74">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H71" s="77"/>
       <c r="I71" s="13"/>
@@ -4808,21 +4815,23 @@
       <c r="A72" s="78"/>
       <c r="B72" s="78"/>
       <c r="C72" s="74" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="74">
-        <v>900</v>
+        <v>105</v>
       </c>
       <c r="F72" s="74">
-        <v>900</v>
+        <v>105</v>
       </c>
       <c r="G72" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="H72" s="77"/>
+        <v>115</v>
+      </c>
+      <c r="H72" s="77" t="s">
+        <v>116</v>
+      </c>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
@@ -4846,21 +4855,23 @@
       <c r="A73" s="78"/>
       <c r="B73" s="78"/>
       <c r="C73" s="74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="74">
-        <v>1200</v>
+        <v>12600</v>
       </c>
       <c r="F73" s="74">
-        <v>1200</v>
+        <v>12600</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="H73" s="77"/>
+        <v>118</v>
+      </c>
+      <c r="H73" s="77" t="s">
+        <v>119</v>
+      </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
@@ -4884,22 +4895,22 @@
       <c r="A74" s="78"/>
       <c r="B74" s="78"/>
       <c r="C74" s="74" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="74">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="F74" s="74">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G74" s="76" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H74" s="77" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -4921,66 +4932,56 @@
       <c r="Z74" s="13"/>
     </row>
     <row r="75" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="78"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="75" t="s">
+      <c r="A75" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="79"/>
+      <c r="C75" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="74">
-        <v>12600</v>
-      </c>
-      <c r="F75" s="74">
-        <v>12600</v>
-      </c>
-      <c r="G75" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="H75" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
+      <c r="E75" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="80"/>
+      <c r="G75" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
     </row>
     <row r="76" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="78"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="74">
-        <v>5</v>
-      </c>
-      <c r="F76" s="74">
-        <v>3</v>
-      </c>
-      <c r="G76" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="H76" s="77" t="s">
-        <v>122</v>
-      </c>
+      <c r="A76" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="99"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="77"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
@@ -5001,56 +5002,66 @@
       <c r="Z76" s="13"/>
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="B77" s="79"/>
-      <c r="C77" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="D77" s="81" t="s">
+      <c r="A77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="F77" s="80"/>
-      <c r="G77" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="H77" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
-      <c r="X77" s="7"/>
-      <c r="Y77" s="7"/>
-      <c r="Z77" s="7"/>
+      <c r="E77" s="74">
+        <v>45</v>
+      </c>
+      <c r="F77" s="74">
+        <v>45</v>
+      </c>
+      <c r="G77" s="110" t="s">
+        <v>218</v>
+      </c>
+      <c r="H77" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="13"/>
     </row>
     <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="B78" s="99"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="77"/>
+      <c r="A78" s="78"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="74">
+        <v>25</v>
+      </c>
+      <c r="F78" s="74">
+        <v>75</v>
+      </c>
+      <c r="G78" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="77" t="s">
+        <v>128</v>
+      </c>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
@@ -5073,20 +5084,20 @@
     <row r="79" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="78"/>
       <c r="B79" s="78"/>
-      <c r="C79" s="110" t="s">
-        <v>218</v>
+      <c r="C79" s="74" t="s">
+        <v>203</v>
       </c>
       <c r="D79" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="74">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="F79" s="74">
-        <v>45</v>
-      </c>
-      <c r="G79" s="111" t="s">
-        <v>219</v>
+        <v>450</v>
+      </c>
+      <c r="G79" s="76" t="s">
+        <v>132</v>
       </c>
       <c r="H79" s="77" t="s">
         <v>128</v>
@@ -5111,126 +5122,66 @@
       <c r="Z79" s="13"/>
     </row>
     <row r="80" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="78"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="D80" s="75" t="s">
+      <c r="A80" s="79"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="74">
-        <v>25</v>
-      </c>
-      <c r="F80" s="74">
-        <v>75</v>
-      </c>
-      <c r="G80" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="H80" s="77" t="s">
+      <c r="E80" s="80">
+        <v>3600</v>
+      </c>
+      <c r="F80" s="80">
+        <v>3600</v>
+      </c>
+      <c r="G80" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="13"/>
-      <c r="Y80" s="13"/>
-      <c r="Z80" s="13"/>
-    </row>
-    <row r="81" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="78"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="D81" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" s="74">
-        <v>450</v>
-      </c>
-      <c r="F81" s="74">
-        <v>450</v>
-      </c>
-      <c r="G81" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="H81" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="13"/>
-    </row>
-    <row r="82" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="79"/>
-      <c r="B82" s="79"/>
-      <c r="C82" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="D82" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" s="80">
-        <v>3600</v>
-      </c>
-      <c r="F82" s="80">
-        <v>3600</v>
-      </c>
-      <c r="G82" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="H82" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
-      <c r="Z82" s="7"/>
-    </row>
-    <row r="83" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="84"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="87"/>
+      <c r="H81" s="88"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="84"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="87"/>
+      <c r="H82" s="88"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="84"/>
       <c r="B83" s="84"/>
       <c r="C83" s="85"/>
@@ -5240,7 +5191,7 @@
       <c r="G83" s="87"/>
       <c r="H83" s="88"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="84"/>
       <c r="B84" s="84"/>
       <c r="C84" s="85"/>
@@ -5250,7 +5201,7 @@
       <c r="G84" s="87"/>
       <c r="H84" s="88"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="84"/>
       <c r="B85" s="84"/>
       <c r="C85" s="85"/>
@@ -5260,7 +5211,7 @@
       <c r="G85" s="87"/>
       <c r="H85" s="88"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="84"/>
       <c r="B86" s="84"/>
       <c r="C86" s="85"/>
@@ -5270,7 +5221,7 @@
       <c r="G86" s="87"/>
       <c r="H86" s="88"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="84"/>
       <c r="B87" s="84"/>
       <c r="C87" s="85"/>
@@ -5280,7 +5231,7 @@
       <c r="G87" s="87"/>
       <c r="H87" s="88"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="84"/>
       <c r="B88" s="84"/>
       <c r="C88" s="85"/>
@@ -5290,7 +5241,7 @@
       <c r="G88" s="87"/>
       <c r="H88" s="88"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="84"/>
       <c r="B89" s="84"/>
       <c r="C89" s="85"/>
@@ -5300,7 +5251,7 @@
       <c r="G89" s="87"/>
       <c r="H89" s="88"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="84"/>
       <c r="B90" s="84"/>
       <c r="C90" s="85"/>
@@ -5310,7 +5261,7 @@
       <c r="G90" s="87"/>
       <c r="H90" s="88"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="84"/>
       <c r="B91" s="84"/>
       <c r="C91" s="85"/>
@@ -5320,7 +5271,7 @@
       <c r="G91" s="87"/>
       <c r="H91" s="88"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="84"/>
       <c r="B92" s="84"/>
       <c r="C92" s="85"/>
@@ -5330,7 +5281,7 @@
       <c r="G92" s="87"/>
       <c r="H92" s="88"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="84"/>
       <c r="B93" s="84"/>
       <c r="C93" s="85"/>
@@ -5340,7 +5291,7 @@
       <c r="G93" s="87"/>
       <c r="H93" s="88"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="84"/>
       <c r="B94" s="84"/>
       <c r="C94" s="85"/>
@@ -5350,7 +5301,7 @@
       <c r="G94" s="87"/>
       <c r="H94" s="88"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="84"/>
       <c r="B95" s="84"/>
       <c r="C95" s="85"/>
@@ -5360,7 +5311,7 @@
       <c r="G95" s="87"/>
       <c r="H95" s="88"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="84"/>
       <c r="B96" s="84"/>
       <c r="C96" s="85"/>
@@ -14400,30 +14351,13 @@
       <c r="G999" s="87"/>
       <c r="H999" s="88"/>
     </row>
-    <row r="1000" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="84"/>
-      <c r="B1000" s="84"/>
-      <c r="C1000" s="85"/>
-      <c r="D1000" s="86"/>
-      <c r="E1000" s="85"/>
-      <c r="F1000" s="85"/>
-      <c r="G1000" s="87"/>
-      <c r="H1000" s="88"/>
-    </row>
-    <row r="1001" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="84"/>
-      <c r="B1001" s="84"/>
-      <c r="C1001" s="85"/>
-      <c r="D1001" s="86"/>
-      <c r="E1001" s="85"/>
-      <c r="F1001" s="85"/>
-      <c r="G1001" s="87"/>
-      <c r="H1001" s="88"/>
-    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" errorTitle="WellCountError" error="Global wellcount should be sum of random_wellcount and fixed_wells" promptTitle="Experiment Count" prompt="MUST be the sum of &quot;Random Experiments&quot; and &quot;Manual Experiments&quot;" sqref="E6">
       <formula1>SUM(#REF!,E18)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+      <formula1>"MIT_PVLab, HC, LBL"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -14457,43 +14391,43 @@
         <v>135</v>
       </c>
       <c r="B1" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="91">
+        <f>IF(manual_wells &gt; 0, 1, "")</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="91" t="s">
         <v>230</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="89" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="K1" s="90" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="str">
-        <f>IF(manual_wells &gt; 0, 1, "")</f>
-        <v/>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>231</v>
       </c>
       <c r="C2" s="90">
         <v>150</v>
@@ -14519,18 +14453,18 @@
       <c r="J2" s="90">
         <v>0</v>
       </c>
-      <c r="K2" s="90" t="str">
+      <c r="K2" s="90">
         <f>IF(NOT(A2=""), SUM(C2:J2), "")</f>
-        <v/>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="str">
+      <c r="A3" s="91">
         <f>IF(A2 &lt; fixed_wells, A2 + 1, "")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" s="90">
         <v>150</v>
@@ -14556,18 +14490,18 @@
       <c r="J3" s="90">
         <v>0</v>
       </c>
-      <c r="K3" s="90" t="str">
+      <c r="K3" s="90">
         <f t="shared" ref="K3:K66" si="0">IF(NOT(A3=""), SUM(C3:J3), "")</f>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="str">
+      <c r="A4" s="91">
         <f t="shared" ref="A4:A34" si="1">IF(A3 &lt; fixed_wells, A3 + 1, "")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" s="90">
         <v>150</v>
@@ -14593,18 +14527,18 @@
       <c r="J4" s="90">
         <v>0</v>
       </c>
-      <c r="K4" s="90" t="str">
+      <c r="K4" s="90">
         <f t="shared" si="0"/>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="str">
+      <c r="A5" s="91">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="90">
         <v>150</v>
@@ -14630,9 +14564,9 @@
       <c r="J5" s="90">
         <v>0</v>
       </c>
-      <c r="K5" s="90" t="str">
+      <c r="K5" s="90">
         <f t="shared" si="0"/>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -16064,7 +15998,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16079,7 +16013,7 @@
         <v>135</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="89" t="s">
         <v>136</v>
@@ -16103,16 +16037,16 @@
         <v>142</v>
       </c>
       <c r="J1" s="89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>IF(NOT('Manual Experiment Interface'!A2=""),'Manual Experiment Interface'!A2,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
         <f>IF(NOT('Manual Experiment Interface'!B2=""),'Manual Experiment Interface'!B2,"")</f>
@@ -16150,15 +16084,15 @@
         <f>IF(NOT('Manual Experiment Interface'!J2=""),'Manual Experiment Interface'!J2,"")</f>
         <v>0</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2">
         <f>IF(NOT('Manual Experiment Interface'!K2=""),'Manual Experiment Interface'!K2,"")</f>
-        <v/>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
+      <c r="A3">
         <f>IF(NOT('Manual Experiment Interface'!A3=""),'Manual Experiment Interface'!A3,"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
         <f>IF(NOT('Manual Experiment Interface'!B3=""),'Manual Experiment Interface'!B3,"")</f>
@@ -16196,15 +16130,15 @@
         <f>IF(NOT('Manual Experiment Interface'!J3=""),'Manual Experiment Interface'!J3,"")</f>
         <v>0</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3">
         <f>IF(NOT('Manual Experiment Interface'!K3=""),'Manual Experiment Interface'!K3,"")</f>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
+      <c r="A4">
         <f>IF(NOT('Manual Experiment Interface'!A4=""),'Manual Experiment Interface'!A4,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
         <f>IF(NOT('Manual Experiment Interface'!B4=""),'Manual Experiment Interface'!B4,"")</f>
@@ -16242,15 +16176,15 @@
         <f>IF(NOT('Manual Experiment Interface'!J4=""),'Manual Experiment Interface'!J4,"")</f>
         <v>0</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4">
         <f>IF(NOT('Manual Experiment Interface'!K4=""),'Manual Experiment Interface'!K4,"")</f>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
+      <c r="A5">
         <f>IF(NOT('Manual Experiment Interface'!A5=""),'Manual Experiment Interface'!A5,"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
         <f>IF(NOT('Manual Experiment Interface'!B5=""),'Manual Experiment Interface'!B5,"")</f>
@@ -16288,9 +16222,9 @@
         <f>IF(NOT('Manual Experiment Interface'!J5=""),'Manual Experiment Interface'!J5,"")</f>
         <v>0</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5">
         <f>IF(NOT('Manual Experiment Interface'!K5=""),'Manual Experiment Interface'!K5,"")</f>
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -20580,8 +20514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20932,7 +20866,7 @@
       </c>
       <c r="D11" s="34">
         <f>'User Interface'!E10</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>12</v>
@@ -20962,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>2</v>
@@ -21108,7 +21042,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>2</v>
@@ -21154,7 +21088,7 @@
       <c r="C18" s="45"/>
       <c r="D18" s="34">
         <f>'User Interface'!E18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>12</v>
@@ -21248,7 +21182,7 @@
       <c r="W21" s="13"/>
     </row>
     <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="107" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -21607,7 +21541,7 @@
     </row>
     <row r="33" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="str">
-        <f>'User Interface'!A29</f>
+        <f>'User Interface'!A28</f>
         <v>#</v>
       </c>
       <c r="B33" s="50" t="s">
@@ -21617,7 +21551,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="61">
-        <f>'User Interface'!E29</f>
+        <f>'User Interface'!E28</f>
         <v>75</v>
       </c>
       <c r="E33" s="50" t="s">
@@ -21644,7 +21578,7 @@
     </row>
     <row r="34" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="str">
-        <f>'User Interface'!A30</f>
+        <f>'User Interface'!A29</f>
         <v>#</v>
       </c>
       <c r="B34" s="50" t="s">
@@ -21654,7 +21588,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="61">
-        <f>'User Interface'!E30</f>
+        <f>'User Interface'!E29</f>
         <v>450</v>
       </c>
       <c r="E34" s="50" t="s">
@@ -21681,7 +21615,7 @@
     </row>
     <row r="35" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="str">
-        <f>'User Interface'!A31</f>
+        <f>'User Interface'!A30</f>
         <v>#</v>
       </c>
       <c r="B35" s="50" t="s">
@@ -21691,7 +21625,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="61">
-        <f>'User Interface'!E31</f>
+        <f>'User Interface'!E30</f>
         <v>3600</v>
       </c>
       <c r="E35" s="50" t="s">
@@ -21743,7 +21677,7 @@
     </row>
     <row r="37" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54">
-        <f>'User Interface'!A33</f>
+        <f>'User Interface'!A32</f>
         <v>0</v>
       </c>
       <c r="B37" s="50" t="s">
@@ -21753,7 +21687,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="50" t="str">
-        <f>'User Interface'!E33</f>
+        <f>'User Interface'!E32</f>
         <v>['MeNH3I','PbI2','DMSO', 'DMF']</v>
       </c>
       <c r="E37" s="50" t="s">
@@ -21780,7 +21714,7 @@
     </row>
     <row r="38" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="str">
-        <f>'User Interface'!A34</f>
+        <f>'User Interface'!A33</f>
         <v>#</v>
       </c>
       <c r="B38" s="61" t="s">
@@ -21790,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="50">
-        <f>'User Interface'!E34</f>
+        <f>'User Interface'!E33</f>
         <v>0</v>
       </c>
       <c r="E38" s="61" t="s">
@@ -21817,7 +21751,7 @@
     </row>
     <row r="39" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54">
-        <f>'User Interface'!A35</f>
+        <f>'User Interface'!A34</f>
         <v>0</v>
       </c>
       <c r="B39" s="67" t="s">
@@ -21827,7 +21761,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="50">
-        <f>'User Interface'!E35</f>
+        <f>'User Interface'!E34</f>
         <v>1.22</v>
       </c>
       <c r="E39" s="50" t="s">
@@ -21854,17 +21788,17 @@
     </row>
     <row r="40" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54">
-        <f>'User Interface'!A36</f>
+        <f>'User Interface'!A35</f>
         <v>0</v>
       </c>
-      <c r="B40" s="106" t="s">
-        <v>214</v>
+      <c r="B40" s="105" t="s">
+        <v>213</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="50">
-        <f>'User Interface'!E36</f>
+        <f>'User Interface'!E35</f>
         <v>1.33</v>
       </c>
       <c r="E40" s="50"/>
@@ -21889,17 +21823,17 @@
     </row>
     <row r="41" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54">
-        <f>'User Interface'!A37</f>
+        <f>'User Interface'!A36</f>
         <v>0</v>
       </c>
-      <c r="B41" s="106" t="s">
-        <v>215</v>
+      <c r="B41" s="105" t="s">
+        <v>214</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="50">
-        <f>'User Interface'!E37</f>
+        <f>'User Interface'!E36</f>
         <v>7</v>
       </c>
       <c r="E41" s="50"/>
@@ -21924,7 +21858,7 @@
     </row>
     <row r="42" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54" t="str">
-        <f>'User Interface'!A39</f>
+        <f>'User Interface'!A37</f>
         <v>#</v>
       </c>
       <c r="B42" s="50" t="s">
@@ -21934,7 +21868,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="50">
-        <f>'User Interface'!E39</f>
+        <f>'User Interface'!E37</f>
         <v>75</v>
       </c>
       <c r="E42" s="50" t="s">
@@ -21961,7 +21895,7 @@
     </row>
     <row r="43" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="str">
-        <f>'User Interface'!A40</f>
+        <f>'User Interface'!A38</f>
         <v>#</v>
       </c>
       <c r="B43" s="50" t="s">
@@ -21971,7 +21905,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="50">
-        <f>'User Interface'!E40</f>
+        <f>'User Interface'!E38</f>
         <v>450</v>
       </c>
       <c r="E43" s="50" t="s">
@@ -21998,7 +21932,7 @@
     </row>
     <row r="44" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="str">
-        <f>'User Interface'!A41</f>
+        <f>'User Interface'!A39</f>
         <v>#</v>
       </c>
       <c r="B44" s="50" t="s">
@@ -22008,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="50">
-        <f>'User Interface'!E41</f>
+        <f>'User Interface'!E39</f>
         <v>3600</v>
       </c>
       <c r="E44" s="50" t="s">
@@ -22059,7 +21993,7 @@
       <c r="W45" s="13"/>
     </row>
     <row r="46" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="107" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="50" t="s">
@@ -22129,7 +22063,7 @@
       <c r="W47" s="13"/>
     </row>
     <row r="48" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="107" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="67" t="s">
@@ -22164,7 +22098,7 @@
       <c r="W48" s="13"/>
     </row>
     <row r="49" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="107" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="67" t="s">
@@ -22329,7 +22263,7 @@
       <c r="W53" s="13"/>
     </row>
     <row r="54" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="107" t="s">
         <v>37</v>
       </c>
       <c r="B54" s="50" t="s">
@@ -22399,7 +22333,7 @@
       <c r="W55" s="13"/>
     </row>
     <row r="56" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="108" t="s">
+      <c r="A56" s="107" t="s">
         <v>37</v>
       </c>
       <c r="B56" s="67" t="s">
@@ -22659,7 +22593,7 @@
       <c r="W63" s="13"/>
     </row>
     <row r="64" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="108" t="s">
+      <c r="A64" s="107" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="50" t="s">
@@ -22764,7 +22698,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="74">
-        <f>'User Interface'!E70</f>
+        <f>'User Interface'!E68</f>
         <v>750</v>
       </c>
       <c r="E67" s="74" t="s">
@@ -22798,7 +22732,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="74">
-        <f>'User Interface'!E71</f>
+        <f>'User Interface'!E69</f>
         <v>80</v>
       </c>
       <c r="E68" s="74" t="s">
@@ -22832,7 +22766,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="74">
-        <f>'User Interface'!E72</f>
+        <f>'User Interface'!E70</f>
         <v>900</v>
       </c>
       <c r="E69" s="74" t="s">
@@ -22866,7 +22800,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="74">
-        <f>'User Interface'!E73</f>
+        <f>'User Interface'!E71</f>
         <v>1200</v>
       </c>
       <c r="E70" s="74" t="s">
@@ -22900,7 +22834,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="74">
-        <f>'User Interface'!E74</f>
+        <f>'User Interface'!E72</f>
         <v>105</v>
       </c>
       <c r="E71" s="74" t="s">
@@ -22934,7 +22868,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="74">
-        <f>'User Interface'!E75</f>
+        <f>'User Interface'!E73</f>
         <v>12600</v>
       </c>
       <c r="E72" s="74" t="s">
@@ -22968,7 +22902,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="74">
-        <f>'User Interface'!E76</f>
+        <f>'User Interface'!E74</f>
         <v>5</v>
       </c>
       <c r="E73" s="74" t="s">
@@ -23002,7 +22936,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="74" t="str">
-        <f>'User Interface'!E77</f>
+        <f>'User Interface'!E75</f>
         <v>Thin Film Plate</v>
       </c>
       <c r="E74" s="80" t="s">
@@ -23063,7 +22997,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="74">
-        <f>'User Interface'!E79</f>
+        <f>'User Interface'!E77</f>
         <v>45</v>
       </c>
       <c r="E76" s="74" t="s">
@@ -23097,7 +23031,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="74">
-        <f>'User Interface'!E80</f>
+        <f>'User Interface'!E78</f>
         <v>25</v>
       </c>
       <c r="E77" s="74" t="s">
@@ -23131,7 +23065,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="74">
-        <f>'User Interface'!E81</f>
+        <f>'User Interface'!E79</f>
         <v>450</v>
       </c>
       <c r="E78" s="74" t="s">
@@ -23165,7 +23099,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="74">
-        <f>'User Interface'!E82</f>
+        <f>'User Interface'!E80</f>
         <v>3600</v>
       </c>
       <c r="E79" s="80" t="s">
